--- a/database/SpotData.xlsx
+++ b/database/SpotData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>日期</t>
   </si>
@@ -423,6 +423,87 @@
   <si>
     <t>20180213</t>
   </si>
+  <si>
+    <t>20180222</t>
+  </si>
+  <si>
+    <t>20180223</t>
+  </si>
+  <si>
+    <t>20180226</t>
+  </si>
+  <si>
+    <t>20180227</t>
+  </si>
+  <si>
+    <t>20180228</t>
+  </si>
+  <si>
+    <t>20180301</t>
+  </si>
+  <si>
+    <t>20180302</t>
+  </si>
+  <si>
+    <t>20180305</t>
+  </si>
+  <si>
+    <t>20180306</t>
+  </si>
+  <si>
+    <t>20180307</t>
+  </si>
+  <si>
+    <t>20180308</t>
+  </si>
+  <si>
+    <t>20180309</t>
+  </si>
+  <si>
+    <t>20180312</t>
+  </si>
+  <si>
+    <t>20180313</t>
+  </si>
+  <si>
+    <t>20180314</t>
+  </si>
+  <si>
+    <t>20180315</t>
+  </si>
+  <si>
+    <t>20180316</t>
+  </si>
+  <si>
+    <t>20180319</t>
+  </si>
+  <si>
+    <t>20180320</t>
+  </si>
+  <si>
+    <t>20180321</t>
+  </si>
+  <si>
+    <t>20180322</t>
+  </si>
+  <si>
+    <t>20180323</t>
+  </si>
+  <si>
+    <t>20180326</t>
+  </si>
+  <si>
+    <t>20180327</t>
+  </si>
+  <si>
+    <t>20180328</t>
+  </si>
+  <si>
+    <t>20180329</t>
+  </si>
+  <si>
+    <t>20180330</t>
+  </si>
 </sst>
 </file>
 
@@ -779,7 +860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT92"/>
+  <dimension ref="A1:AT119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13662,6 +13743,3786 @@
         <v>2417.27</v>
       </c>
     </row>
+    <row r="93" spans="1:46">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93">
+        <v>52290</v>
+      </c>
+      <c r="D93">
+        <v>3924</v>
+      </c>
+      <c r="E93">
+        <v>26600</v>
+      </c>
+      <c r="F93">
+        <v>13715</v>
+      </c>
+      <c r="G93">
+        <v>271.39</v>
+      </c>
+      <c r="H93">
+        <v>4231.11</v>
+      </c>
+      <c r="I93">
+        <v>3963.33</v>
+      </c>
+      <c r="J93">
+        <v>11745.5</v>
+      </c>
+      <c r="K93">
+        <v>19250</v>
+      </c>
+      <c r="L93">
+        <v>3620</v>
+      </c>
+      <c r="M93">
+        <v>2843.33</v>
+      </c>
+      <c r="N93">
+        <v>4117.69</v>
+      </c>
+      <c r="O93">
+        <v>102150</v>
+      </c>
+      <c r="P93">
+        <v>148000</v>
+      </c>
+      <c r="Q93">
+        <v>5714.55</v>
+      </c>
+      <c r="R93">
+        <v>6258</v>
+      </c>
+      <c r="S93">
+        <v>15663.7</v>
+      </c>
+      <c r="T93">
+        <v>2528</v>
+      </c>
+      <c r="U93">
+        <v>6518.33</v>
+      </c>
+      <c r="V93">
+        <v>2616.67</v>
+      </c>
+      <c r="W93">
+        <v>1543.2</v>
+      </c>
+      <c r="X93">
+        <v>2355</v>
+      </c>
+      <c r="Y93">
+        <v>5490</v>
+      </c>
+      <c r="Z93">
+        <v>3000</v>
+      </c>
+      <c r="AA93">
+        <v>2709</v>
+      </c>
+      <c r="AB93">
+        <v>7204.55</v>
+      </c>
+      <c r="AC93">
+        <v>8131.25</v>
+      </c>
+      <c r="AD93">
+        <v>2855</v>
+      </c>
+      <c r="AE93">
+        <v>740.8</v>
+      </c>
+      <c r="AF93">
+        <v>5160</v>
+      </c>
+      <c r="AG93">
+        <v>6450</v>
+      </c>
+      <c r="AH93">
+        <v>9655</v>
+      </c>
+      <c r="AI93">
+        <v>3660</v>
+      </c>
+      <c r="AJ93">
+        <v>3068.57</v>
+      </c>
+      <c r="AK93">
+        <v>5637.5</v>
+      </c>
+      <c r="AL93">
+        <v>1781.07</v>
+      </c>
+      <c r="AM93">
+        <v>1880</v>
+      </c>
+      <c r="AN93">
+        <v>1498.33</v>
+      </c>
+      <c r="AO93">
+        <v>548.67</v>
+      </c>
+      <c r="AP93">
+        <v>4230</v>
+      </c>
+      <c r="AQ93">
+        <v>122.67</v>
+      </c>
+      <c r="AR93">
+        <v>75</v>
+      </c>
+      <c r="AS93">
+        <v>9183.33</v>
+      </c>
+      <c r="AT93">
+        <v>2418.18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:46">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94">
+        <v>53070</v>
+      </c>
+      <c r="D94">
+        <v>3920</v>
+      </c>
+      <c r="E94">
+        <v>26930</v>
+      </c>
+      <c r="F94">
+        <v>13970</v>
+      </c>
+      <c r="G94">
+        <v>272.2</v>
+      </c>
+      <c r="H94">
+        <v>4232.22</v>
+      </c>
+      <c r="I94">
+        <v>3941.67</v>
+      </c>
+      <c r="J94">
+        <v>11772.7</v>
+      </c>
+      <c r="K94">
+        <v>19400</v>
+      </c>
+      <c r="L94">
+        <v>3622.67</v>
+      </c>
+      <c r="M94">
+        <v>2846.67</v>
+      </c>
+      <c r="N94">
+        <v>4100</v>
+      </c>
+      <c r="O94">
+        <v>104150</v>
+      </c>
+      <c r="P94">
+        <v>147250</v>
+      </c>
+      <c r="Q94">
+        <v>5884.55</v>
+      </c>
+      <c r="R94">
+        <v>6258</v>
+      </c>
+      <c r="S94">
+        <v>15664</v>
+      </c>
+      <c r="T94">
+        <v>2528</v>
+      </c>
+      <c r="U94">
+        <v>6525</v>
+      </c>
+      <c r="V94">
+        <v>2616.67</v>
+      </c>
+      <c r="W94">
+        <v>1544.8</v>
+      </c>
+      <c r="X94">
+        <v>2363.33</v>
+      </c>
+      <c r="Y94">
+        <v>5490</v>
+      </c>
+      <c r="Z94">
+        <v>3000</v>
+      </c>
+      <c r="AA94">
+        <v>2709</v>
+      </c>
+      <c r="AB94">
+        <v>7177.27</v>
+      </c>
+      <c r="AC94">
+        <v>8131.25</v>
+      </c>
+      <c r="AD94">
+        <v>2880</v>
+      </c>
+      <c r="AE94">
+        <v>734.4</v>
+      </c>
+      <c r="AF94">
+        <v>5160</v>
+      </c>
+      <c r="AG94">
+        <v>6450</v>
+      </c>
+      <c r="AH94">
+        <v>9605</v>
+      </c>
+      <c r="AI94">
+        <v>3660</v>
+      </c>
+      <c r="AJ94">
+        <v>3064.29</v>
+      </c>
+      <c r="AK94">
+        <v>5682.5</v>
+      </c>
+      <c r="AL94">
+        <v>1781.79</v>
+      </c>
+      <c r="AM94">
+        <v>1880</v>
+      </c>
+      <c r="AN94">
+        <v>1498.33</v>
+      </c>
+      <c r="AO94">
+        <v>550.5599999999999</v>
+      </c>
+      <c r="AP94">
+        <v>4175</v>
+      </c>
+      <c r="AQ94">
+        <v>122.67</v>
+      </c>
+      <c r="AR94">
+        <v>75</v>
+      </c>
+      <c r="AS94">
+        <v>9150</v>
+      </c>
+      <c r="AT94">
+        <v>2418.18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:46">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95">
+        <v>52950</v>
+      </c>
+      <c r="D95">
+        <v>4042.14</v>
+      </c>
+      <c r="E95">
+        <v>26930</v>
+      </c>
+      <c r="F95">
+        <v>13910</v>
+      </c>
+      <c r="G95">
+        <v>272.95</v>
+      </c>
+      <c r="H95">
+        <v>4348.89</v>
+      </c>
+      <c r="I95">
+        <v>3988.33</v>
+      </c>
+      <c r="J95">
+        <v>12031.8</v>
+      </c>
+      <c r="K95">
+        <v>19400</v>
+      </c>
+      <c r="L95">
+        <v>3632.5</v>
+      </c>
+      <c r="M95">
+        <v>2846.67</v>
+      </c>
+      <c r="N95">
+        <v>4194.17</v>
+      </c>
+      <c r="O95">
+        <v>103650</v>
+      </c>
+      <c r="P95">
+        <v>146750</v>
+      </c>
+      <c r="Q95">
+        <v>5990.91</v>
+      </c>
+      <c r="R95">
+        <v>6218</v>
+      </c>
+      <c r="S95">
+        <v>15651.6</v>
+      </c>
+      <c r="T95">
+        <v>2520</v>
+      </c>
+      <c r="U95">
+        <v>6538.33</v>
+      </c>
+      <c r="V95">
+        <v>2616.67</v>
+      </c>
+      <c r="W95">
+        <v>1548</v>
+      </c>
+      <c r="X95">
+        <v>2403.33</v>
+      </c>
+      <c r="Y95">
+        <v>5490</v>
+      </c>
+      <c r="Z95">
+        <v>3000</v>
+      </c>
+      <c r="AA95">
+        <v>2709</v>
+      </c>
+      <c r="AB95">
+        <v>7045</v>
+      </c>
+      <c r="AC95">
+        <v>8143.75</v>
+      </c>
+      <c r="AD95">
+        <v>2837.5</v>
+      </c>
+      <c r="AE95">
+        <v>728.8</v>
+      </c>
+      <c r="AF95">
+        <v>5215</v>
+      </c>
+      <c r="AG95">
+        <v>6450</v>
+      </c>
+      <c r="AH95">
+        <v>9565</v>
+      </c>
+      <c r="AI95">
+        <v>3660</v>
+      </c>
+      <c r="AJ95">
+        <v>3081.43</v>
+      </c>
+      <c r="AK95">
+        <v>5736.25</v>
+      </c>
+      <c r="AL95">
+        <v>1787.14</v>
+      </c>
+      <c r="AM95">
+        <v>1960</v>
+      </c>
+      <c r="AN95">
+        <v>1498.33</v>
+      </c>
+      <c r="AO95">
+        <v>561.33</v>
+      </c>
+      <c r="AP95">
+        <v>4090</v>
+      </c>
+      <c r="AQ95">
+        <v>122.67</v>
+      </c>
+      <c r="AR95">
+        <v>75</v>
+      </c>
+      <c r="AS95">
+        <v>9062.5</v>
+      </c>
+      <c r="AT95">
+        <v>2420.91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:46">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96">
+        <v>52920</v>
+      </c>
+      <c r="D96">
+        <v>4055.71</v>
+      </c>
+      <c r="E96">
+        <v>27000</v>
+      </c>
+      <c r="F96">
+        <v>13950</v>
+      </c>
+      <c r="G96">
+        <v>272</v>
+      </c>
+      <c r="H96">
+        <v>4366.67</v>
+      </c>
+      <c r="I96">
+        <v>3988.33</v>
+      </c>
+      <c r="J96">
+        <v>12163.6</v>
+      </c>
+      <c r="K96">
+        <v>19550</v>
+      </c>
+      <c r="L96">
+        <v>3652</v>
+      </c>
+      <c r="M96">
+        <v>2846.67</v>
+      </c>
+      <c r="N96">
+        <v>4195.83</v>
+      </c>
+      <c r="O96">
+        <v>104450</v>
+      </c>
+      <c r="P96">
+        <v>147000</v>
+      </c>
+      <c r="Q96">
+        <v>6015.45</v>
+      </c>
+      <c r="R96">
+        <v>6178</v>
+      </c>
+      <c r="S96">
+        <v>15647.3</v>
+      </c>
+      <c r="T96">
+        <v>2502</v>
+      </c>
+      <c r="U96">
+        <v>6515</v>
+      </c>
+      <c r="V96">
+        <v>2616.67</v>
+      </c>
+      <c r="W96">
+        <v>1548</v>
+      </c>
+      <c r="X96">
+        <v>2411.67</v>
+      </c>
+      <c r="Y96">
+        <v>5490</v>
+      </c>
+      <c r="Z96">
+        <v>3000</v>
+      </c>
+      <c r="AA96">
+        <v>2709</v>
+      </c>
+      <c r="AB96">
+        <v>7045</v>
+      </c>
+      <c r="AC96">
+        <v>8156.25</v>
+      </c>
+      <c r="AD96">
+        <v>2727.5</v>
+      </c>
+      <c r="AE96">
+        <v>724</v>
+      </c>
+      <c r="AF96">
+        <v>5265</v>
+      </c>
+      <c r="AG96">
+        <v>6450</v>
+      </c>
+      <c r="AH96">
+        <v>9565</v>
+      </c>
+      <c r="AI96">
+        <v>3652</v>
+      </c>
+      <c r="AJ96">
+        <v>3077.14</v>
+      </c>
+      <c r="AK96">
+        <v>5730</v>
+      </c>
+      <c r="AL96">
+        <v>1790.71</v>
+      </c>
+      <c r="AM96">
+        <v>1960</v>
+      </c>
+      <c r="AN96">
+        <v>1498.33</v>
+      </c>
+      <c r="AO96">
+        <v>566.4400000000001</v>
+      </c>
+      <c r="AP96">
+        <v>4050</v>
+      </c>
+      <c r="AQ96">
+        <v>122.67</v>
+      </c>
+      <c r="AR96">
+        <v>75</v>
+      </c>
+      <c r="AS96">
+        <v>9062.5</v>
+      </c>
+      <c r="AT96">
+        <v>2420.91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:46">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97">
+        <v>52430</v>
+      </c>
+      <c r="D97">
+        <v>4059.29</v>
+      </c>
+      <c r="E97">
+        <v>26700</v>
+      </c>
+      <c r="F97">
+        <v>14045</v>
+      </c>
+      <c r="G97">
+        <v>270.01</v>
+      </c>
+      <c r="H97">
+        <v>4367.78</v>
+      </c>
+      <c r="I97">
+        <v>3988.33</v>
+      </c>
+      <c r="J97">
+        <v>12163.6</v>
+      </c>
+      <c r="K97">
+        <v>19300</v>
+      </c>
+      <c r="L97">
+        <v>3611</v>
+      </c>
+      <c r="M97">
+        <v>2846.67</v>
+      </c>
+      <c r="N97">
+        <v>4185</v>
+      </c>
+      <c r="O97">
+        <v>104250</v>
+      </c>
+      <c r="P97">
+        <v>147250</v>
+      </c>
+      <c r="Q97">
+        <v>5995.45</v>
+      </c>
+      <c r="R97">
+        <v>6154</v>
+      </c>
+      <c r="S97">
+        <v>15647.7</v>
+      </c>
+      <c r="T97">
+        <v>2496</v>
+      </c>
+      <c r="U97">
+        <v>6506.67</v>
+      </c>
+      <c r="V97">
+        <v>2616.67</v>
+      </c>
+      <c r="W97">
+        <v>1548</v>
+      </c>
+      <c r="X97">
+        <v>2421.67</v>
+      </c>
+      <c r="Y97">
+        <v>5490</v>
+      </c>
+      <c r="Z97">
+        <v>3000</v>
+      </c>
+      <c r="AA97">
+        <v>2709</v>
+      </c>
+      <c r="AB97">
+        <v>6860</v>
+      </c>
+      <c r="AC97">
+        <v>8256.25</v>
+      </c>
+      <c r="AD97">
+        <v>2640</v>
+      </c>
+      <c r="AE97">
+        <v>712.8</v>
+      </c>
+      <c r="AF97">
+        <v>5267.5</v>
+      </c>
+      <c r="AG97">
+        <v>6450</v>
+      </c>
+      <c r="AH97">
+        <v>9555</v>
+      </c>
+      <c r="AI97">
+        <v>3652</v>
+      </c>
+      <c r="AJ97">
+        <v>3111.43</v>
+      </c>
+      <c r="AK97">
+        <v>5722.5</v>
+      </c>
+      <c r="AL97">
+        <v>1793.21</v>
+      </c>
+      <c r="AM97">
+        <v>1976.67</v>
+      </c>
+      <c r="AN97">
+        <v>1498.33</v>
+      </c>
+      <c r="AO97">
+        <v>564</v>
+      </c>
+      <c r="AP97">
+        <v>3950</v>
+      </c>
+      <c r="AQ97">
+        <v>122.67</v>
+      </c>
+      <c r="AR97">
+        <v>75</v>
+      </c>
+      <c r="AS97">
+        <v>9058.33</v>
+      </c>
+      <c r="AT97">
+        <v>2425.45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:46">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98">
+        <v>52050</v>
+      </c>
+      <c r="D98">
+        <v>4088.12</v>
+      </c>
+      <c r="E98">
+        <v>26730</v>
+      </c>
+      <c r="F98">
+        <v>14140</v>
+      </c>
+      <c r="G98">
+        <v>270.09</v>
+      </c>
+      <c r="H98">
+        <v>4402.5</v>
+      </c>
+      <c r="I98">
+        <v>3988.33</v>
+      </c>
+      <c r="J98">
+        <v>12118.2</v>
+      </c>
+      <c r="K98">
+        <v>19200</v>
+      </c>
+      <c r="L98">
+        <v>3609</v>
+      </c>
+      <c r="M98">
+        <v>2853.33</v>
+      </c>
+      <c r="N98">
+        <v>4190.83</v>
+      </c>
+      <c r="O98">
+        <v>103550</v>
+      </c>
+      <c r="P98">
+        <v>146750</v>
+      </c>
+      <c r="Q98">
+        <v>5995.45</v>
+      </c>
+      <c r="R98">
+        <v>6124</v>
+      </c>
+      <c r="S98">
+        <v>15655.6</v>
+      </c>
+      <c r="T98">
+        <v>2496</v>
+      </c>
+      <c r="U98">
+        <v>6510</v>
+      </c>
+      <c r="V98">
+        <v>2616.67</v>
+      </c>
+      <c r="W98">
+        <v>1548</v>
+      </c>
+      <c r="X98">
+        <v>2421.67</v>
+      </c>
+      <c r="Y98">
+        <v>5490</v>
+      </c>
+      <c r="Z98">
+        <v>3000</v>
+      </c>
+      <c r="AA98">
+        <v>2709</v>
+      </c>
+      <c r="AB98">
+        <v>6789.09</v>
+      </c>
+      <c r="AC98">
+        <v>8371.43</v>
+      </c>
+      <c r="AD98">
+        <v>2600</v>
+      </c>
+      <c r="AE98">
+        <v>706.4</v>
+      </c>
+      <c r="AF98">
+        <v>5297.5</v>
+      </c>
+      <c r="AG98">
+        <v>6450</v>
+      </c>
+      <c r="AH98">
+        <v>9565</v>
+      </c>
+      <c r="AI98">
+        <v>3652</v>
+      </c>
+      <c r="AJ98">
+        <v>3147.14</v>
+      </c>
+      <c r="AK98">
+        <v>5731.25</v>
+      </c>
+      <c r="AL98">
+        <v>1798.57</v>
+      </c>
+      <c r="AM98">
+        <v>1976.67</v>
+      </c>
+      <c r="AN98">
+        <v>1498.33</v>
+      </c>
+      <c r="AO98">
+        <v>561</v>
+      </c>
+      <c r="AP98">
+        <v>3890</v>
+      </c>
+      <c r="AQ98">
+        <v>122.67</v>
+      </c>
+      <c r="AR98">
+        <v>75</v>
+      </c>
+      <c r="AS98">
+        <v>9041.67</v>
+      </c>
+      <c r="AT98">
+        <v>2426.36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:46">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99">
+        <v>51960</v>
+      </c>
+      <c r="D99">
+        <v>4085.62</v>
+      </c>
+      <c r="E99">
+        <v>26490</v>
+      </c>
+      <c r="F99">
+        <v>14140</v>
+      </c>
+      <c r="G99">
+        <v>270.9</v>
+      </c>
+      <c r="H99">
+        <v>4393.75</v>
+      </c>
+      <c r="I99">
+        <v>3980</v>
+      </c>
+      <c r="J99">
+        <v>12140.9</v>
+      </c>
+      <c r="K99">
+        <v>19000</v>
+      </c>
+      <c r="L99">
+        <v>3613</v>
+      </c>
+      <c r="M99">
+        <v>2853.33</v>
+      </c>
+      <c r="N99">
+        <v>4179.17</v>
+      </c>
+      <c r="O99">
+        <v>101800</v>
+      </c>
+      <c r="P99">
+        <v>146500</v>
+      </c>
+      <c r="Q99">
+        <v>6038.18</v>
+      </c>
+      <c r="R99">
+        <v>6104</v>
+      </c>
+      <c r="S99">
+        <v>15657</v>
+      </c>
+      <c r="T99">
+        <v>2496</v>
+      </c>
+      <c r="U99">
+        <v>6541.67</v>
+      </c>
+      <c r="V99">
+        <v>2616.67</v>
+      </c>
+      <c r="W99">
+        <v>1549.6</v>
+      </c>
+      <c r="X99">
+        <v>2515</v>
+      </c>
+      <c r="Y99">
+        <v>5490</v>
+      </c>
+      <c r="Z99">
+        <v>3000</v>
+      </c>
+      <c r="AA99">
+        <v>2709</v>
+      </c>
+      <c r="AB99">
+        <v>6789.09</v>
+      </c>
+      <c r="AC99">
+        <v>8371.43</v>
+      </c>
+      <c r="AD99">
+        <v>2555</v>
+      </c>
+      <c r="AE99">
+        <v>697.6</v>
+      </c>
+      <c r="AF99">
+        <v>5300</v>
+      </c>
+      <c r="AG99">
+        <v>6479.17</v>
+      </c>
+      <c r="AH99">
+        <v>9565</v>
+      </c>
+      <c r="AI99">
+        <v>3652</v>
+      </c>
+      <c r="AJ99">
+        <v>3217.14</v>
+      </c>
+      <c r="AK99">
+        <v>5803.75</v>
+      </c>
+      <c r="AL99">
+        <v>1806.79</v>
+      </c>
+      <c r="AM99">
+        <v>1976.67</v>
+      </c>
+      <c r="AN99">
+        <v>1498.33</v>
+      </c>
+      <c r="AO99">
+        <v>562.11</v>
+      </c>
+      <c r="AP99">
+        <v>3830</v>
+      </c>
+      <c r="AQ99">
+        <v>121</v>
+      </c>
+      <c r="AR99">
+        <v>74.83</v>
+      </c>
+      <c r="AS99">
+        <v>9054.17</v>
+      </c>
+      <c r="AT99">
+        <v>2429.09</v>
+      </c>
+    </row>
+    <row r="100" spans="1:46">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100">
+        <v>51770</v>
+      </c>
+      <c r="D100">
+        <v>4044</v>
+      </c>
+      <c r="E100">
+        <v>26330</v>
+      </c>
+      <c r="F100">
+        <v>14000</v>
+      </c>
+      <c r="G100">
+        <v>271.6</v>
+      </c>
+      <c r="H100">
+        <v>4366.25</v>
+      </c>
+      <c r="I100">
+        <v>3980</v>
+      </c>
+      <c r="J100">
+        <v>12168.2</v>
+      </c>
+      <c r="K100">
+        <v>18900</v>
+      </c>
+      <c r="L100">
+        <v>3639.67</v>
+      </c>
+      <c r="M100">
+        <v>2856.67</v>
+      </c>
+      <c r="N100">
+        <v>4161.67</v>
+      </c>
+      <c r="O100">
+        <v>101800</v>
+      </c>
+      <c r="P100">
+        <v>146500</v>
+      </c>
+      <c r="Q100">
+        <v>6035.45</v>
+      </c>
+      <c r="R100">
+        <v>6102</v>
+      </c>
+      <c r="S100">
+        <v>15658.4</v>
+      </c>
+      <c r="T100">
+        <v>2496</v>
+      </c>
+      <c r="U100">
+        <v>6541.67</v>
+      </c>
+      <c r="V100">
+        <v>2616.67</v>
+      </c>
+      <c r="W100">
+        <v>1549.6</v>
+      </c>
+      <c r="X100">
+        <v>2506.67</v>
+      </c>
+      <c r="Y100">
+        <v>5490</v>
+      </c>
+      <c r="Z100">
+        <v>3000</v>
+      </c>
+      <c r="AA100">
+        <v>2709</v>
+      </c>
+      <c r="AB100">
+        <v>6689.09</v>
+      </c>
+      <c r="AC100">
+        <v>8371.43</v>
+      </c>
+      <c r="AD100">
+        <v>2555</v>
+      </c>
+      <c r="AE100">
+        <v>695.8</v>
+      </c>
+      <c r="AF100">
+        <v>5282.5</v>
+      </c>
+      <c r="AG100">
+        <v>6479.17</v>
+      </c>
+      <c r="AH100">
+        <v>9565</v>
+      </c>
+      <c r="AI100">
+        <v>3652</v>
+      </c>
+      <c r="AJ100">
+        <v>3224.29</v>
+      </c>
+      <c r="AK100">
+        <v>5822.5</v>
+      </c>
+      <c r="AL100">
+        <v>1815.71</v>
+      </c>
+      <c r="AM100">
+        <v>1976.67</v>
+      </c>
+      <c r="AN100">
+        <v>1498.33</v>
+      </c>
+      <c r="AO100">
+        <v>557.4400000000001</v>
+      </c>
+      <c r="AP100">
+        <v>3760</v>
+      </c>
+      <c r="AQ100">
+        <v>121</v>
+      </c>
+      <c r="AR100">
+        <v>74.83</v>
+      </c>
+      <c r="AS100">
+        <v>9054.17</v>
+      </c>
+      <c r="AT100">
+        <v>2430.91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:46">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101">
+        <v>51860</v>
+      </c>
+      <c r="D101">
+        <v>4011.33</v>
+      </c>
+      <c r="E101">
+        <v>25780</v>
+      </c>
+      <c r="F101">
+        <v>14080</v>
+      </c>
+      <c r="G101">
+        <v>271.45</v>
+      </c>
+      <c r="H101">
+        <v>4321.25</v>
+      </c>
+      <c r="I101">
+        <v>3980</v>
+      </c>
+      <c r="J101">
+        <v>12181.8</v>
+      </c>
+      <c r="K101">
+        <v>18650</v>
+      </c>
+      <c r="L101">
+        <v>3623.67</v>
+      </c>
+      <c r="M101">
+        <v>2856.67</v>
+      </c>
+      <c r="N101">
+        <v>4152.5</v>
+      </c>
+      <c r="O101">
+        <v>101900</v>
+      </c>
+      <c r="P101">
+        <v>146000</v>
+      </c>
+      <c r="Q101">
+        <v>6041.82</v>
+      </c>
+      <c r="R101">
+        <v>6102</v>
+      </c>
+      <c r="S101">
+        <v>15658.4</v>
+      </c>
+      <c r="T101">
+        <v>2522</v>
+      </c>
+      <c r="U101">
+        <v>6538.33</v>
+      </c>
+      <c r="V101">
+        <v>2616.67</v>
+      </c>
+      <c r="W101">
+        <v>1549.6</v>
+      </c>
+      <c r="X101">
+        <v>2523.33</v>
+      </c>
+      <c r="Y101">
+        <v>5490</v>
+      </c>
+      <c r="Z101">
+        <v>3000</v>
+      </c>
+      <c r="AA101">
+        <v>2709</v>
+      </c>
+      <c r="AB101">
+        <v>6689.09</v>
+      </c>
+      <c r="AC101">
+        <v>8371.43</v>
+      </c>
+      <c r="AD101">
+        <v>2550</v>
+      </c>
+      <c r="AE101">
+        <v>691</v>
+      </c>
+      <c r="AF101">
+        <v>5260</v>
+      </c>
+      <c r="AG101">
+        <v>6479.17</v>
+      </c>
+      <c r="AH101">
+        <v>9565</v>
+      </c>
+      <c r="AI101">
+        <v>3652</v>
+      </c>
+      <c r="AJ101">
+        <v>3235.71</v>
+      </c>
+      <c r="AK101">
+        <v>5820</v>
+      </c>
+      <c r="AL101">
+        <v>1829.29</v>
+      </c>
+      <c r="AM101">
+        <v>1976.67</v>
+      </c>
+      <c r="AN101">
+        <v>1498.33</v>
+      </c>
+      <c r="AO101">
+        <v>548</v>
+      </c>
+      <c r="AP101">
+        <v>3705</v>
+      </c>
+      <c r="AQ101">
+        <v>121.33</v>
+      </c>
+      <c r="AR101">
+        <v>74.67</v>
+      </c>
+      <c r="AS101">
+        <v>9054.17</v>
+      </c>
+      <c r="AT101">
+        <v>2438.18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:46">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102">
+        <v>51960</v>
+      </c>
+      <c r="D102">
+        <v>4004.29</v>
+      </c>
+      <c r="E102">
+        <v>25920</v>
+      </c>
+      <c r="F102">
+        <v>14080</v>
+      </c>
+      <c r="G102">
+        <v>272.86</v>
+      </c>
+      <c r="H102">
+        <v>4313.75</v>
+      </c>
+      <c r="I102">
+        <v>3980</v>
+      </c>
+      <c r="J102">
+        <v>12181.8</v>
+      </c>
+      <c r="K102">
+        <v>18800</v>
+      </c>
+      <c r="L102">
+        <v>3651.33</v>
+      </c>
+      <c r="M102">
+        <v>2856.67</v>
+      </c>
+      <c r="N102">
+        <v>4140.83</v>
+      </c>
+      <c r="O102">
+        <v>102250</v>
+      </c>
+      <c r="P102">
+        <v>145750</v>
+      </c>
+      <c r="Q102">
+        <v>5980</v>
+      </c>
+      <c r="R102">
+        <v>6100</v>
+      </c>
+      <c r="S102">
+        <v>15662.3</v>
+      </c>
+      <c r="T102">
+        <v>2522</v>
+      </c>
+      <c r="U102">
+        <v>6528.33</v>
+      </c>
+      <c r="V102">
+        <v>2616.67</v>
+      </c>
+      <c r="W102">
+        <v>1552.8</v>
+      </c>
+      <c r="X102">
+        <v>2520</v>
+      </c>
+      <c r="Y102">
+        <v>5490</v>
+      </c>
+      <c r="Z102">
+        <v>3000</v>
+      </c>
+      <c r="AA102">
+        <v>2709</v>
+      </c>
+      <c r="AB102">
+        <v>6670.91</v>
+      </c>
+      <c r="AC102">
+        <v>8371.43</v>
+      </c>
+      <c r="AD102">
+        <v>2515</v>
+      </c>
+      <c r="AE102">
+        <v>684</v>
+      </c>
+      <c r="AF102">
+        <v>5260</v>
+      </c>
+      <c r="AG102">
+        <v>6475</v>
+      </c>
+      <c r="AH102">
+        <v>9565</v>
+      </c>
+      <c r="AI102">
+        <v>3652</v>
+      </c>
+      <c r="AJ102">
+        <v>3240</v>
+      </c>
+      <c r="AK102">
+        <v>5775</v>
+      </c>
+      <c r="AL102">
+        <v>1838.93</v>
+      </c>
+      <c r="AM102">
+        <v>1976.67</v>
+      </c>
+      <c r="AN102">
+        <v>1498.33</v>
+      </c>
+      <c r="AO102">
+        <v>545.22</v>
+      </c>
+      <c r="AP102">
+        <v>3645</v>
+      </c>
+      <c r="AQ102">
+        <v>121.33</v>
+      </c>
+      <c r="AR102">
+        <v>74.67</v>
+      </c>
+      <c r="AS102">
+        <v>9054.17</v>
+      </c>
+      <c r="AT102">
+        <v>2445.45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:46">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103">
+        <v>51790</v>
+      </c>
+      <c r="D103">
+        <v>3957.14</v>
+      </c>
+      <c r="E103">
+        <v>25710</v>
+      </c>
+      <c r="F103">
+        <v>13930</v>
+      </c>
+      <c r="G103">
+        <v>271.98</v>
+      </c>
+      <c r="H103">
+        <v>4281.25</v>
+      </c>
+      <c r="I103">
+        <v>3980</v>
+      </c>
+      <c r="J103">
+        <v>12186.4</v>
+      </c>
+      <c r="K103">
+        <v>18650</v>
+      </c>
+      <c r="L103">
+        <v>3633.33</v>
+      </c>
+      <c r="M103">
+        <v>2856.67</v>
+      </c>
+      <c r="N103">
+        <v>4097.5</v>
+      </c>
+      <c r="O103">
+        <v>101950</v>
+      </c>
+      <c r="P103">
+        <v>145500</v>
+      </c>
+      <c r="Q103">
+        <v>5920</v>
+      </c>
+      <c r="R103">
+        <v>6100</v>
+      </c>
+      <c r="S103">
+        <v>15666.6</v>
+      </c>
+      <c r="T103">
+        <v>2522</v>
+      </c>
+      <c r="U103">
+        <v>6513.33</v>
+      </c>
+      <c r="V103">
+        <v>2616.67</v>
+      </c>
+      <c r="W103">
+        <v>1552.8</v>
+      </c>
+      <c r="X103">
+        <v>2520</v>
+      </c>
+      <c r="Y103">
+        <v>5490</v>
+      </c>
+      <c r="Z103">
+        <v>2998.33</v>
+      </c>
+      <c r="AA103">
+        <v>2704</v>
+      </c>
+      <c r="AB103">
+        <v>6610</v>
+      </c>
+      <c r="AC103">
+        <v>8371.43</v>
+      </c>
+      <c r="AD103">
+        <v>2490</v>
+      </c>
+      <c r="AE103">
+        <v>676.8</v>
+      </c>
+      <c r="AF103">
+        <v>5262.5</v>
+      </c>
+      <c r="AG103">
+        <v>6470.83</v>
+      </c>
+      <c r="AH103">
+        <v>9545</v>
+      </c>
+      <c r="AI103">
+        <v>3652</v>
+      </c>
+      <c r="AJ103">
+        <v>3232.86</v>
+      </c>
+      <c r="AK103">
+        <v>5730</v>
+      </c>
+      <c r="AL103">
+        <v>1846.43</v>
+      </c>
+      <c r="AM103">
+        <v>1976.67</v>
+      </c>
+      <c r="AN103">
+        <v>1498.33</v>
+      </c>
+      <c r="AO103">
+        <v>541.4400000000001</v>
+      </c>
+      <c r="AP103">
+        <v>3645</v>
+      </c>
+      <c r="AQ103">
+        <v>121.33</v>
+      </c>
+      <c r="AR103">
+        <v>74.67</v>
+      </c>
+      <c r="AS103">
+        <v>9054.17</v>
+      </c>
+      <c r="AT103">
+        <v>2448.18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:46">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104">
+        <v>51120</v>
+      </c>
+      <c r="D104">
+        <v>3891.43</v>
+      </c>
+      <c r="E104">
+        <v>25220</v>
+      </c>
+      <c r="F104">
+        <v>13990</v>
+      </c>
+      <c r="G104">
+        <v>270.68</v>
+      </c>
+      <c r="H104">
+        <v>4227.5</v>
+      </c>
+      <c r="I104">
+        <v>3980</v>
+      </c>
+      <c r="J104">
+        <v>12195.5</v>
+      </c>
+      <c r="K104">
+        <v>18600</v>
+      </c>
+      <c r="L104">
+        <v>3620</v>
+      </c>
+      <c r="M104">
+        <v>2860</v>
+      </c>
+      <c r="N104">
+        <v>4023.33</v>
+      </c>
+      <c r="O104">
+        <v>100000</v>
+      </c>
+      <c r="P104">
+        <v>146250</v>
+      </c>
+      <c r="Q104">
+        <v>5823.64</v>
+      </c>
+      <c r="R104">
+        <v>6100</v>
+      </c>
+      <c r="S104">
+        <v>15683</v>
+      </c>
+      <c r="T104">
+        <v>2522</v>
+      </c>
+      <c r="U104">
+        <v>6510</v>
+      </c>
+      <c r="V104">
+        <v>2616.67</v>
+      </c>
+      <c r="W104">
+        <v>1557.6</v>
+      </c>
+      <c r="X104">
+        <v>2520</v>
+      </c>
+      <c r="Y104">
+        <v>5515</v>
+      </c>
+      <c r="Z104">
+        <v>2998.33</v>
+      </c>
+      <c r="AA104">
+        <v>2704</v>
+      </c>
+      <c r="AB104">
+        <v>6570</v>
+      </c>
+      <c r="AC104">
+        <v>8300</v>
+      </c>
+      <c r="AD104">
+        <v>2515</v>
+      </c>
+      <c r="AE104">
+        <v>668.8</v>
+      </c>
+      <c r="AF104">
+        <v>5182.5</v>
+      </c>
+      <c r="AG104">
+        <v>6458.33</v>
+      </c>
+      <c r="AH104">
+        <v>9455</v>
+      </c>
+      <c r="AI104">
+        <v>3652</v>
+      </c>
+      <c r="AJ104">
+        <v>3224.29</v>
+      </c>
+      <c r="AK104">
+        <v>5713.75</v>
+      </c>
+      <c r="AL104">
+        <v>1852.5</v>
+      </c>
+      <c r="AM104">
+        <v>1976.67</v>
+      </c>
+      <c r="AN104">
+        <v>1498.33</v>
+      </c>
+      <c r="AO104">
+        <v>528.67</v>
+      </c>
+      <c r="AP104">
+        <v>3595</v>
+      </c>
+      <c r="AQ104">
+        <v>121.33</v>
+      </c>
+      <c r="AR104">
+        <v>74.67</v>
+      </c>
+      <c r="AS104">
+        <v>8987.5</v>
+      </c>
+      <c r="AT104">
+        <v>2454.55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:46">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>148</v>
+      </c>
+      <c r="C105">
+        <v>51580</v>
+      </c>
+      <c r="D105">
+        <v>3879.29</v>
+      </c>
+      <c r="E105">
+        <v>25470</v>
+      </c>
+      <c r="F105">
+        <v>13820</v>
+      </c>
+      <c r="G105">
+        <v>270.96</v>
+      </c>
+      <c r="H105">
+        <v>4231.25</v>
+      </c>
+      <c r="I105">
+        <v>3980</v>
+      </c>
+      <c r="J105">
+        <v>12145.5</v>
+      </c>
+      <c r="K105">
+        <v>18600</v>
+      </c>
+      <c r="L105">
+        <v>3635.67</v>
+      </c>
+      <c r="M105">
+        <v>2860</v>
+      </c>
+      <c r="N105">
+        <v>4014.17</v>
+      </c>
+      <c r="O105">
+        <v>103800</v>
+      </c>
+      <c r="P105">
+        <v>146250</v>
+      </c>
+      <c r="Q105">
+        <v>5802.73</v>
+      </c>
+      <c r="R105">
+        <v>6100</v>
+      </c>
+      <c r="S105">
+        <v>15683.7</v>
+      </c>
+      <c r="T105">
+        <v>2522</v>
+      </c>
+      <c r="U105">
+        <v>6501.67</v>
+      </c>
+      <c r="V105">
+        <v>2616.67</v>
+      </c>
+      <c r="W105">
+        <v>1559.2</v>
+      </c>
+      <c r="X105">
+        <v>2513.33</v>
+      </c>
+      <c r="Y105">
+        <v>5515</v>
+      </c>
+      <c r="Z105">
+        <v>2998.33</v>
+      </c>
+      <c r="AA105">
+        <v>2704</v>
+      </c>
+      <c r="AB105">
+        <v>6510</v>
+      </c>
+      <c r="AC105">
+        <v>8278.57</v>
+      </c>
+      <c r="AD105">
+        <v>2560</v>
+      </c>
+      <c r="AE105">
+        <v>666.4</v>
+      </c>
+      <c r="AF105">
+        <v>5182.5</v>
+      </c>
+      <c r="AG105">
+        <v>6458.33</v>
+      </c>
+      <c r="AH105">
+        <v>9440</v>
+      </c>
+      <c r="AI105">
+        <v>3652</v>
+      </c>
+      <c r="AJ105">
+        <v>3150</v>
+      </c>
+      <c r="AK105">
+        <v>5705</v>
+      </c>
+      <c r="AL105">
+        <v>1852.14</v>
+      </c>
+      <c r="AM105">
+        <v>1976.67</v>
+      </c>
+      <c r="AN105">
+        <v>1498.33</v>
+      </c>
+      <c r="AO105">
+        <v>505.89</v>
+      </c>
+      <c r="AP105">
+        <v>3535</v>
+      </c>
+      <c r="AQ105">
+        <v>121.33</v>
+      </c>
+      <c r="AR105">
+        <v>74.67</v>
+      </c>
+      <c r="AS105">
+        <v>8933.33</v>
+      </c>
+      <c r="AT105">
+        <v>2459.09</v>
+      </c>
+    </row>
+    <row r="106" spans="1:46">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106">
+        <v>51390</v>
+      </c>
+      <c r="D106">
+        <v>3879.29</v>
+      </c>
+      <c r="E106">
+        <v>25490</v>
+      </c>
+      <c r="F106">
+        <v>13720</v>
+      </c>
+      <c r="G106">
+        <v>270.7</v>
+      </c>
+      <c r="H106">
+        <v>4225</v>
+      </c>
+      <c r="I106">
+        <v>3980</v>
+      </c>
+      <c r="J106">
+        <v>12131.8</v>
+      </c>
+      <c r="K106">
+        <v>18350</v>
+      </c>
+      <c r="L106">
+        <v>3627</v>
+      </c>
+      <c r="M106">
+        <v>2860</v>
+      </c>
+      <c r="N106">
+        <v>4013.33</v>
+      </c>
+      <c r="O106">
+        <v>103700</v>
+      </c>
+      <c r="P106">
+        <v>146250</v>
+      </c>
+      <c r="Q106">
+        <v>5792.73</v>
+      </c>
+      <c r="R106">
+        <v>6100</v>
+      </c>
+      <c r="S106">
+        <v>15683.7</v>
+      </c>
+      <c r="T106">
+        <v>2522</v>
+      </c>
+      <c r="U106">
+        <v>6525</v>
+      </c>
+      <c r="V106">
+        <v>2616.67</v>
+      </c>
+      <c r="W106">
+        <v>1559.2</v>
+      </c>
+      <c r="X106">
+        <v>2523.33</v>
+      </c>
+      <c r="Y106">
+        <v>5515</v>
+      </c>
+      <c r="Z106">
+        <v>2998.33</v>
+      </c>
+      <c r="AA106">
+        <v>2704</v>
+      </c>
+      <c r="AB106">
+        <v>6470</v>
+      </c>
+      <c r="AC106">
+        <v>8278.57</v>
+      </c>
+      <c r="AD106">
+        <v>2620</v>
+      </c>
+      <c r="AE106">
+        <v>666.4</v>
+      </c>
+      <c r="AF106">
+        <v>5182.5</v>
+      </c>
+      <c r="AG106">
+        <v>6450</v>
+      </c>
+      <c r="AH106">
+        <v>9440</v>
+      </c>
+      <c r="AI106">
+        <v>3652</v>
+      </c>
+      <c r="AJ106">
+        <v>3170</v>
+      </c>
+      <c r="AK106">
+        <v>5723.75</v>
+      </c>
+      <c r="AL106">
+        <v>1852.5</v>
+      </c>
+      <c r="AM106">
+        <v>1976.67</v>
+      </c>
+      <c r="AN106">
+        <v>1498.33</v>
+      </c>
+      <c r="AO106">
+        <v>499.89</v>
+      </c>
+      <c r="AP106">
+        <v>3475</v>
+      </c>
+      <c r="AQ106">
+        <v>121.33</v>
+      </c>
+      <c r="AR106">
+        <v>74.67</v>
+      </c>
+      <c r="AS106">
+        <v>8887.5</v>
+      </c>
+      <c r="AT106">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="107" spans="1:46">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107">
+        <v>51530</v>
+      </c>
+      <c r="D107">
+        <v>3831.43</v>
+      </c>
+      <c r="E107">
+        <v>25550</v>
+      </c>
+      <c r="F107">
+        <v>13730</v>
+      </c>
+      <c r="G107">
+        <v>271.45</v>
+      </c>
+      <c r="H107">
+        <v>4200</v>
+      </c>
+      <c r="I107">
+        <v>3963.33</v>
+      </c>
+      <c r="J107">
+        <v>12118.2</v>
+      </c>
+      <c r="K107">
+        <v>18500</v>
+      </c>
+      <c r="L107">
+        <v>3630.67</v>
+      </c>
+      <c r="M107">
+        <v>2860</v>
+      </c>
+      <c r="N107">
+        <v>3993.33</v>
+      </c>
+      <c r="O107">
+        <v>103800</v>
+      </c>
+      <c r="P107">
+        <v>145250</v>
+      </c>
+      <c r="Q107">
+        <v>5759.09</v>
+      </c>
+      <c r="R107">
+        <v>6058</v>
+      </c>
+      <c r="S107">
+        <v>15681.9</v>
+      </c>
+      <c r="T107">
+        <v>2522</v>
+      </c>
+      <c r="U107">
+        <v>6553.33</v>
+      </c>
+      <c r="V107">
+        <v>2613.33</v>
+      </c>
+      <c r="W107">
+        <v>1559.2</v>
+      </c>
+      <c r="X107">
+        <v>2523.33</v>
+      </c>
+      <c r="Y107">
+        <v>5515</v>
+      </c>
+      <c r="Z107">
+        <v>2998.33</v>
+      </c>
+      <c r="AA107">
+        <v>2700</v>
+      </c>
+      <c r="AB107">
+        <v>6435</v>
+      </c>
+      <c r="AC107">
+        <v>8192.860000000001</v>
+      </c>
+      <c r="AD107">
+        <v>2705</v>
+      </c>
+      <c r="AE107">
+        <v>664</v>
+      </c>
+      <c r="AF107">
+        <v>5182.5</v>
+      </c>
+      <c r="AG107">
+        <v>6450</v>
+      </c>
+      <c r="AH107">
+        <v>9430</v>
+      </c>
+      <c r="AI107">
+        <v>3652</v>
+      </c>
+      <c r="AJ107">
+        <v>3167.14</v>
+      </c>
+      <c r="AK107">
+        <v>5748.75</v>
+      </c>
+      <c r="AL107">
+        <v>1852.14</v>
+      </c>
+      <c r="AM107">
+        <v>1976.67</v>
+      </c>
+      <c r="AN107">
+        <v>1498.33</v>
+      </c>
+      <c r="AO107">
+        <v>497.89</v>
+      </c>
+      <c r="AP107">
+        <v>3420</v>
+      </c>
+      <c r="AQ107">
+        <v>121.67</v>
+      </c>
+      <c r="AR107">
+        <v>75</v>
+      </c>
+      <c r="AS107">
+        <v>8837.5</v>
+      </c>
+      <c r="AT107">
+        <v>2473.64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:46">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108">
+        <v>51870</v>
+      </c>
+      <c r="D108">
+        <v>3849.29</v>
+      </c>
+      <c r="E108">
+        <v>25160</v>
+      </c>
+      <c r="F108">
+        <v>13730</v>
+      </c>
+      <c r="G108">
+        <v>271.45</v>
+      </c>
+      <c r="H108">
+        <v>4218.75</v>
+      </c>
+      <c r="I108">
+        <v>3963.33</v>
+      </c>
+      <c r="J108">
+        <v>12118.2</v>
+      </c>
+      <c r="K108">
+        <v>18650</v>
+      </c>
+      <c r="L108">
+        <v>3630.67</v>
+      </c>
+      <c r="M108">
+        <v>2860</v>
+      </c>
+      <c r="N108">
+        <v>4016.67</v>
+      </c>
+      <c r="O108">
+        <v>103300</v>
+      </c>
+      <c r="P108">
+        <v>144750</v>
+      </c>
+      <c r="Q108">
+        <v>5765.45</v>
+      </c>
+      <c r="R108">
+        <v>6058</v>
+      </c>
+      <c r="S108">
+        <v>15674.7</v>
+      </c>
+      <c r="T108">
+        <v>2522</v>
+      </c>
+      <c r="U108">
+        <v>6521.67</v>
+      </c>
+      <c r="V108">
+        <v>2613.33</v>
+      </c>
+      <c r="W108">
+        <v>1559.2</v>
+      </c>
+      <c r="X108">
+        <v>2515</v>
+      </c>
+      <c r="Y108">
+        <v>5515</v>
+      </c>
+      <c r="Z108">
+        <v>2998.33</v>
+      </c>
+      <c r="AA108">
+        <v>2700</v>
+      </c>
+      <c r="AB108">
+        <v>6395</v>
+      </c>
+      <c r="AC108">
+        <v>8142.86</v>
+      </c>
+      <c r="AD108">
+        <v>2705</v>
+      </c>
+      <c r="AE108">
+        <v>661.6</v>
+      </c>
+      <c r="AF108">
+        <v>5182.5</v>
+      </c>
+      <c r="AG108">
+        <v>6450</v>
+      </c>
+      <c r="AH108">
+        <v>9430</v>
+      </c>
+      <c r="AI108">
+        <v>3652</v>
+      </c>
+      <c r="AJ108">
+        <v>3148.57</v>
+      </c>
+      <c r="AK108">
+        <v>5711.25</v>
+      </c>
+      <c r="AL108">
+        <v>1852.86</v>
+      </c>
+      <c r="AM108">
+        <v>1976.67</v>
+      </c>
+      <c r="AN108">
+        <v>1498.33</v>
+      </c>
+      <c r="AO108">
+        <v>502.44</v>
+      </c>
+      <c r="AP108">
+        <v>3370</v>
+      </c>
+      <c r="AQ108">
+        <v>121.67</v>
+      </c>
+      <c r="AR108">
+        <v>75</v>
+      </c>
+      <c r="AS108">
+        <v>8850</v>
+      </c>
+      <c r="AT108">
+        <v>2478.18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>152</v>
+      </c>
+      <c r="C109">
+        <v>51440</v>
+      </c>
+      <c r="D109">
+        <v>3851.43</v>
+      </c>
+      <c r="E109">
+        <v>25230</v>
+      </c>
+      <c r="F109">
+        <v>13750</v>
+      </c>
+      <c r="G109">
+        <v>269.72</v>
+      </c>
+      <c r="H109">
+        <v>4222.5</v>
+      </c>
+      <c r="I109">
+        <v>3963.33</v>
+      </c>
+      <c r="J109">
+        <v>11981.8</v>
+      </c>
+      <c r="K109">
+        <v>18700</v>
+      </c>
+      <c r="L109">
+        <v>3605</v>
+      </c>
+      <c r="M109">
+        <v>2883.33</v>
+      </c>
+      <c r="N109">
+        <v>4028.33</v>
+      </c>
+      <c r="O109">
+        <v>102300</v>
+      </c>
+      <c r="P109">
+        <v>144750</v>
+      </c>
+      <c r="Q109">
+        <v>5749.09</v>
+      </c>
+      <c r="R109">
+        <v>6058</v>
+      </c>
+      <c r="S109">
+        <v>15667.6</v>
+      </c>
+      <c r="T109">
+        <v>2522</v>
+      </c>
+      <c r="U109">
+        <v>6536.67</v>
+      </c>
+      <c r="V109">
+        <v>2613.33</v>
+      </c>
+      <c r="W109">
+        <v>1559.2</v>
+      </c>
+      <c r="X109">
+        <v>2520</v>
+      </c>
+      <c r="Y109">
+        <v>5515</v>
+      </c>
+      <c r="Z109">
+        <v>2998.33</v>
+      </c>
+      <c r="AA109">
+        <v>2700</v>
+      </c>
+      <c r="AB109">
+        <v>6365</v>
+      </c>
+      <c r="AC109">
+        <v>8128.57</v>
+      </c>
+      <c r="AD109">
+        <v>2705</v>
+      </c>
+      <c r="AE109">
+        <v>660.8</v>
+      </c>
+      <c r="AF109">
+        <v>5162.5</v>
+      </c>
+      <c r="AG109">
+        <v>6445.83</v>
+      </c>
+      <c r="AH109">
+        <v>9430</v>
+      </c>
+      <c r="AI109">
+        <v>3652</v>
+      </c>
+      <c r="AJ109">
+        <v>3157.14</v>
+      </c>
+      <c r="AK109">
+        <v>5718.75</v>
+      </c>
+      <c r="AL109">
+        <v>1851.43</v>
+      </c>
+      <c r="AM109">
+        <v>1960</v>
+      </c>
+      <c r="AN109">
+        <v>1498.33</v>
+      </c>
+      <c r="AO109">
+        <v>504.44</v>
+      </c>
+      <c r="AP109">
+        <v>3370</v>
+      </c>
+      <c r="AQ109">
+        <v>121.67</v>
+      </c>
+      <c r="AR109">
+        <v>75</v>
+      </c>
+      <c r="AS109">
+        <v>8850</v>
+      </c>
+      <c r="AT109">
+        <v>2482.73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:46">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>153</v>
+      </c>
+      <c r="C110">
+        <v>50910</v>
+      </c>
+      <c r="D110">
+        <v>3799.29</v>
+      </c>
+      <c r="E110">
+        <v>25260</v>
+      </c>
+      <c r="F110">
+        <v>13740</v>
+      </c>
+      <c r="G110">
+        <v>269.05</v>
+      </c>
+      <c r="H110">
+        <v>4167.5</v>
+      </c>
+      <c r="I110">
+        <v>3963.33</v>
+      </c>
+      <c r="J110">
+        <v>11909.1</v>
+      </c>
+      <c r="K110">
+        <v>18600</v>
+      </c>
+      <c r="L110">
+        <v>3587.33</v>
+      </c>
+      <c r="M110">
+        <v>2910</v>
+      </c>
+      <c r="N110">
+        <v>3995.83</v>
+      </c>
+      <c r="O110">
+        <v>101500</v>
+      </c>
+      <c r="P110">
+        <v>144750</v>
+      </c>
+      <c r="Q110">
+        <v>5754.55</v>
+      </c>
+      <c r="R110">
+        <v>6038</v>
+      </c>
+      <c r="S110">
+        <v>15650.4</v>
+      </c>
+      <c r="T110">
+        <v>2522</v>
+      </c>
+      <c r="U110">
+        <v>6540</v>
+      </c>
+      <c r="V110">
+        <v>2613.33</v>
+      </c>
+      <c r="W110">
+        <v>1559.2</v>
+      </c>
+      <c r="X110">
+        <v>2520</v>
+      </c>
+      <c r="Y110">
+        <v>5515</v>
+      </c>
+      <c r="Z110">
+        <v>2998.33</v>
+      </c>
+      <c r="AA110">
+        <v>2700</v>
+      </c>
+      <c r="AB110">
+        <v>6305</v>
+      </c>
+      <c r="AC110">
+        <v>8128.57</v>
+      </c>
+      <c r="AD110">
+        <v>2725</v>
+      </c>
+      <c r="AE110">
+        <v>660</v>
+      </c>
+      <c r="AF110">
+        <v>5162.5</v>
+      </c>
+      <c r="AG110">
+        <v>6445.83</v>
+      </c>
+      <c r="AH110">
+        <v>9430</v>
+      </c>
+      <c r="AI110">
+        <v>3652</v>
+      </c>
+      <c r="AJ110">
+        <v>3157.14</v>
+      </c>
+      <c r="AK110">
+        <v>5718.75</v>
+      </c>
+      <c r="AL110">
+        <v>1855.71</v>
+      </c>
+      <c r="AM110">
+        <v>1960</v>
+      </c>
+      <c r="AN110">
+        <v>1498.33</v>
+      </c>
+      <c r="AO110">
+        <v>501</v>
+      </c>
+      <c r="AP110">
+        <v>3295</v>
+      </c>
+      <c r="AQ110">
+        <v>121.67</v>
+      </c>
+      <c r="AR110">
+        <v>75</v>
+      </c>
+      <c r="AS110">
+        <v>8866.67</v>
+      </c>
+      <c r="AT110">
+        <v>2481.82</v>
+      </c>
+    </row>
+    <row r="111" spans="1:46">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111">
+        <v>50920</v>
+      </c>
+      <c r="D111">
+        <v>3760.77</v>
+      </c>
+      <c r="E111">
+        <v>25110</v>
+      </c>
+      <c r="F111">
+        <v>13790</v>
+      </c>
+      <c r="G111">
+        <v>269.5</v>
+      </c>
+      <c r="H111">
+        <v>4148.75</v>
+      </c>
+      <c r="I111">
+        <v>3963.33</v>
+      </c>
+      <c r="J111">
+        <v>11672.7</v>
+      </c>
+      <c r="K111">
+        <v>18500</v>
+      </c>
+      <c r="L111">
+        <v>3589.33</v>
+      </c>
+      <c r="M111">
+        <v>2920</v>
+      </c>
+      <c r="N111">
+        <v>3993.33</v>
+      </c>
+      <c r="O111">
+        <v>101550</v>
+      </c>
+      <c r="P111">
+        <v>144500</v>
+      </c>
+      <c r="Q111">
+        <v>5673.64</v>
+      </c>
+      <c r="R111">
+        <v>6038</v>
+      </c>
+      <c r="S111">
+        <v>15640.9</v>
+      </c>
+      <c r="T111">
+        <v>2522</v>
+      </c>
+      <c r="U111">
+        <v>6525</v>
+      </c>
+      <c r="V111">
+        <v>2613.33</v>
+      </c>
+      <c r="W111">
+        <v>1559.2</v>
+      </c>
+      <c r="X111">
+        <v>2513.33</v>
+      </c>
+      <c r="Y111">
+        <v>5515</v>
+      </c>
+      <c r="Z111">
+        <v>2998.33</v>
+      </c>
+      <c r="AA111">
+        <v>2700</v>
+      </c>
+      <c r="AB111">
+        <v>6305</v>
+      </c>
+      <c r="AC111">
+        <v>8128.57</v>
+      </c>
+      <c r="AD111">
+        <v>2725</v>
+      </c>
+      <c r="AE111">
+        <v>659.2</v>
+      </c>
+      <c r="AF111">
+        <v>5162.5</v>
+      </c>
+      <c r="AG111">
+        <v>6445.83</v>
+      </c>
+      <c r="AH111">
+        <v>9430</v>
+      </c>
+      <c r="AI111">
+        <v>3648</v>
+      </c>
+      <c r="AJ111">
+        <v>3120</v>
+      </c>
+      <c r="AK111">
+        <v>5675</v>
+      </c>
+      <c r="AL111">
+        <v>1859.29</v>
+      </c>
+      <c r="AM111">
+        <v>1943.33</v>
+      </c>
+      <c r="AN111">
+        <v>1498.33</v>
+      </c>
+      <c r="AO111">
+        <v>485.44</v>
+      </c>
+      <c r="AP111">
+        <v>3235</v>
+      </c>
+      <c r="AQ111">
+        <v>121.67</v>
+      </c>
+      <c r="AR111">
+        <v>75</v>
+      </c>
+      <c r="AS111">
+        <v>8845.83</v>
+      </c>
+      <c r="AT111">
+        <v>2479.09</v>
+      </c>
+    </row>
+    <row r="112" spans="1:46">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112">
+        <v>50540</v>
+      </c>
+      <c r="D112">
+        <v>3763.85</v>
+      </c>
+      <c r="E112">
+        <v>24900</v>
+      </c>
+      <c r="F112">
+        <v>13710</v>
+      </c>
+      <c r="G112">
+        <v>269.25</v>
+      </c>
+      <c r="H112">
+        <v>4156.25</v>
+      </c>
+      <c r="I112">
+        <v>3963.33</v>
+      </c>
+      <c r="J112">
+        <v>11581.8</v>
+      </c>
+      <c r="K112">
+        <v>18500</v>
+      </c>
+      <c r="L112">
+        <v>3581.67</v>
+      </c>
+      <c r="M112">
+        <v>2926.67</v>
+      </c>
+      <c r="N112">
+        <v>3988.33</v>
+      </c>
+      <c r="O112">
+        <v>101150</v>
+      </c>
+      <c r="P112">
+        <v>144250</v>
+      </c>
+      <c r="Q112">
+        <v>5665.45</v>
+      </c>
+      <c r="R112">
+        <v>6038</v>
+      </c>
+      <c r="S112">
+        <v>15637.3</v>
+      </c>
+      <c r="T112">
+        <v>2522</v>
+      </c>
+      <c r="U112">
+        <v>6516.67</v>
+      </c>
+      <c r="V112">
+        <v>2613.33</v>
+      </c>
+      <c r="W112">
+        <v>1559.2</v>
+      </c>
+      <c r="X112">
+        <v>2513.33</v>
+      </c>
+      <c r="Y112">
+        <v>5515</v>
+      </c>
+      <c r="Z112">
+        <v>2998.33</v>
+      </c>
+      <c r="AA112">
+        <v>2700</v>
+      </c>
+      <c r="AB112">
+        <v>6305</v>
+      </c>
+      <c r="AC112">
+        <v>8128.57</v>
+      </c>
+      <c r="AD112">
+        <v>2755</v>
+      </c>
+      <c r="AE112">
+        <v>659.2</v>
+      </c>
+      <c r="AF112">
+        <v>5117.5</v>
+      </c>
+      <c r="AG112">
+        <v>6441.67</v>
+      </c>
+      <c r="AH112">
+        <v>9430</v>
+      </c>
+      <c r="AI112">
+        <v>3648</v>
+      </c>
+      <c r="AJ112">
+        <v>3125.71</v>
+      </c>
+      <c r="AK112">
+        <v>5690</v>
+      </c>
+      <c r="AL112">
+        <v>1860.36</v>
+      </c>
+      <c r="AM112">
+        <v>1926.67</v>
+      </c>
+      <c r="AN112">
+        <v>1498.33</v>
+      </c>
+      <c r="AO112">
+        <v>479.22</v>
+      </c>
+      <c r="AP112">
+        <v>3185</v>
+      </c>
+      <c r="AQ112">
+        <v>121.67</v>
+      </c>
+      <c r="AR112">
+        <v>75</v>
+      </c>
+      <c r="AS112">
+        <v>8725</v>
+      </c>
+      <c r="AT112">
+        <v>2479.09</v>
+      </c>
+    </row>
+    <row r="113" spans="1:46">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113">
+        <v>50910</v>
+      </c>
+      <c r="D113">
+        <v>3736.92</v>
+      </c>
+      <c r="E113">
+        <v>25250</v>
+      </c>
+      <c r="F113">
+        <v>13750</v>
+      </c>
+      <c r="G113">
+        <v>271.7</v>
+      </c>
+      <c r="H113">
+        <v>4138.75</v>
+      </c>
+      <c r="I113">
+        <v>3963.33</v>
+      </c>
+      <c r="J113">
+        <v>11581.8</v>
+      </c>
+      <c r="K113">
+        <v>18750</v>
+      </c>
+      <c r="L113">
+        <v>3634.33</v>
+      </c>
+      <c r="M113">
+        <v>2926.67</v>
+      </c>
+      <c r="N113">
+        <v>3978.33</v>
+      </c>
+      <c r="O113">
+        <v>101750</v>
+      </c>
+      <c r="P113">
+        <v>144500</v>
+      </c>
+      <c r="Q113">
+        <v>5672.73</v>
+      </c>
+      <c r="R113">
+        <v>6032</v>
+      </c>
+      <c r="S113">
+        <v>15636.6</v>
+      </c>
+      <c r="T113">
+        <v>2524</v>
+      </c>
+      <c r="U113">
+        <v>6508.33</v>
+      </c>
+      <c r="V113">
+        <v>2613.33</v>
+      </c>
+      <c r="W113">
+        <v>1559.2</v>
+      </c>
+      <c r="X113">
+        <v>2513.33</v>
+      </c>
+      <c r="Y113">
+        <v>5515</v>
+      </c>
+      <c r="Z113">
+        <v>2998.33</v>
+      </c>
+      <c r="AA113">
+        <v>2700</v>
+      </c>
+      <c r="AB113">
+        <v>6260</v>
+      </c>
+      <c r="AC113">
+        <v>8128.57</v>
+      </c>
+      <c r="AD113">
+        <v>2785</v>
+      </c>
+      <c r="AE113">
+        <v>657.6</v>
+      </c>
+      <c r="AF113">
+        <v>5147.5</v>
+      </c>
+      <c r="AG113">
+        <v>6441.67</v>
+      </c>
+      <c r="AH113">
+        <v>9430</v>
+      </c>
+      <c r="AI113">
+        <v>3648</v>
+      </c>
+      <c r="AJ113">
+        <v>3114.29</v>
+      </c>
+      <c r="AK113">
+        <v>5701.25</v>
+      </c>
+      <c r="AL113">
+        <v>1860.36</v>
+      </c>
+      <c r="AM113">
+        <v>1916.67</v>
+      </c>
+      <c r="AN113">
+        <v>1498.33</v>
+      </c>
+      <c r="AO113">
+        <v>478.67</v>
+      </c>
+      <c r="AP113">
+        <v>3135</v>
+      </c>
+      <c r="AQ113">
+        <v>121.67</v>
+      </c>
+      <c r="AR113">
+        <v>75</v>
+      </c>
+      <c r="AS113">
+        <v>8725</v>
+      </c>
+      <c r="AT113">
+        <v>2479.09</v>
+      </c>
+    </row>
+    <row r="114" spans="1:46">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114">
+        <v>49840</v>
+      </c>
+      <c r="D114">
+        <v>3624.62</v>
+      </c>
+      <c r="E114">
+        <v>25150</v>
+      </c>
+      <c r="F114">
+        <v>13570</v>
+      </c>
+      <c r="G114">
+        <v>274.2</v>
+      </c>
+      <c r="H114">
+        <v>4013.75</v>
+      </c>
+      <c r="I114">
+        <v>3963.33</v>
+      </c>
+      <c r="J114">
+        <v>11336.4</v>
+      </c>
+      <c r="K114">
+        <v>18650</v>
+      </c>
+      <c r="L114">
+        <v>3635.33</v>
+      </c>
+      <c r="M114">
+        <v>2926.67</v>
+      </c>
+      <c r="N114">
+        <v>3881.67</v>
+      </c>
+      <c r="O114">
+        <v>98550</v>
+      </c>
+      <c r="P114">
+        <v>143500</v>
+      </c>
+      <c r="Q114">
+        <v>5620.91</v>
+      </c>
+      <c r="R114">
+        <v>6032</v>
+      </c>
+      <c r="S114">
+        <v>15630.7</v>
+      </c>
+      <c r="T114">
+        <v>2524</v>
+      </c>
+      <c r="U114">
+        <v>6505</v>
+      </c>
+      <c r="V114">
+        <v>2613.33</v>
+      </c>
+      <c r="W114">
+        <v>1563.2</v>
+      </c>
+      <c r="X114">
+        <v>2523.33</v>
+      </c>
+      <c r="Y114">
+        <v>5515</v>
+      </c>
+      <c r="Z114">
+        <v>2996.67</v>
+      </c>
+      <c r="AA114">
+        <v>2700</v>
+      </c>
+      <c r="AB114">
+        <v>6235</v>
+      </c>
+      <c r="AC114">
+        <v>8100</v>
+      </c>
+      <c r="AD114">
+        <v>2785</v>
+      </c>
+      <c r="AE114">
+        <v>654.4</v>
+      </c>
+      <c r="AF114">
+        <v>5162.5</v>
+      </c>
+      <c r="AG114">
+        <v>6441.67</v>
+      </c>
+      <c r="AH114">
+        <v>9390</v>
+      </c>
+      <c r="AI114">
+        <v>3648</v>
+      </c>
+      <c r="AJ114">
+        <v>3152.86</v>
+      </c>
+      <c r="AK114">
+        <v>5710</v>
+      </c>
+      <c r="AL114">
+        <v>1860</v>
+      </c>
+      <c r="AM114">
+        <v>1916.67</v>
+      </c>
+      <c r="AN114">
+        <v>1498.33</v>
+      </c>
+      <c r="AO114">
+        <v>478.22</v>
+      </c>
+      <c r="AP114">
+        <v>3090</v>
+      </c>
+      <c r="AQ114">
+        <v>122.33</v>
+      </c>
+      <c r="AR114">
+        <v>75.17</v>
+      </c>
+      <c r="AS114">
+        <v>8733.33</v>
+      </c>
+      <c r="AT114">
+        <v>2479.09</v>
+      </c>
+    </row>
+    <row r="115" spans="1:46">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115">
+        <v>48980</v>
+      </c>
+      <c r="D115">
+        <v>3539.23</v>
+      </c>
+      <c r="E115">
+        <v>25020</v>
+      </c>
+      <c r="F115">
+        <v>13550</v>
+      </c>
+      <c r="G115">
+        <v>275.25</v>
+      </c>
+      <c r="H115">
+        <v>3953.75</v>
+      </c>
+      <c r="I115">
+        <v>3956.67</v>
+      </c>
+      <c r="J115">
+        <v>10927.3</v>
+      </c>
+      <c r="K115">
+        <v>18600</v>
+      </c>
+      <c r="L115">
+        <v>3640.67</v>
+      </c>
+      <c r="M115">
+        <v>2926.67</v>
+      </c>
+      <c r="N115">
+        <v>3829.17</v>
+      </c>
+      <c r="O115">
+        <v>97050</v>
+      </c>
+      <c r="P115">
+        <v>143000</v>
+      </c>
+      <c r="Q115">
+        <v>5603.64</v>
+      </c>
+      <c r="R115">
+        <v>6032</v>
+      </c>
+      <c r="S115">
+        <v>15620.7</v>
+      </c>
+      <c r="T115">
+        <v>2524</v>
+      </c>
+      <c r="U115">
+        <v>6511.67</v>
+      </c>
+      <c r="V115">
+        <v>2613.33</v>
+      </c>
+      <c r="W115">
+        <v>1563.2</v>
+      </c>
+      <c r="X115">
+        <v>2533.33</v>
+      </c>
+      <c r="Y115">
+        <v>5515</v>
+      </c>
+      <c r="Z115">
+        <v>2996.67</v>
+      </c>
+      <c r="AA115">
+        <v>2696</v>
+      </c>
+      <c r="AB115">
+        <v>6185</v>
+      </c>
+      <c r="AC115">
+        <v>8100</v>
+      </c>
+      <c r="AD115">
+        <v>2770</v>
+      </c>
+      <c r="AE115">
+        <v>653.4</v>
+      </c>
+      <c r="AF115">
+        <v>5162.5</v>
+      </c>
+      <c r="AG115">
+        <v>6441.67</v>
+      </c>
+      <c r="AH115">
+        <v>9400</v>
+      </c>
+      <c r="AI115">
+        <v>3648</v>
+      </c>
+      <c r="AJ115">
+        <v>3184.29</v>
+      </c>
+      <c r="AK115">
+        <v>5708.75</v>
+      </c>
+      <c r="AL115">
+        <v>1858.93</v>
+      </c>
+      <c r="AM115">
+        <v>1866.67</v>
+      </c>
+      <c r="AN115">
+        <v>1498.33</v>
+      </c>
+      <c r="AO115">
+        <v>456</v>
+      </c>
+      <c r="AP115">
+        <v>3090</v>
+      </c>
+      <c r="AQ115">
+        <v>122.67</v>
+      </c>
+      <c r="AR115">
+        <v>75</v>
+      </c>
+      <c r="AS115">
+        <v>8687.5</v>
+      </c>
+      <c r="AT115">
+        <v>2478.18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:46">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>159</v>
+      </c>
+      <c r="C116">
+        <v>49310</v>
+      </c>
+      <c r="D116">
+        <v>3536.15</v>
+      </c>
+      <c r="E116">
+        <v>25380</v>
+      </c>
+      <c r="F116">
+        <v>13670</v>
+      </c>
+      <c r="G116">
+        <v>274.4</v>
+      </c>
+      <c r="H116">
+        <v>3966.25</v>
+      </c>
+      <c r="I116">
+        <v>3956.67</v>
+      </c>
+      <c r="J116">
+        <v>10845.5</v>
+      </c>
+      <c r="K116">
+        <v>18750</v>
+      </c>
+      <c r="L116">
+        <v>3642</v>
+      </c>
+      <c r="M116">
+        <v>2926.67</v>
+      </c>
+      <c r="N116">
+        <v>3832.5</v>
+      </c>
+      <c r="O116">
+        <v>97350</v>
+      </c>
+      <c r="P116">
+        <v>143000</v>
+      </c>
+      <c r="Q116">
+        <v>5583.64</v>
+      </c>
+      <c r="R116">
+        <v>6032</v>
+      </c>
+      <c r="S116">
+        <v>15609.3</v>
+      </c>
+      <c r="T116">
+        <v>2524</v>
+      </c>
+      <c r="U116">
+        <v>6483.33</v>
+      </c>
+      <c r="V116">
+        <v>2613.33</v>
+      </c>
+      <c r="W116">
+        <v>1563.2</v>
+      </c>
+      <c r="X116">
+        <v>2515</v>
+      </c>
+      <c r="Y116">
+        <v>5515</v>
+      </c>
+      <c r="Z116">
+        <v>2996.67</v>
+      </c>
+      <c r="AA116">
+        <v>2696</v>
+      </c>
+      <c r="AB116">
+        <v>6185</v>
+      </c>
+      <c r="AC116">
+        <v>8064.29</v>
+      </c>
+      <c r="AD116">
+        <v>2750</v>
+      </c>
+      <c r="AE116">
+        <v>650.4</v>
+      </c>
+      <c r="AF116">
+        <v>5162.5</v>
+      </c>
+      <c r="AG116">
+        <v>6441.67</v>
+      </c>
+      <c r="AH116">
+        <v>9400</v>
+      </c>
+      <c r="AI116">
+        <v>3648</v>
+      </c>
+      <c r="AJ116">
+        <v>3155.71</v>
+      </c>
+      <c r="AK116">
+        <v>5676.25</v>
+      </c>
+      <c r="AL116">
+        <v>1855</v>
+      </c>
+      <c r="AM116">
+        <v>1850</v>
+      </c>
+      <c r="AN116">
+        <v>1498.33</v>
+      </c>
+      <c r="AO116">
+        <v>454.67</v>
+      </c>
+      <c r="AP116">
+        <v>3145</v>
+      </c>
+      <c r="AQ116">
+        <v>122.67</v>
+      </c>
+      <c r="AR116">
+        <v>75</v>
+      </c>
+      <c r="AS116">
+        <v>8650</v>
+      </c>
+      <c r="AT116">
+        <v>2484.55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:46">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117">
+        <v>49210</v>
+      </c>
+      <c r="D117">
+        <v>3558.46</v>
+      </c>
+      <c r="E117">
+        <v>25380</v>
+      </c>
+      <c r="F117">
+        <v>13640</v>
+      </c>
+      <c r="G117">
+        <v>273.48</v>
+      </c>
+      <c r="H117">
+        <v>3983.75</v>
+      </c>
+      <c r="I117">
+        <v>3948.33</v>
+      </c>
+      <c r="J117">
+        <v>10827.3</v>
+      </c>
+      <c r="K117">
+        <v>18800</v>
+      </c>
+      <c r="L117">
+        <v>3624</v>
+      </c>
+      <c r="M117">
+        <v>2926.67</v>
+      </c>
+      <c r="N117">
+        <v>3833.33</v>
+      </c>
+      <c r="O117">
+        <v>97150</v>
+      </c>
+      <c r="P117">
+        <v>142500</v>
+      </c>
+      <c r="Q117">
+        <v>5537.27</v>
+      </c>
+      <c r="R117">
+        <v>6024</v>
+      </c>
+      <c r="S117">
+        <v>15573.3</v>
+      </c>
+      <c r="T117">
+        <v>2524</v>
+      </c>
+      <c r="U117">
+        <v>6463.33</v>
+      </c>
+      <c r="V117">
+        <v>2620</v>
+      </c>
+      <c r="W117">
+        <v>1564.8</v>
+      </c>
+      <c r="X117">
+        <v>2515</v>
+      </c>
+      <c r="Y117">
+        <v>5515</v>
+      </c>
+      <c r="Z117">
+        <v>2996.67</v>
+      </c>
+      <c r="AA117">
+        <v>2696</v>
+      </c>
+      <c r="AB117">
+        <v>6165</v>
+      </c>
+      <c r="AC117">
+        <v>7957.14</v>
+      </c>
+      <c r="AD117">
+        <v>2760</v>
+      </c>
+      <c r="AE117">
+        <v>638.4</v>
+      </c>
+      <c r="AF117">
+        <v>5162.5</v>
+      </c>
+      <c r="AG117">
+        <v>6441.67</v>
+      </c>
+      <c r="AH117">
+        <v>9400</v>
+      </c>
+      <c r="AI117">
+        <v>3648</v>
+      </c>
+      <c r="AJ117">
+        <v>3154.29</v>
+      </c>
+      <c r="AK117">
+        <v>5670</v>
+      </c>
+      <c r="AL117">
+        <v>1854.64</v>
+      </c>
+      <c r="AM117">
+        <v>1833.33</v>
+      </c>
+      <c r="AN117">
+        <v>1498.33</v>
+      </c>
+      <c r="AO117">
+        <v>458.11</v>
+      </c>
+      <c r="AP117">
+        <v>3200</v>
+      </c>
+      <c r="AQ117">
+        <v>122.67</v>
+      </c>
+      <c r="AR117">
+        <v>75</v>
+      </c>
+      <c r="AS117">
+        <v>8650</v>
+      </c>
+      <c r="AT117">
+        <v>2489.09</v>
+      </c>
+    </row>
+    <row r="118" spans="1:46">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>161</v>
+      </c>
+      <c r="C118">
+        <v>49530</v>
+      </c>
+      <c r="D118">
+        <v>3555.38</v>
+      </c>
+      <c r="E118">
+        <v>25210</v>
+      </c>
+      <c r="F118">
+        <v>13740</v>
+      </c>
+      <c r="G118">
+        <v>270.79</v>
+      </c>
+      <c r="H118">
+        <v>3975</v>
+      </c>
+      <c r="I118">
+        <v>3948.33</v>
+      </c>
+      <c r="J118">
+        <v>10827.3</v>
+      </c>
+      <c r="K118">
+        <v>18800</v>
+      </c>
+      <c r="L118">
+        <v>3585.33</v>
+      </c>
+      <c r="M118">
+        <v>2926.67</v>
+      </c>
+      <c r="N118">
+        <v>3835</v>
+      </c>
+      <c r="O118">
+        <v>96700</v>
+      </c>
+      <c r="P118">
+        <v>142250</v>
+      </c>
+      <c r="Q118">
+        <v>5520</v>
+      </c>
+      <c r="R118">
+        <v>6024</v>
+      </c>
+      <c r="S118">
+        <v>15560.4</v>
+      </c>
+      <c r="T118">
+        <v>2524</v>
+      </c>
+      <c r="U118">
+        <v>6460</v>
+      </c>
+      <c r="V118">
+        <v>2620</v>
+      </c>
+      <c r="W118">
+        <v>1564.8</v>
+      </c>
+      <c r="X118">
+        <v>2506.67</v>
+      </c>
+      <c r="Y118">
+        <v>5515</v>
+      </c>
+      <c r="Z118">
+        <v>2996.67</v>
+      </c>
+      <c r="AA118">
+        <v>2696</v>
+      </c>
+      <c r="AB118">
+        <v>6070</v>
+      </c>
+      <c r="AC118">
+        <v>7957.14</v>
+      </c>
+      <c r="AD118">
+        <v>2775</v>
+      </c>
+      <c r="AE118">
+        <v>638.4</v>
+      </c>
+      <c r="AF118">
+        <v>5162.5</v>
+      </c>
+      <c r="AG118">
+        <v>6379.17</v>
+      </c>
+      <c r="AH118">
+        <v>9400</v>
+      </c>
+      <c r="AI118">
+        <v>3644</v>
+      </c>
+      <c r="AJ118">
+        <v>3131.43</v>
+      </c>
+      <c r="AK118">
+        <v>5646.25</v>
+      </c>
+      <c r="AL118">
+        <v>1853.93</v>
+      </c>
+      <c r="AM118">
+        <v>1833.33</v>
+      </c>
+      <c r="AN118">
+        <v>1498.33</v>
+      </c>
+      <c r="AO118">
+        <v>454</v>
+      </c>
+      <c r="AP118">
+        <v>3220</v>
+      </c>
+      <c r="AQ118">
+        <v>122.67</v>
+      </c>
+      <c r="AR118">
+        <v>75</v>
+      </c>
+      <c r="AS118">
+        <v>8650</v>
+      </c>
+      <c r="AT118">
+        <v>2489.09</v>
+      </c>
+    </row>
+    <row r="119" spans="1:46">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119">
+        <v>49780</v>
+      </c>
+      <c r="D119">
+        <v>3588.46</v>
+      </c>
+      <c r="E119">
+        <v>25190</v>
+      </c>
+      <c r="F119">
+        <v>13640</v>
+      </c>
+      <c r="G119">
+        <v>269.99</v>
+      </c>
+      <c r="H119">
+        <v>4013.75</v>
+      </c>
+      <c r="I119">
+        <v>3948.33</v>
+      </c>
+      <c r="J119">
+        <v>10654.5</v>
+      </c>
+      <c r="K119">
+        <v>18800</v>
+      </c>
+      <c r="L119">
+        <v>3589</v>
+      </c>
+      <c r="M119">
+        <v>2926.67</v>
+      </c>
+      <c r="N119">
+        <v>3838.33</v>
+      </c>
+      <c r="O119">
+        <v>98650</v>
+      </c>
+      <c r="P119">
+        <v>142750</v>
+      </c>
+      <c r="Q119">
+        <v>5550.91</v>
+      </c>
+      <c r="R119">
+        <v>6022</v>
+      </c>
+      <c r="S119">
+        <v>15532.9</v>
+      </c>
+      <c r="T119">
+        <v>2524</v>
+      </c>
+      <c r="U119">
+        <v>6460</v>
+      </c>
+      <c r="V119">
+        <v>2620</v>
+      </c>
+      <c r="W119">
+        <v>1564.8</v>
+      </c>
+      <c r="X119">
+        <v>2526.67</v>
+      </c>
+      <c r="Y119">
+        <v>5515</v>
+      </c>
+      <c r="Z119">
+        <v>2996.67</v>
+      </c>
+      <c r="AA119">
+        <v>2696</v>
+      </c>
+      <c r="AB119">
+        <v>6060</v>
+      </c>
+      <c r="AC119">
+        <v>7957.14</v>
+      </c>
+      <c r="AD119">
+        <v>2775</v>
+      </c>
+      <c r="AE119">
+        <v>638.4</v>
+      </c>
+      <c r="AF119">
+        <v>5162.5</v>
+      </c>
+      <c r="AG119">
+        <v>6316.67</v>
+      </c>
+      <c r="AH119">
+        <v>9405</v>
+      </c>
+      <c r="AI119">
+        <v>3644</v>
+      </c>
+      <c r="AJ119">
+        <v>3213.33</v>
+      </c>
+      <c r="AK119">
+        <v>5675</v>
+      </c>
+      <c r="AL119">
+        <v>1852.5</v>
+      </c>
+      <c r="AM119">
+        <v>1800</v>
+      </c>
+      <c r="AN119">
+        <v>1498.33</v>
+      </c>
+      <c r="AO119">
+        <v>453.56</v>
+      </c>
+      <c r="AP119">
+        <v>3200</v>
+      </c>
+      <c r="AQ119">
+        <v>122.67</v>
+      </c>
+      <c r="AR119">
+        <v>75</v>
+      </c>
+      <c r="AS119">
+        <v>8650</v>
+      </c>
+      <c r="AT119">
+        <v>2489.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/SpotData.xlsx
+++ b/database/SpotData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>日期</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>动力煤ZC</t>
+  </si>
+  <si>
+    <t>棉纱</t>
   </si>
   <si>
     <t>棕榈油</t>
@@ -504,6 +507,9 @@
   <si>
     <t>20180330</t>
   </si>
+  <si>
+    <t>20180402</t>
+  </si>
 </sst>
 </file>
 
@@ -860,13 +866,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT119"/>
+  <dimension ref="A1:AU120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:47">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,13 +1008,16 @@
       <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:47">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>52500</v>
@@ -1098,57 +1107,60 @@
         <v>702.8</v>
       </c>
       <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
         <v>5802.5</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>7000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>9690</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>3852</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>3032.5</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>6108.75</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1660</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>2193.33</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1435</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>501.22</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>3670</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>122</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>74</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>8866.67</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>2280.91</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:47">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>52510</v>
@@ -1238,57 +1250,60 @@
         <v>702.8</v>
       </c>
       <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
         <v>5777.5</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>6962.5</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>9705</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>3852</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>3032.5</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>6082.5</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1658.57</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>2193.33</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1431.67</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>503.89</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>3685</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>122</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>74</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>8866.67</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>2280</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:47">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>52740</v>
@@ -1378,57 +1393,60 @@
         <v>702.8</v>
       </c>
       <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <v>5735</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>6895.83</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>9705</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>3852</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>3006.25</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>6053.75</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1657.14</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>2176.67</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1428.33</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>496.67</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>3685</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>122</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>74</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>8858.33</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>2285.45</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:47">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>53640</v>
@@ -1518,57 +1536,60 @@
         <v>702.8</v>
       </c>
       <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
         <v>5742.5</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>6854.17</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>9705</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>3810</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>3000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>6051.25</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1657.86</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>2176.67</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>1425</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>492.89</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>3660</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>122</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>74.2</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>8850</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>2285.45</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:47">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>53680</v>
@@ -1658,57 +1679,60 @@
         <v>702.8</v>
       </c>
       <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
         <v>5737.5</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>6845.83</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>9705</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>3800</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>3077.5</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>6060</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>1659.29</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>2176.67</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>1425</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>485.67</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>3635</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>122</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>74.2</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>8858.33</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>2280.91</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:47">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>53770</v>
@@ -1798,57 +1822,60 @@
         <v>702.8</v>
       </c>
       <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>5812.5</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>6837.5</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>9705</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>3800</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>3077.5</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>6100</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1660.71</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>2110</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1425</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>488.89</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>3610</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>122.33</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>74.2</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>8891.67</v>
       </c>
-      <c r="AT7">
+      <c r="AU7">
         <v>2279.09</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:47">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>55690</v>
@@ -1938,57 +1965,60 @@
         <v>703.6</v>
       </c>
       <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
         <v>5820</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>6747.5</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>9705</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>3800</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>3053.75</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>6105</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>1662.14</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>2066.67</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>1425</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>486.67</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>3605</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>122.33</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>74.40000000000001</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>8900</v>
       </c>
-      <c r="AT8">
+      <c r="AU8">
         <v>2279.09</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:47">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>55400</v>
@@ -2078,57 +2108,60 @@
         <v>703.6</v>
       </c>
       <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
         <v>5792.5</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>6705.83</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>9755</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>3800</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>3045</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>6095</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>1661.43</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>2066.67</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>1425</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>486.67</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>3605</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>122.33</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>74.40000000000001</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>8945.83</v>
       </c>
-      <c r="AT9">
+      <c r="AU9">
         <v>2275.45</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:47">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>54910</v>
@@ -2218,57 +2251,60 @@
         <v>704.4</v>
       </c>
       <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
         <v>5762.5</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>6689.17</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>9755</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>3800</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>3043.75</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>6072.5</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>1660.71</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>2000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>1425</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>483.11</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>3620</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>122.33</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>74.40000000000001</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>9012.5</v>
       </c>
-      <c r="AT10">
+      <c r="AU10">
         <v>2275.45</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:47">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>54950</v>
@@ -2358,57 +2394,60 @@
         <v>704.4</v>
       </c>
       <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <v>5737.5</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>6645.83</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>9775</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>3800</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>3043.75</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>6046.25</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>1661.43</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>1933.33</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>1425</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>477.56</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>3645</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>122.33</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <v>74.40000000000001</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <v>9012.5</v>
       </c>
-      <c r="AT11">
+      <c r="AU11">
         <v>2275.45</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:47">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>55020</v>
@@ -2498,57 +2537,60 @@
         <v>704.4</v>
       </c>
       <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
         <v>5797.5</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>6612.5</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>9840</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>3800</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>3040</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>6055</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1663.57</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1916.67</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1425</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>482.22</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <v>3690</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>122.67</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>74.40000000000001</v>
       </c>
-      <c r="AS12">
+      <c r="AT12">
         <v>9020.83</v>
       </c>
-      <c r="AT12">
+      <c r="AU12">
         <v>2273.64</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:47">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>56080</v>
@@ -2638,57 +2680,60 @@
         <v>705.2</v>
       </c>
       <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
         <v>5867.5</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>6616.67</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>9840</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>3790</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>3052.5</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>6071.25</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>1663.57</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>1900</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>1421.67</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>485.56</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>3730</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>122.67</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>74.40000000000001</v>
       </c>
-      <c r="AS13">
+      <c r="AT13">
         <v>9050</v>
       </c>
-      <c r="AT13">
+      <c r="AU13">
         <v>2277.27</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:47">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>55620</v>
@@ -2778,57 +2823,60 @@
         <v>705.2</v>
       </c>
       <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
         <v>5865</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>6575</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>9840</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>3790</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>3053.75</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>6073.75</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>1664.29</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1816.67</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>1413.33</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>485.56</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <v>3745</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>122.67</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>74.40000000000001</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <v>9070.83</v>
       </c>
-      <c r="AT14">
+      <c r="AU14">
         <v>2280</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:47">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>55260</v>
@@ -2918,57 +2966,60 @@
         <v>704.4</v>
       </c>
       <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
         <v>5870</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>6575</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>9840</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>3790</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>3051.25</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>6100</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>1665.71</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1816.67</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1413.33</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>486.67</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <v>3740</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>122.67</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <v>74.59999999999999</v>
       </c>
-      <c r="AS15">
+      <c r="AT15">
         <v>9070.83</v>
       </c>
-      <c r="AT15">
+      <c r="AU15">
         <v>2282.73</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:47">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>54690</v>
@@ -3058,57 +3109,60 @@
         <v>703.6</v>
       </c>
       <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
         <v>5887.5</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>6575</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>9840</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>3790</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>3043.75</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>6105</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>1665</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1816.67</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1413.33</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>484.67</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <v>3725</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>122.67</v>
       </c>
-      <c r="AR16">
+      <c r="AS16">
         <v>74.67</v>
       </c>
-      <c r="AS16">
+      <c r="AT16">
         <v>9029.17</v>
       </c>
-      <c r="AT16">
+      <c r="AU16">
         <v>2291.82</v>
       </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:47">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <v>53730</v>
@@ -3198,57 +3252,60 @@
         <v>703.6</v>
       </c>
       <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
         <v>5887.5</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>6541.67</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>9840</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>3790</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>3042.5</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>6131.25</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>1662.86</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>1800</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1413.33</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>476.33</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>3780</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>123</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <v>74.67</v>
       </c>
-      <c r="AS17">
+      <c r="AT17">
         <v>9025</v>
       </c>
-      <c r="AT17">
+      <c r="AU17">
         <v>2299.09</v>
       </c>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:47">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>53740</v>
@@ -3338,57 +3395,60 @@
         <v>699.6</v>
       </c>
       <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
         <v>5865</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>6541.67</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>9840</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>3790</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>3030</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>6107.5</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>1661.43</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>1800</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>1398.33</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>469.11</v>
       </c>
-      <c r="AP18">
+      <c r="AQ18">
         <v>3810</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>123</v>
       </c>
-      <c r="AR18">
+      <c r="AS18">
         <v>75</v>
       </c>
-      <c r="AS18">
+      <c r="AT18">
         <v>8995.83</v>
       </c>
-      <c r="AT18">
+      <c r="AU18">
         <v>2305.45</v>
       </c>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:47">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19">
         <v>54640</v>
@@ -3478,57 +3538,60 @@
         <v>696.4</v>
       </c>
       <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
         <v>5860</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>6529.17</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>9840</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>3790</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>3027.5</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>6106.25</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>1659.29</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>1733.33</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>1388.33</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>469.11</v>
       </c>
-      <c r="AP19">
+      <c r="AQ19">
         <v>3835</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>123</v>
       </c>
-      <c r="AR19">
+      <c r="AS19">
         <v>75</v>
       </c>
-      <c r="AS19">
+      <c r="AT19">
         <v>8991.67</v>
       </c>
-      <c r="AT19">
+      <c r="AU19">
         <v>2310</v>
       </c>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:47">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20">
         <v>54340</v>
@@ -3618,57 +3681,60 @@
         <v>694</v>
       </c>
       <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
         <v>5860</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>6520.83</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>9800</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>3790</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>3027.5</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>6116.25</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>1657.86</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>1716.67</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>1388.33</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>470.22</v>
       </c>
-      <c r="AP20">
+      <c r="AQ20">
         <v>3835</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>123</v>
       </c>
-      <c r="AR20">
+      <c r="AS20">
         <v>75</v>
       </c>
-      <c r="AS20">
+      <c r="AT20">
         <v>8912.5</v>
       </c>
-      <c r="AT20">
+      <c r="AU20">
         <v>2312.73</v>
       </c>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:47">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>54480</v>
@@ -3758,57 +3824,60 @@
         <v>690</v>
       </c>
       <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
         <v>5860</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>6450</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>9800</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>3790</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>3028.75</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>6111.25</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>1656.43</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>1716.67</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>1375</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <v>474</v>
       </c>
-      <c r="AP21">
+      <c r="AQ21">
         <v>3845</v>
       </c>
-      <c r="AQ21">
+      <c r="AR21">
         <v>123</v>
       </c>
-      <c r="AR21">
+      <c r="AS21">
         <v>75</v>
       </c>
-      <c r="AS21">
+      <c r="AT21">
         <v>8920.83</v>
       </c>
-      <c r="AT21">
+      <c r="AU21">
         <v>2321.82</v>
       </c>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:47">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>54380</v>
@@ -3898,57 +3967,60 @@
         <v>688.4</v>
       </c>
       <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
         <v>5792.5</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>6408.33</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>9800</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>3790</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>3017.5</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>6076.25</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>1655</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>1716.67</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>1375</v>
       </c>
-      <c r="AO22">
+      <c r="AP22">
         <v>473.44</v>
       </c>
-      <c r="AP22">
+      <c r="AQ22">
         <v>3840</v>
       </c>
-      <c r="AQ22">
+      <c r="AR22">
         <v>123</v>
       </c>
-      <c r="AR22">
+      <c r="AS22">
         <v>75</v>
       </c>
-      <c r="AS22">
+      <c r="AT22">
         <v>8950</v>
       </c>
-      <c r="AT22">
+      <c r="AU22">
         <v>2328.18</v>
       </c>
     </row>
-    <row r="23" spans="1:46">
+    <row r="23" spans="1:47">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23">
         <v>54600</v>
@@ -4038,57 +4110,60 @@
         <v>682</v>
       </c>
       <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
         <v>5792.5</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>6341.67</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>9840</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>3780</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>3018.75</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>6123.75</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>1655</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>1716.67</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>1366.67</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <v>479.56</v>
       </c>
-      <c r="AP23">
+      <c r="AQ23">
         <v>3850</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>123.33</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>75</v>
       </c>
-      <c r="AS23">
+      <c r="AT23">
         <v>9008.33</v>
       </c>
-      <c r="AT23">
+      <c r="AU23">
         <v>2339.09</v>
       </c>
     </row>
-    <row r="24" spans="1:46">
+    <row r="24" spans="1:47">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>53790</v>
@@ -4178,57 +4253,60 @@
         <v>676.4</v>
       </c>
       <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>5792.5</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>6341.67</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>9910</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>3780</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>3015</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>6125</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>1654.29</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>1716.67</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1366.67</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <v>479.56</v>
       </c>
-      <c r="AP24">
+      <c r="AQ24">
         <v>3895</v>
       </c>
-      <c r="AQ24">
+      <c r="AR24">
         <v>123.33</v>
       </c>
-      <c r="AR24">
+      <c r="AS24">
         <v>75</v>
       </c>
-      <c r="AS24">
+      <c r="AT24">
         <v>9079.17</v>
       </c>
-      <c r="AT24">
+      <c r="AU24">
         <v>2344.55</v>
       </c>
     </row>
-    <row r="25" spans="1:46">
+    <row r="25" spans="1:47">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>53680</v>
@@ -4318,57 +4396,60 @@
         <v>676.4</v>
       </c>
       <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
         <v>5820</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>6300</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>9910</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>3780</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>3015</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>6141.25</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1652.14</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1716.67</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>1366.67</v>
       </c>
-      <c r="AO25">
+      <c r="AP25">
         <v>481</v>
       </c>
-      <c r="AP25">
+      <c r="AQ25">
         <v>3960</v>
       </c>
-      <c r="AQ25">
+      <c r="AR25">
         <v>123.33</v>
       </c>
-      <c r="AR25">
+      <c r="AS25">
         <v>75</v>
       </c>
-      <c r="AS25">
+      <c r="AT25">
         <v>9112.5</v>
       </c>
-      <c r="AT25">
+      <c r="AU25">
         <v>2344.55</v>
       </c>
     </row>
-    <row r="26" spans="1:46">
+    <row r="26" spans="1:47">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26">
         <v>53460</v>
@@ -4458,57 +4539,60 @@
         <v>674</v>
       </c>
       <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
         <v>5785</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>6295.83</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>9910</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>3780</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>3010</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>6096.25</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1651.43</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1700</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1366.67</v>
       </c>
-      <c r="AO26">
+      <c r="AP26">
         <v>480</v>
       </c>
-      <c r="AP26">
+      <c r="AQ26">
         <v>4019.999999999999</v>
       </c>
-      <c r="AQ26">
+      <c r="AR26">
         <v>123.33</v>
       </c>
-      <c r="AR26">
+      <c r="AS26">
         <v>75</v>
       </c>
-      <c r="AS26">
+      <c r="AT26">
         <v>9137.5</v>
       </c>
-      <c r="AT26">
+      <c r="AU26">
         <v>2347.27</v>
       </c>
     </row>
-    <row r="27" spans="1:46">
+    <row r="27" spans="1:47">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27">
         <v>53440</v>
@@ -4598,57 +4682,60 @@
         <v>672.4</v>
       </c>
       <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
         <v>5765</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>6260</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>9910</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>3780</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>3011.25</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>6080</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>1650</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>1700</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>1358.33</v>
       </c>
-      <c r="AO27">
+      <c r="AP27">
         <v>479.33</v>
       </c>
-      <c r="AP27">
+      <c r="AQ27">
         <v>4050</v>
       </c>
-      <c r="AQ27">
+      <c r="AR27">
         <v>123.33</v>
       </c>
-      <c r="AR27">
+      <c r="AS27">
         <v>75.17</v>
       </c>
-      <c r="AS27">
+      <c r="AT27">
         <v>9150</v>
       </c>
-      <c r="AT27">
+      <c r="AU27">
         <v>2352.73</v>
       </c>
     </row>
-    <row r="28" spans="1:46">
+    <row r="28" spans="1:47">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28">
         <v>53970</v>
@@ -4738,57 +4825,60 @@
         <v>672.4</v>
       </c>
       <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
         <v>5705</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>6201.67</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>9860</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>3788</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>2997.5</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>6055</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>1650</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>1700</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>1358.33</v>
       </c>
-      <c r="AO28">
+      <c r="AP28">
         <v>480.56</v>
       </c>
-      <c r="AP28">
+      <c r="AQ28">
         <v>4054.999999999999</v>
       </c>
-      <c r="AQ28">
+      <c r="AR28">
         <v>123.33</v>
       </c>
-      <c r="AR28">
+      <c r="AS28">
         <v>75.17</v>
       </c>
-      <c r="AS28">
+      <c r="AT28">
         <v>9150</v>
       </c>
-      <c r="AT28">
+      <c r="AU28">
         <v>2374.55</v>
       </c>
     </row>
-    <row r="29" spans="1:46">
+    <row r="29" spans="1:47">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29">
         <v>52890</v>
@@ -4878,57 +4968,60 @@
         <v>672.4</v>
       </c>
       <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
         <v>5652.5</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>6172.5</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>9850</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>3788</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>2998.75</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>6018.75</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>1650.36</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>1700</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>1358.33</v>
       </c>
-      <c r="AO29">
+      <c r="AP29">
         <v>482.11</v>
       </c>
-      <c r="AP29">
+      <c r="AQ29">
         <v>4059.999999999999</v>
       </c>
-      <c r="AQ29">
+      <c r="AR29">
         <v>123.33</v>
       </c>
-      <c r="AR29">
+      <c r="AS29">
         <v>75.17</v>
       </c>
-      <c r="AS29">
+      <c r="AT29">
         <v>9125</v>
       </c>
-      <c r="AT29">
+      <c r="AU29">
         <v>2390.91</v>
       </c>
     </row>
-    <row r="30" spans="1:46">
+    <row r="30" spans="1:47">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30">
         <v>53010</v>
@@ -5018,57 +5111,60 @@
         <v>666.8</v>
       </c>
       <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
         <v>5655</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>6112.5</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>9850</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>3788</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>3030</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>6033.75</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1651.07</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1700</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1351.67</v>
       </c>
-      <c r="AO30">
+      <c r="AP30">
         <v>475.56</v>
       </c>
-      <c r="AP30">
+      <c r="AQ30">
         <v>4040</v>
       </c>
-      <c r="AQ30">
+      <c r="AR30">
         <v>123.33</v>
       </c>
-      <c r="AR30">
+      <c r="AS30">
         <v>75.17</v>
       </c>
-      <c r="AS30">
+      <c r="AT30">
         <v>9095.83</v>
       </c>
-      <c r="AT30">
+      <c r="AU30">
         <v>2398.18</v>
       </c>
     </row>
-    <row r="31" spans="1:46">
+    <row r="31" spans="1:47">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31">
         <v>52820</v>
@@ -5158,57 +5254,60 @@
         <v>666.8</v>
       </c>
       <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
         <v>5637.5</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>6095.83</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>9850</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>3788</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>3030</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>6021.25</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>1650.36</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>1700</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1351.67</v>
       </c>
-      <c r="AO31">
+      <c r="AP31">
         <v>474</v>
       </c>
-      <c r="AP31">
+      <c r="AQ31">
         <v>4019.999999999999</v>
       </c>
-      <c r="AQ31">
+      <c r="AR31">
         <v>123.33</v>
       </c>
-      <c r="AR31">
+      <c r="AS31">
         <v>75.17</v>
       </c>
-      <c r="AS31">
+      <c r="AT31">
         <v>9033.33</v>
       </c>
-      <c r="AT31">
+      <c r="AU31">
         <v>2405.45</v>
       </c>
     </row>
-    <row r="32" spans="1:46">
+    <row r="32" spans="1:47">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32">
         <v>52940</v>
@@ -5298,57 +5397,60 @@
         <v>666.8</v>
       </c>
       <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
         <v>5617.5</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>6070.83</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>9780</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>3788</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>3058.75</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>5972.5</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>1650</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>1700</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>1351.67</v>
       </c>
-      <c r="AO32">
+      <c r="AP32">
         <v>475</v>
       </c>
-      <c r="AP32">
+      <c r="AQ32">
         <v>4025.000000000001</v>
       </c>
-      <c r="AQ32">
+      <c r="AR32">
         <v>123.33</v>
       </c>
-      <c r="AR32">
+      <c r="AS32">
         <v>75.17</v>
       </c>
-      <c r="AS32">
+      <c r="AT32">
         <v>9033.33</v>
       </c>
-      <c r="AT32">
+      <c r="AU32">
         <v>2422.73</v>
       </c>
     </row>
-    <row r="33" spans="1:46">
+    <row r="33" spans="1:47">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33">
         <v>53200</v>
@@ -5438,57 +5540,60 @@
         <v>666.8</v>
       </c>
       <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
         <v>5585</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>6000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>9780</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>3792</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>3077.5</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>5965</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>1650</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>1700</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>1351.67</v>
       </c>
-      <c r="AO33">
+      <c r="AP33">
         <v>479.44</v>
       </c>
-      <c r="AP33">
+      <c r="AQ33">
         <v>4040</v>
       </c>
-      <c r="AQ33">
+      <c r="AR33">
         <v>123.33</v>
       </c>
-      <c r="AR33">
+      <c r="AS33">
         <v>75.17</v>
       </c>
-      <c r="AS33">
+      <c r="AT33">
         <v>9058.33</v>
       </c>
-      <c r="AT33">
+      <c r="AU33">
         <v>2427.27</v>
       </c>
     </row>
-    <row r="34" spans="1:46">
+    <row r="34" spans="1:47">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34">
         <v>53810</v>
@@ -5578,57 +5683,60 @@
         <v>666</v>
       </c>
       <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
         <v>5582.5</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>5966.67</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>9780</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>3792</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>3063.75</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>5980</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>1649.64</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>1700</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>1351.67</v>
       </c>
-      <c r="AO34">
+      <c r="AP34">
         <v>484.89</v>
       </c>
-      <c r="AP34">
+      <c r="AQ34">
         <v>4085</v>
       </c>
-      <c r="AQ34">
+      <c r="AR34">
         <v>123.33</v>
       </c>
-      <c r="AR34">
+      <c r="AS34">
         <v>75.17</v>
       </c>
-      <c r="AS34">
+      <c r="AT34">
         <v>9070.83</v>
       </c>
-      <c r="AT34">
+      <c r="AU34">
         <v>2433.64</v>
       </c>
     </row>
-    <row r="35" spans="1:46">
+    <row r="35" spans="1:47">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35">
         <v>53780</v>
@@ -5718,57 +5826,60 @@
         <v>666</v>
       </c>
       <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
         <v>5545</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>5990</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>9790</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>3792</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>3063.75</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>5973.75</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>1649.64</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>1700</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>1351.67</v>
       </c>
-      <c r="AO35">
+      <c r="AP35">
         <v>487.11</v>
       </c>
-      <c r="AP35">
+      <c r="AQ35">
         <v>4170</v>
       </c>
-      <c r="AQ35">
+      <c r="AR35">
         <v>123.33</v>
       </c>
-      <c r="AR35">
+      <c r="AS35">
         <v>75.17</v>
       </c>
-      <c r="AS35">
+      <c r="AT35">
         <v>9087.5</v>
       </c>
-      <c r="AT35">
+      <c r="AU35">
         <v>2435.45</v>
       </c>
     </row>
-    <row r="36" spans="1:46">
+    <row r="36" spans="1:47">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36">
         <v>53970</v>
@@ -5858,57 +5969,60 @@
         <v>666.6</v>
       </c>
       <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
         <v>5527.5</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>6002.5</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>9790</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>3792</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>3059.38</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>5982.5</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>1651.07</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>1700</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>1351.67</v>
       </c>
-      <c r="AO36">
+      <c r="AP36">
         <v>495.56</v>
       </c>
-      <c r="AP36">
+      <c r="AQ36">
         <v>4220</v>
       </c>
-      <c r="AQ36">
+      <c r="AR36">
         <v>123.33</v>
       </c>
-      <c r="AR36">
+      <c r="AS36">
         <v>75.17</v>
       </c>
-      <c r="AS36">
+      <c r="AT36">
         <v>9087.5</v>
       </c>
-      <c r="AT36">
+      <c r="AU36">
         <v>2435.45</v>
       </c>
     </row>
-    <row r="37" spans="1:46">
+    <row r="37" spans="1:47">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37">
         <v>54350</v>
@@ -5998,57 +6112,60 @@
         <v>669.2</v>
       </c>
       <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
         <v>5445</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>6006.67</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>9790</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>3792</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>3043.75</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>5953.75</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>1653.21</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>1716.67</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>1351.67</v>
       </c>
-      <c r="AO37">
+      <c r="AP37">
         <v>498.89</v>
       </c>
-      <c r="AP37">
+      <c r="AQ37">
         <v>4245</v>
       </c>
-      <c r="AQ37">
+      <c r="AR37">
         <v>123.33</v>
       </c>
-      <c r="AR37">
+      <c r="AS37">
         <v>75.17</v>
       </c>
-      <c r="AS37">
+      <c r="AT37">
         <v>9095.83</v>
       </c>
-      <c r="AT37">
+      <c r="AU37">
         <v>2434.55</v>
       </c>
     </row>
-    <row r="38" spans="1:46">
+    <row r="38" spans="1:47">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38">
         <v>53500</v>
@@ -6138,57 +6255,60 @@
         <v>673.2</v>
       </c>
       <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
         <v>5452.5</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>6006.67</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>9840</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>3792</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>3037.5</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>5943.75</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>1654.64</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>1716.67</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>1351.67</v>
       </c>
-      <c r="AO38">
+      <c r="AP38">
         <v>511</v>
       </c>
-      <c r="AP38">
+      <c r="AQ38">
         <v>4250</v>
       </c>
-      <c r="AQ38">
+      <c r="AR38">
         <v>123.33</v>
       </c>
-      <c r="AR38">
+      <c r="AS38">
         <v>75.33</v>
       </c>
-      <c r="AS38">
+      <c r="AT38">
         <v>9095.83</v>
       </c>
-      <c r="AT38">
+      <c r="AU38">
         <v>2423.64</v>
       </c>
     </row>
-    <row r="39" spans="1:46">
+    <row r="39" spans="1:47">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39">
         <v>53180</v>
@@ -6278,57 +6398,60 @@
         <v>674</v>
       </c>
       <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
         <v>5430</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>5994.17</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>9840</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>3792</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>3032.5</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>5915</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>1660</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>1750</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>1351.67</v>
       </c>
-      <c r="AO39">
+      <c r="AP39">
         <v>508.78</v>
       </c>
-      <c r="AP39">
+      <c r="AQ39">
         <v>4280</v>
       </c>
-      <c r="AQ39">
+      <c r="AR39">
         <v>123.33</v>
       </c>
-      <c r="AR39">
+      <c r="AS39">
         <v>75.33</v>
       </c>
-      <c r="AS39">
+      <c r="AT39">
         <v>9095.83</v>
       </c>
-      <c r="AT39">
+      <c r="AU39">
         <v>2421.82</v>
       </c>
     </row>
-    <row r="40" spans="1:46">
+    <row r="40" spans="1:47">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40">
         <v>52520</v>
@@ -6418,57 +6541,60 @@
         <v>676.4</v>
       </c>
       <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
         <v>5400</v>
       </c>
-      <c r="AG40">
+      <c r="AH40">
         <v>5965</v>
       </c>
-      <c r="AH40">
+      <c r="AI40">
         <v>9840</v>
       </c>
-      <c r="AI40">
+      <c r="AJ40">
         <v>3782</v>
       </c>
-      <c r="AJ40">
+      <c r="AK40">
         <v>3031.25</v>
       </c>
-      <c r="AK40">
+      <c r="AL40">
         <v>5930</v>
       </c>
-      <c r="AL40">
+      <c r="AM40">
         <v>1662.5</v>
       </c>
-      <c r="AM40">
+      <c r="AN40">
         <v>1750</v>
       </c>
-      <c r="AN40">
+      <c r="AO40">
         <v>1351.67</v>
       </c>
-      <c r="AO40">
+      <c r="AP40">
         <v>513.22</v>
       </c>
-      <c r="AP40">
+      <c r="AQ40">
         <v>4310</v>
       </c>
-      <c r="AQ40">
+      <c r="AR40">
         <v>123.33</v>
       </c>
-      <c r="AR40">
+      <c r="AS40">
         <v>75.33</v>
       </c>
-      <c r="AS40">
+      <c r="AT40">
         <v>9095.83</v>
       </c>
-      <c r="AT40">
+      <c r="AU40">
         <v>2420</v>
       </c>
     </row>
-    <row r="41" spans="1:46">
+    <row r="41" spans="1:47">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41">
         <v>52770</v>
@@ -6558,57 +6684,60 @@
         <v>680.4</v>
       </c>
       <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
         <v>5402.5</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>5965</v>
       </c>
-      <c r="AH41">
+      <c r="AI41">
         <v>9840</v>
       </c>
-      <c r="AI41">
+      <c r="AJ41">
         <v>3782</v>
       </c>
-      <c r="AJ41">
+      <c r="AK41">
         <v>3012.5</v>
       </c>
-      <c r="AK41">
+      <c r="AL41">
         <v>5923.75</v>
       </c>
-      <c r="AL41">
+      <c r="AM41">
         <v>1663.93</v>
       </c>
-      <c r="AM41">
+      <c r="AN41">
         <v>1783.33</v>
       </c>
-      <c r="AN41">
+      <c r="AO41">
         <v>1351.67</v>
       </c>
-      <c r="AO41">
+      <c r="AP41">
         <v>519.33</v>
       </c>
-      <c r="AP41">
+      <c r="AQ41">
         <v>4380</v>
       </c>
-      <c r="AQ41">
+      <c r="AR41">
         <v>123.33</v>
       </c>
-      <c r="AR41">
+      <c r="AS41">
         <v>75.33</v>
       </c>
-      <c r="AS41">
+      <c r="AT41">
         <v>9079.17</v>
       </c>
-      <c r="AT41">
+      <c r="AU41">
         <v>2420</v>
       </c>
     </row>
-    <row r="42" spans="1:46">
+    <row r="42" spans="1:47">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42">
         <v>53360</v>
@@ -6698,57 +6827,60 @@
         <v>681.2</v>
       </c>
       <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
         <v>5425</v>
       </c>
-      <c r="AG42">
+      <c r="AH42">
         <v>5977.5</v>
       </c>
-      <c r="AH42">
+      <c r="AI42">
         <v>9840</v>
       </c>
-      <c r="AI42">
+      <c r="AJ42">
         <v>3782</v>
       </c>
-      <c r="AJ42">
+      <c r="AK42">
         <v>3043.75</v>
       </c>
-      <c r="AK42">
+      <c r="AL42">
         <v>5927.5</v>
       </c>
-      <c r="AL42">
+      <c r="AM42">
         <v>1666.43</v>
       </c>
-      <c r="AM42">
+      <c r="AN42">
         <v>1816.67</v>
       </c>
-      <c r="AN42">
+      <c r="AO42">
         <v>1351.67</v>
       </c>
-      <c r="AO42">
+      <c r="AP42">
         <v>522.11</v>
       </c>
-      <c r="AP42">
+      <c r="AQ42">
         <v>4395</v>
       </c>
-      <c r="AQ42">
+      <c r="AR42">
         <v>123.33</v>
       </c>
-      <c r="AR42">
+      <c r="AS42">
         <v>75.33</v>
       </c>
-      <c r="AS42">
+      <c r="AT42">
         <v>9116.67</v>
       </c>
-      <c r="AT42">
+      <c r="AU42">
         <v>2420</v>
       </c>
     </row>
-    <row r="43" spans="1:46">
+    <row r="43" spans="1:47">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43">
         <v>53330</v>
@@ -6838,57 +6970,60 @@
         <v>682.8</v>
       </c>
       <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
         <v>5402.5</v>
       </c>
-      <c r="AG43">
+      <c r="AH43">
         <v>6050.83</v>
       </c>
-      <c r="AH43">
+      <c r="AI43">
         <v>9900</v>
       </c>
-      <c r="AI43">
+      <c r="AJ43">
         <v>3772</v>
       </c>
-      <c r="AJ43">
+      <c r="AK43">
         <v>3045</v>
       </c>
-      <c r="AK43">
+      <c r="AL43">
         <v>5917.5</v>
       </c>
-      <c r="AL43">
+      <c r="AM43">
         <v>1668.57</v>
       </c>
-      <c r="AM43">
+      <c r="AN43">
         <v>1816.67</v>
       </c>
-      <c r="AN43">
+      <c r="AO43">
         <v>1351.67</v>
       </c>
-      <c r="AO43">
+      <c r="AP43">
         <v>539.89</v>
       </c>
-      <c r="AP43">
+      <c r="AQ43">
         <v>4385</v>
       </c>
-      <c r="AQ43">
+      <c r="AR43">
         <v>123.33</v>
       </c>
-      <c r="AR43">
+      <c r="AS43">
         <v>75.33</v>
       </c>
-      <c r="AS43">
+      <c r="AT43">
         <v>9158.33</v>
       </c>
-      <c r="AT43">
+      <c r="AU43">
         <v>2420</v>
       </c>
     </row>
-    <row r="44" spans="1:46">
+    <row r="44" spans="1:47">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44">
         <v>51340</v>
@@ -6978,57 +7113,60 @@
         <v>682.8</v>
       </c>
       <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
         <v>5355</v>
       </c>
-      <c r="AG44">
+      <c r="AH44">
         <v>6050.83</v>
       </c>
-      <c r="AH44">
+      <c r="AI44">
         <v>9900</v>
       </c>
-      <c r="AI44">
+      <c r="AJ44">
         <v>3744</v>
       </c>
-      <c r="AJ44">
+      <c r="AK44">
         <v>3081.25</v>
       </c>
-      <c r="AK44">
+      <c r="AL44">
         <v>5908.75</v>
       </c>
-      <c r="AL44">
+      <c r="AM44">
         <v>1670</v>
       </c>
-      <c r="AM44">
+      <c r="AN44">
         <v>1916.67</v>
       </c>
-      <c r="AN44">
+      <c r="AO44">
         <v>1358.33</v>
       </c>
-      <c r="AO44">
+      <c r="AP44">
         <v>537.22</v>
       </c>
-      <c r="AP44">
+      <c r="AQ44">
         <v>4375</v>
       </c>
-      <c r="AQ44">
+      <c r="AR44">
         <v>123.33</v>
       </c>
-      <c r="AR44">
+      <c r="AS44">
         <v>75.5</v>
       </c>
-      <c r="AS44">
+      <c r="AT44">
         <v>9191.67</v>
       </c>
-      <c r="AT44">
+      <c r="AU44">
         <v>2420</v>
       </c>
     </row>
-    <row r="45" spans="1:46">
+    <row r="45" spans="1:47">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45">
         <v>51480</v>
@@ -7118,57 +7256,60 @@
         <v>682.8</v>
       </c>
       <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
         <v>5297.5</v>
       </c>
-      <c r="AG45">
+      <c r="AH45">
         <v>6081.67</v>
       </c>
-      <c r="AH45">
+      <c r="AI45">
         <v>9920</v>
       </c>
-      <c r="AI45">
+      <c r="AJ45">
         <v>3740</v>
       </c>
-      <c r="AJ45">
+      <c r="AK45">
         <v>3066.25</v>
       </c>
-      <c r="AK45">
+      <c r="AL45">
         <v>5865</v>
       </c>
-      <c r="AL45">
+      <c r="AM45">
         <v>1672.14</v>
       </c>
-      <c r="AM45">
+      <c r="AN45">
         <v>1933.33</v>
       </c>
-      <c r="AN45">
+      <c r="AO45">
         <v>1358.33</v>
       </c>
-      <c r="AO45">
+      <c r="AP45">
         <v>531</v>
       </c>
-      <c r="AP45">
+      <c r="AQ45">
         <v>4400</v>
       </c>
-      <c r="AQ45">
+      <c r="AR45">
         <v>123.33</v>
       </c>
-      <c r="AR45">
+      <c r="AS45">
         <v>75.5</v>
       </c>
-      <c r="AS45">
+      <c r="AT45">
         <v>9191.67</v>
       </c>
-      <c r="AT45">
+      <c r="AU45">
         <v>2414.55</v>
       </c>
     </row>
-    <row r="46" spans="1:46">
+    <row r="46" spans="1:47">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C46">
         <v>51410</v>
@@ -7258,57 +7399,60 @@
         <v>682.8</v>
       </c>
       <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
         <v>5302.5</v>
       </c>
-      <c r="AG46">
+      <c r="AH46">
         <v>6108.33</v>
       </c>
-      <c r="AH46">
+      <c r="AI46">
         <v>9845</v>
       </c>
-      <c r="AI46">
+      <c r="AJ46">
         <v>3740</v>
       </c>
-      <c r="AJ46">
+      <c r="AK46">
         <v>3038.75</v>
       </c>
-      <c r="AK46">
+      <c r="AL46">
         <v>5845</v>
       </c>
-      <c r="AL46">
+      <c r="AM46">
         <v>1671.43</v>
       </c>
-      <c r="AM46">
+      <c r="AN46">
         <v>1933.33</v>
       </c>
-      <c r="AN46">
+      <c r="AO46">
         <v>1375</v>
       </c>
-      <c r="AO46">
+      <c r="AP46">
         <v>515.11</v>
       </c>
-      <c r="AP46">
+      <c r="AQ46">
         <v>4425</v>
       </c>
-      <c r="AQ46">
+      <c r="AR46">
         <v>123.33</v>
       </c>
-      <c r="AR46">
+      <c r="AS46">
         <v>75.5</v>
       </c>
-      <c r="AS46">
+      <c r="AT46">
         <v>9175</v>
       </c>
-      <c r="AT46">
+      <c r="AU46">
         <v>2405.45</v>
       </c>
     </row>
-    <row r="47" spans="1:46">
+    <row r="47" spans="1:47">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47">
         <v>51670</v>
@@ -7398,57 +7542,60 @@
         <v>683.6</v>
       </c>
       <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
         <v>5290</v>
       </c>
-      <c r="AG47">
+      <c r="AH47">
         <v>6168.33</v>
       </c>
-      <c r="AH47">
+      <c r="AI47">
         <v>9845</v>
       </c>
-      <c r="AI47">
+      <c r="AJ47">
         <v>3740</v>
       </c>
-      <c r="AJ47">
+      <c r="AK47">
         <v>3030</v>
       </c>
-      <c r="AK47">
+      <c r="AL47">
         <v>5821.25</v>
       </c>
-      <c r="AL47">
+      <c r="AM47">
         <v>1673.93</v>
       </c>
-      <c r="AM47">
+      <c r="AN47">
         <v>2033.33</v>
       </c>
-      <c r="AN47">
+      <c r="AO47">
         <v>1375</v>
       </c>
-      <c r="AO47">
+      <c r="AP47">
         <v>515.33</v>
       </c>
-      <c r="AP47">
+      <c r="AQ47">
         <v>4430</v>
       </c>
-      <c r="AQ47">
+      <c r="AR47">
         <v>123.33</v>
       </c>
-      <c r="AR47">
+      <c r="AS47">
         <v>75.5</v>
       </c>
-      <c r="AS47">
+      <c r="AT47">
         <v>9179.17</v>
       </c>
-      <c r="AT47">
+      <c r="AU47">
         <v>2402.73</v>
       </c>
     </row>
-    <row r="48" spans="1:46">
+    <row r="48" spans="1:47">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C48">
         <v>51920</v>
@@ -7538,57 +7685,60 @@
         <v>683.6</v>
       </c>
       <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
         <v>5302.5</v>
       </c>
-      <c r="AG48">
+      <c r="AH48">
         <v>6230.83</v>
       </c>
-      <c r="AH48">
+      <c r="AI48">
         <v>9825</v>
       </c>
-      <c r="AI48">
+      <c r="AJ48">
         <v>3740</v>
       </c>
-      <c r="AJ48">
+      <c r="AK48">
         <v>3026.25</v>
       </c>
-      <c r="AK48">
+      <c r="AL48">
         <v>5856.25</v>
       </c>
-      <c r="AL48">
+      <c r="AM48">
         <v>1676.79</v>
       </c>
-      <c r="AM48">
+      <c r="AN48">
         <v>2033.33</v>
       </c>
-      <c r="AN48">
+      <c r="AO48">
         <v>1380</v>
       </c>
-      <c r="AO48">
+      <c r="AP48">
         <v>512.5599999999999</v>
       </c>
-      <c r="AP48">
+      <c r="AQ48">
         <v>4365</v>
       </c>
-      <c r="AQ48">
+      <c r="AR48">
         <v>123.33</v>
       </c>
-      <c r="AR48">
+      <c r="AS48">
         <v>75.5</v>
       </c>
-      <c r="AS48">
+      <c r="AT48">
         <v>9179.17</v>
       </c>
-      <c r="AT48">
+      <c r="AU48">
         <v>2402.73</v>
       </c>
     </row>
-    <row r="49" spans="1:46">
+    <row r="49" spans="1:47">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C49">
         <v>52030</v>
@@ -7678,57 +7828,60 @@
         <v>684.4</v>
       </c>
       <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
         <v>5297.5</v>
       </c>
-      <c r="AG49">
+      <c r="AH49">
         <v>6301.67</v>
       </c>
-      <c r="AH49">
+      <c r="AI49">
         <v>9825</v>
       </c>
-      <c r="AI49">
+      <c r="AJ49">
         <v>3732</v>
       </c>
-      <c r="AJ49">
+      <c r="AK49">
         <v>3025</v>
       </c>
-      <c r="AK49">
+      <c r="AL49">
         <v>5836.25</v>
       </c>
-      <c r="AL49">
+      <c r="AM49">
         <v>1678.21</v>
       </c>
-      <c r="AM49">
+      <c r="AN49">
         <v>2033.33</v>
       </c>
-      <c r="AN49">
+      <c r="AO49">
         <v>1380</v>
       </c>
-      <c r="AO49">
+      <c r="AP49">
         <v>514.22</v>
       </c>
-      <c r="AP49">
+      <c r="AQ49">
         <v>4325</v>
       </c>
-      <c r="AQ49">
+      <c r="AR49">
         <v>123.33</v>
       </c>
-      <c r="AR49">
+      <c r="AS49">
         <v>75.5</v>
       </c>
-      <c r="AS49">
+      <c r="AT49">
         <v>9191.67</v>
       </c>
-      <c r="AT49">
+      <c r="AU49">
         <v>2402.73</v>
       </c>
     </row>
-    <row r="50" spans="1:46">
+    <row r="50" spans="1:47">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C50">
         <v>52470</v>
@@ -7818,57 +7971,60 @@
         <v>686</v>
       </c>
       <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
         <v>5245</v>
       </c>
-      <c r="AG50">
+      <c r="AH50">
         <v>6301.67</v>
       </c>
-      <c r="AH50">
+      <c r="AI50">
         <v>9825</v>
       </c>
-      <c r="AI50">
+      <c r="AJ50">
         <v>3724</v>
       </c>
-      <c r="AJ50">
+      <c r="AK50">
         <v>3035</v>
       </c>
-      <c r="AK50">
+      <c r="AL50">
         <v>5812.5</v>
       </c>
-      <c r="AL50">
+      <c r="AM50">
         <v>1678.93</v>
       </c>
-      <c r="AM50">
+      <c r="AN50">
         <v>2033.33</v>
       </c>
-      <c r="AN50">
+      <c r="AO50">
         <v>1383.33</v>
       </c>
-      <c r="AO50">
+      <c r="AP50">
         <v>515</v>
       </c>
-      <c r="AP50">
+      <c r="AQ50">
         <v>4290</v>
       </c>
-      <c r="AQ50">
+      <c r="AR50">
         <v>123.33</v>
       </c>
-      <c r="AR50">
+      <c r="AS50">
         <v>75.5</v>
       </c>
-      <c r="AS50">
+      <c r="AT50">
         <v>9183.33</v>
       </c>
-      <c r="AT50">
+      <c r="AU50">
         <v>2402.73</v>
       </c>
     </row>
-    <row r="51" spans="1:46">
+    <row r="51" spans="1:47">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C51">
         <v>52540</v>
@@ -7958,57 +8114,60 @@
         <v>686</v>
       </c>
       <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
         <v>5205</v>
       </c>
-      <c r="AG51">
+      <c r="AH51">
         <v>6318.33</v>
       </c>
-      <c r="AH51">
+      <c r="AI51">
         <v>9825</v>
       </c>
-      <c r="AI51">
+      <c r="AJ51">
         <v>3724</v>
       </c>
-      <c r="AJ51">
+      <c r="AK51">
         <v>3023.75</v>
       </c>
-      <c r="AK51">
+      <c r="AL51">
         <v>5785</v>
       </c>
-      <c r="AL51">
+      <c r="AM51">
         <v>1678.93</v>
       </c>
-      <c r="AM51">
+      <c r="AN51">
         <v>2100</v>
       </c>
-      <c r="AN51">
+      <c r="AO51">
         <v>1383.33</v>
       </c>
-      <c r="AO51">
+      <c r="AP51">
         <v>515</v>
       </c>
-      <c r="AP51">
+      <c r="AQ51">
         <v>4255</v>
       </c>
-      <c r="AQ51">
+      <c r="AR51">
         <v>123.33</v>
       </c>
-      <c r="AR51">
+      <c r="AS51">
         <v>75.5</v>
       </c>
-      <c r="AS51">
+      <c r="AT51">
         <v>9183.33</v>
       </c>
-      <c r="AT51">
+      <c r="AU51">
         <v>2402.73</v>
       </c>
     </row>
-    <row r="52" spans="1:46">
+    <row r="52" spans="1:47">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C52">
         <v>53370</v>
@@ -8098,57 +8257,60 @@
         <v>687.6</v>
       </c>
       <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
         <v>5240</v>
       </c>
-      <c r="AG52">
+      <c r="AH52">
         <v>6318.33</v>
       </c>
-      <c r="AH52">
+      <c r="AI52">
         <v>9775</v>
       </c>
-      <c r="AI52">
+      <c r="AJ52">
         <v>3724</v>
       </c>
-      <c r="AJ52">
+      <c r="AK52">
         <v>3021.25</v>
       </c>
-      <c r="AK52">
+      <c r="AL52">
         <v>5791.25</v>
       </c>
-      <c r="AL52">
+      <c r="AM52">
         <v>1680</v>
       </c>
-      <c r="AM52">
+      <c r="AN52">
         <v>2200</v>
       </c>
-      <c r="AN52">
+      <c r="AO52">
         <v>1383.33</v>
       </c>
-      <c r="AO52">
+      <c r="AP52">
         <v>516.67</v>
       </c>
-      <c r="AP52">
+      <c r="AQ52">
         <v>4335</v>
       </c>
-      <c r="AQ52">
+      <c r="AR52">
         <v>123.33</v>
       </c>
-      <c r="AR52">
+      <c r="AS52">
         <v>75.5</v>
       </c>
-      <c r="AS52">
+      <c r="AT52">
         <v>9183.33</v>
       </c>
-      <c r="AT52">
+      <c r="AU52">
         <v>2400.91</v>
       </c>
     </row>
-    <row r="53" spans="1:46">
+    <row r="53" spans="1:47">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C53">
         <v>53370</v>
@@ -8238,57 +8400,60 @@
         <v>689.2</v>
       </c>
       <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
         <v>5210</v>
       </c>
-      <c r="AG53">
+      <c r="AH53">
         <v>6368.33</v>
       </c>
-      <c r="AH53">
+      <c r="AI53">
         <v>9735</v>
       </c>
-      <c r="AI53">
+      <c r="AJ53">
         <v>3718</v>
       </c>
-      <c r="AJ53">
+      <c r="AK53">
         <v>3016.25</v>
       </c>
-      <c r="AK53">
+      <c r="AL53">
         <v>5748.75</v>
       </c>
-      <c r="AL53">
+      <c r="AM53">
         <v>1680.71</v>
       </c>
-      <c r="AM53">
+      <c r="AN53">
         <v>2200</v>
       </c>
-      <c r="AN53">
+      <c r="AO53">
         <v>1383.33</v>
       </c>
-      <c r="AO53">
+      <c r="AP53">
         <v>531.33</v>
       </c>
-      <c r="AP53">
+      <c r="AQ53">
         <v>4395</v>
       </c>
-      <c r="AQ53">
+      <c r="AR53">
         <v>123.33</v>
       </c>
-      <c r="AR53">
+      <c r="AS53">
         <v>75.33</v>
       </c>
-      <c r="AS53">
+      <c r="AT53">
         <v>9162.5</v>
       </c>
-      <c r="AT53">
+      <c r="AU53">
         <v>2399.09</v>
       </c>
     </row>
-    <row r="54" spans="1:46">
+    <row r="54" spans="1:47">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C54">
         <v>53370</v>
@@ -8378,57 +8543,60 @@
         <v>689.2</v>
       </c>
       <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
         <v>5230</v>
       </c>
-      <c r="AG54">
+      <c r="AH54">
         <v>6368.33</v>
       </c>
-      <c r="AH54">
+      <c r="AI54">
         <v>9735</v>
       </c>
-      <c r="AI54">
+      <c r="AJ54">
         <v>3718</v>
       </c>
-      <c r="AJ54">
+      <c r="AK54">
         <v>3010</v>
       </c>
-      <c r="AK54">
+      <c r="AL54">
         <v>5747.5</v>
       </c>
-      <c r="AL54">
+      <c r="AM54">
         <v>1682.86</v>
       </c>
-      <c r="AM54">
+      <c r="AN54">
         <v>2200</v>
       </c>
-      <c r="AN54">
+      <c r="AO54">
         <v>1398.33</v>
       </c>
-      <c r="AO54">
+      <c r="AP54">
         <v>531.22</v>
       </c>
-      <c r="AP54">
+      <c r="AQ54">
         <v>4380</v>
       </c>
-      <c r="AQ54">
+      <c r="AR54">
         <v>123.33</v>
       </c>
-      <c r="AR54">
+      <c r="AS54">
         <v>75.33</v>
       </c>
-      <c r="AS54">
+      <c r="AT54">
         <v>9170.83</v>
       </c>
-      <c r="AT54">
+      <c r="AU54">
         <v>2399.09</v>
       </c>
     </row>
-    <row r="55" spans="1:46">
+    <row r="55" spans="1:47">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C55">
         <v>53920</v>
@@ -8518,57 +8686,60 @@
         <v>690</v>
       </c>
       <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
         <v>5175</v>
       </c>
-      <c r="AG55">
+      <c r="AH55">
         <v>6397.5</v>
       </c>
-      <c r="AH55">
+      <c r="AI55">
         <v>9735</v>
       </c>
-      <c r="AI55">
+      <c r="AJ55">
         <v>3718</v>
       </c>
-      <c r="AJ55">
+      <c r="AK55">
         <v>3012.5</v>
       </c>
-      <c r="AK55">
+      <c r="AL55">
         <v>5741.25</v>
       </c>
-      <c r="AL55">
+      <c r="AM55">
         <v>1689.64</v>
       </c>
-      <c r="AM55">
+      <c r="AN55">
         <v>2200</v>
       </c>
-      <c r="AN55">
+      <c r="AO55">
         <v>1408.33</v>
       </c>
-      <c r="AO55">
+      <c r="AP55">
         <v>530.22</v>
       </c>
-      <c r="AP55">
+      <c r="AQ55">
         <v>4360</v>
       </c>
-      <c r="AQ55">
+      <c r="AR55">
         <v>123.33</v>
       </c>
-      <c r="AR55">
+      <c r="AS55">
         <v>75.33</v>
       </c>
-      <c r="AS55">
+      <c r="AT55">
         <v>9187.5</v>
       </c>
-      <c r="AT55">
+      <c r="AU55">
         <v>2393.64</v>
       </c>
     </row>
-    <row r="56" spans="1:46">
+    <row r="56" spans="1:47">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C56">
         <v>53950</v>
@@ -8658,57 +8829,60 @@
         <v>690</v>
       </c>
       <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
         <v>5100</v>
       </c>
-      <c r="AG56">
+      <c r="AH56">
         <v>6393.33</v>
       </c>
-      <c r="AH56">
+      <c r="AI56">
         <v>9735</v>
       </c>
-      <c r="AI56">
+      <c r="AJ56">
         <v>3718</v>
       </c>
-      <c r="AJ56">
+      <c r="AK56">
         <v>3005</v>
       </c>
-      <c r="AK56">
+      <c r="AL56">
         <v>5576.25</v>
       </c>
-      <c r="AL56">
+      <c r="AM56">
         <v>1694.29</v>
       </c>
-      <c r="AM56">
+      <c r="AN56">
         <v>2216.67</v>
       </c>
-      <c r="AN56">
+      <c r="AO56">
         <v>1411.67</v>
       </c>
-      <c r="AO56">
+      <c r="AP56">
         <v>531.22</v>
       </c>
-      <c r="AP56">
+      <c r="AQ56">
         <v>4335</v>
       </c>
-      <c r="AQ56">
+      <c r="AR56">
         <v>123.33</v>
       </c>
-      <c r="AR56">
+      <c r="AS56">
         <v>75.33</v>
       </c>
-      <c r="AS56">
+      <c r="AT56">
         <v>9204.17</v>
       </c>
-      <c r="AT56">
+      <c r="AU56">
         <v>2389.09</v>
       </c>
     </row>
-    <row r="57" spans="1:46">
+    <row r="57" spans="1:47">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C57">
         <v>54660</v>
@@ -8798,57 +8972,60 @@
         <v>692.4</v>
       </c>
       <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
         <v>5122.5</v>
       </c>
-      <c r="AG57">
+      <c r="AH57">
         <v>6355.83</v>
       </c>
-      <c r="AH57">
+      <c r="AI57">
         <v>9735</v>
       </c>
-      <c r="AI57">
+      <c r="AJ57">
         <v>3718</v>
       </c>
-      <c r="AJ57">
+      <c r="AK57">
         <v>3007.5</v>
       </c>
-      <c r="AK57">
+      <c r="AL57">
         <v>5585</v>
       </c>
-      <c r="AL57">
+      <c r="AM57">
         <v>1697.86</v>
       </c>
-      <c r="AM57">
+      <c r="AN57">
         <v>2216.67</v>
       </c>
-      <c r="AN57">
+      <c r="AO57">
         <v>1411.67</v>
       </c>
-      <c r="AO57">
+      <c r="AP57">
         <v>535.11</v>
       </c>
-      <c r="AP57">
+      <c r="AQ57">
         <v>4350</v>
       </c>
-      <c r="AQ57">
+      <c r="AR57">
         <v>123.33</v>
       </c>
-      <c r="AR57">
+      <c r="AS57">
         <v>75.33</v>
       </c>
-      <c r="AS57">
+      <c r="AT57">
         <v>9204.17</v>
       </c>
-      <c r="AT57">
+      <c r="AU57">
         <v>2389.09</v>
       </c>
     </row>
-    <row r="58" spans="1:46">
+    <row r="58" spans="1:47">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C58">
         <v>54300</v>
@@ -8938,57 +9115,60 @@
         <v>692.4</v>
       </c>
       <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
         <v>5140</v>
       </c>
-      <c r="AG58">
+      <c r="AH58">
         <v>6335</v>
       </c>
-      <c r="AH58">
+      <c r="AI58">
         <v>9735</v>
       </c>
-      <c r="AI58">
+      <c r="AJ58">
         <v>3702</v>
       </c>
-      <c r="AJ58">
+      <c r="AK58">
         <v>3012.5</v>
       </c>
-      <c r="AK58">
+      <c r="AL58">
         <v>5591.25</v>
       </c>
-      <c r="AL58">
+      <c r="AM58">
         <v>1700</v>
       </c>
-      <c r="AM58">
+      <c r="AN58">
         <v>2250</v>
       </c>
-      <c r="AN58">
+      <c r="AO58">
         <v>1413.33</v>
       </c>
-      <c r="AO58">
+      <c r="AP58">
         <v>530.5599999999999</v>
       </c>
-      <c r="AP58">
+      <c r="AQ58">
         <v>4345</v>
       </c>
-      <c r="AQ58">
+      <c r="AR58">
         <v>123.33</v>
       </c>
-      <c r="AR58">
+      <c r="AS58">
         <v>75.33</v>
       </c>
-      <c r="AS58">
+      <c r="AT58">
         <v>9212.5</v>
       </c>
-      <c r="AT58">
+      <c r="AU58">
         <v>2389.09</v>
       </c>
     </row>
-    <row r="59" spans="1:46">
+    <row r="59" spans="1:47">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C59">
         <v>54630</v>
@@ -9078,57 +9258,60 @@
         <v>694</v>
       </c>
       <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
         <v>5180</v>
       </c>
-      <c r="AG59">
+      <c r="AH59">
         <v>6318.33</v>
       </c>
-      <c r="AH59">
+      <c r="AI59">
         <v>9735</v>
       </c>
-      <c r="AI59">
+      <c r="AJ59">
         <v>3702</v>
       </c>
-      <c r="AJ59">
+      <c r="AK59">
         <v>3027.5</v>
       </c>
-      <c r="AK59">
+      <c r="AL59">
         <v>5618.75</v>
       </c>
-      <c r="AL59">
+      <c r="AM59">
         <v>1702.14</v>
       </c>
-      <c r="AM59">
+      <c r="AN59">
         <v>2250</v>
       </c>
-      <c r="AN59">
+      <c r="AO59">
         <v>1413.33</v>
       </c>
-      <c r="AO59">
+      <c r="AP59">
         <v>526.5599999999999</v>
       </c>
-      <c r="AP59">
+      <c r="AQ59">
         <v>4345</v>
       </c>
-      <c r="AQ59">
+      <c r="AR59">
         <v>123.33</v>
       </c>
-      <c r="AR59">
+      <c r="AS59">
         <v>75.33</v>
       </c>
-      <c r="AS59">
+      <c r="AT59">
         <v>9250</v>
       </c>
-      <c r="AT59">
+      <c r="AU59">
         <v>2390</v>
       </c>
     </row>
-    <row r="60" spans="1:46">
+    <row r="60" spans="1:47">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C60">
         <v>54930</v>
@@ -9218,57 +9401,60 @@
         <v>694</v>
       </c>
       <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
         <v>5172.5</v>
       </c>
-      <c r="AG60">
+      <c r="AH60">
         <v>6318.33</v>
       </c>
-      <c r="AH60">
+      <c r="AI60">
         <v>9735</v>
       </c>
-      <c r="AI60">
+      <c r="AJ60">
         <v>3702</v>
       </c>
-      <c r="AJ60">
+      <c r="AK60">
         <v>3011.25</v>
       </c>
-      <c r="AK60">
+      <c r="AL60">
         <v>5622.5</v>
       </c>
-      <c r="AL60">
+      <c r="AM60">
         <v>1705.36</v>
       </c>
-      <c r="AM60">
+      <c r="AN60">
         <v>2300</v>
       </c>
-      <c r="AN60">
+      <c r="AO60">
         <v>1416.67</v>
       </c>
-      <c r="AO60">
+      <c r="AP60">
         <v>525.89</v>
       </c>
-      <c r="AP60">
+      <c r="AQ60">
         <v>4330</v>
       </c>
-      <c r="AQ60">
+      <c r="AR60">
         <v>123.33</v>
       </c>
-      <c r="AR60">
+      <c r="AS60">
         <v>75.33</v>
       </c>
-      <c r="AS60">
+      <c r="AT60">
         <v>9250</v>
       </c>
-      <c r="AT60">
+      <c r="AU60">
         <v>2391.82</v>
       </c>
     </row>
-    <row r="61" spans="1:46">
+    <row r="61" spans="1:47">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C61">
         <v>55250</v>
@@ -9358,57 +9544,60 @@
         <v>694</v>
       </c>
       <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
         <v>5165</v>
       </c>
-      <c r="AG61">
+      <c r="AH61">
         <v>6314.17</v>
       </c>
-      <c r="AH61">
+      <c r="AI61">
         <v>9735</v>
       </c>
-      <c r="AI61">
+      <c r="AJ61">
         <v>3702</v>
       </c>
-      <c r="AJ61">
+      <c r="AK61">
         <v>2987.5</v>
       </c>
-      <c r="AK61">
+      <c r="AL61">
         <v>5587.5</v>
       </c>
-      <c r="AL61">
+      <c r="AM61">
         <v>1708.21</v>
       </c>
-      <c r="AM61">
+      <c r="AN61">
         <v>2300</v>
       </c>
-      <c r="AN61">
+      <c r="AO61">
         <v>1416.67</v>
       </c>
-      <c r="AO61">
+      <c r="AP61">
         <v>531.4400000000001</v>
       </c>
-      <c r="AP61">
+      <c r="AQ61">
         <v>4310</v>
       </c>
-      <c r="AQ61">
+      <c r="AR61">
         <v>123.33</v>
       </c>
-      <c r="AR61">
+      <c r="AS61">
         <v>75.33</v>
       </c>
-      <c r="AS61">
+      <c r="AT61">
         <v>9266.67</v>
       </c>
-      <c r="AT61">
+      <c r="AU61">
         <v>2391.82</v>
       </c>
     </row>
-    <row r="62" spans="1:46">
+    <row r="62" spans="1:47">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C62">
         <v>54770</v>
@@ -9498,57 +9687,60 @@
         <v>695.6</v>
       </c>
       <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
         <v>5210</v>
       </c>
-      <c r="AG62">
+      <c r="AH62">
         <v>6343.33</v>
       </c>
-      <c r="AH62">
+      <c r="AI62">
         <v>9735</v>
       </c>
-      <c r="AI62">
+      <c r="AJ62">
         <v>3702</v>
       </c>
-      <c r="AJ62">
+      <c r="AK62">
         <v>2987.5</v>
       </c>
-      <c r="AK62">
+      <c r="AL62">
         <v>5683.75</v>
       </c>
-      <c r="AL62">
+      <c r="AM62">
         <v>1713.21</v>
       </c>
-      <c r="AM62">
+      <c r="AN62">
         <v>2300</v>
       </c>
-      <c r="AN62">
+      <c r="AO62">
         <v>1416.67</v>
       </c>
-      <c r="AO62">
+      <c r="AP62">
         <v>531.4400000000001</v>
       </c>
-      <c r="AP62">
+      <c r="AQ62">
         <v>4340</v>
       </c>
-      <c r="AQ62">
+      <c r="AR62">
         <v>123.33</v>
       </c>
-      <c r="AR62">
+      <c r="AS62">
         <v>75.33</v>
       </c>
-      <c r="AS62">
+      <c r="AT62">
         <v>9337.5</v>
       </c>
-      <c r="AT62">
+      <c r="AU62">
         <v>2393.64</v>
       </c>
     </row>
-    <row r="63" spans="1:46">
+    <row r="63" spans="1:47">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C63">
         <v>54650</v>
@@ -9638,57 +9830,60 @@
         <v>695.6</v>
       </c>
       <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
         <v>5255</v>
       </c>
-      <c r="AG63">
+      <c r="AH63">
         <v>6360</v>
       </c>
-      <c r="AH63">
+      <c r="AI63">
         <v>9735</v>
       </c>
-      <c r="AI63">
+      <c r="AJ63">
         <v>3680</v>
       </c>
-      <c r="AJ63">
+      <c r="AK63">
         <v>2991.25</v>
       </c>
-      <c r="AK63">
+      <c r="AL63">
         <v>5685</v>
       </c>
-      <c r="AL63">
+      <c r="AM63">
         <v>1718.57</v>
       </c>
-      <c r="AM63">
+      <c r="AN63">
         <v>2300</v>
       </c>
-      <c r="AN63">
+      <c r="AO63">
         <v>1428.33</v>
       </c>
-      <c r="AO63">
+      <c r="AP63">
         <v>544.33</v>
       </c>
-      <c r="AP63">
+      <c r="AQ63">
         <v>4400</v>
       </c>
-      <c r="AQ63">
+      <c r="AR63">
         <v>123.33</v>
       </c>
-      <c r="AR63">
+      <c r="AS63">
         <v>75.33</v>
       </c>
-      <c r="AS63">
+      <c r="AT63">
         <v>9379.17</v>
       </c>
-      <c r="AT63">
+      <c r="AU63">
         <v>2393.64</v>
       </c>
     </row>
-    <row r="64" spans="1:46">
+    <row r="64" spans="1:47">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C64">
         <v>54670</v>
@@ -9778,57 +9973,60 @@
         <v>695.6</v>
       </c>
       <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
         <v>5282.5</v>
       </c>
-      <c r="AG64">
+      <c r="AH64">
         <v>6360</v>
       </c>
-      <c r="AH64">
+      <c r="AI64">
         <v>9855</v>
       </c>
-      <c r="AI64">
+      <c r="AJ64">
         <v>3680</v>
       </c>
-      <c r="AJ64">
+      <c r="AK64">
         <v>2986.25</v>
       </c>
-      <c r="AK64">
+      <c r="AL64">
         <v>5701.25</v>
       </c>
-      <c r="AL64">
+      <c r="AM64">
         <v>1725.71</v>
       </c>
-      <c r="AM64">
+      <c r="AN64">
         <v>2300</v>
       </c>
-      <c r="AN64">
+      <c r="AO64">
         <v>1428.33</v>
       </c>
-      <c r="AO64">
+      <c r="AP64">
         <v>544.33</v>
       </c>
-      <c r="AP64">
+      <c r="AQ64">
         <v>4450</v>
       </c>
-      <c r="AQ64">
+      <c r="AR64">
         <v>123.33</v>
       </c>
-      <c r="AR64">
+      <c r="AS64">
         <v>75.33</v>
       </c>
-      <c r="AS64">
+      <c r="AT64">
         <v>9404.17</v>
       </c>
-      <c r="AT64">
+      <c r="AU64">
         <v>2393.64</v>
       </c>
     </row>
-    <row r="65" spans="1:46">
+    <row r="65" spans="1:47">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C65">
         <v>54770</v>
@@ -9918,57 +10116,60 @@
         <v>695.6</v>
       </c>
       <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
         <v>5317.5</v>
       </c>
-      <c r="AG65">
+      <c r="AH65">
         <v>6366.67</v>
       </c>
-      <c r="AH65">
+      <c r="AI65">
         <v>9860</v>
       </c>
-      <c r="AI65">
+      <c r="AJ65">
         <v>3680</v>
       </c>
-      <c r="AJ65">
+      <c r="AK65">
         <v>2990</v>
       </c>
-      <c r="AK65">
+      <c r="AL65">
         <v>5733.75</v>
       </c>
-      <c r="AL65">
+      <c r="AM65">
         <v>1732.14</v>
       </c>
-      <c r="AM65">
+      <c r="AN65">
         <v>2300</v>
       </c>
-      <c r="AN65">
+      <c r="AO65">
         <v>1450</v>
       </c>
-      <c r="AO65">
+      <c r="AP65">
         <v>545.33</v>
       </c>
-      <c r="AP65">
+      <c r="AQ65">
         <v>4455</v>
       </c>
-      <c r="AQ65">
+      <c r="AR65">
         <v>123.33</v>
       </c>
-      <c r="AR65">
+      <c r="AS65">
         <v>75.33</v>
       </c>
-      <c r="AS65">
+      <c r="AT65">
         <v>9412.5</v>
       </c>
-      <c r="AT65">
+      <c r="AU65">
         <v>2393.64</v>
       </c>
     </row>
-    <row r="66" spans="1:46">
+    <row r="66" spans="1:47">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C66">
         <v>54360</v>
@@ -10058,57 +10259,60 @@
         <v>706.6</v>
       </c>
       <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
         <v>5305</v>
       </c>
-      <c r="AG66">
+      <c r="AH66">
         <v>6379.17</v>
       </c>
-      <c r="AH66">
+      <c r="AI66">
         <v>9860</v>
       </c>
-      <c r="AI66">
+      <c r="AJ66">
         <v>3680</v>
       </c>
-      <c r="AJ66">
+      <c r="AK66">
         <v>2981.25</v>
       </c>
-      <c r="AK66">
+      <c r="AL66">
         <v>5701.25</v>
       </c>
-      <c r="AL66">
+      <c r="AM66">
         <v>1747.86</v>
       </c>
-      <c r="AM66">
+      <c r="AN66">
         <v>2283.33</v>
       </c>
-      <c r="AN66">
+      <c r="AO66">
         <v>1450</v>
       </c>
-      <c r="AO66">
+      <c r="AP66">
         <v>546.78</v>
       </c>
-      <c r="AP66">
+      <c r="AQ66">
         <v>4415</v>
       </c>
-      <c r="AQ66">
+      <c r="AR66">
         <v>123.33</v>
       </c>
-      <c r="AR66">
+      <c r="AS66">
         <v>75.33</v>
       </c>
-      <c r="AS66">
+      <c r="AT66">
         <v>9420.83</v>
       </c>
-      <c r="AT66">
+      <c r="AU66">
         <v>2393.64</v>
       </c>
     </row>
-    <row r="67" spans="1:46">
+    <row r="67" spans="1:47">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C67">
         <v>54480</v>
@@ -10198,57 +10402,60 @@
         <v>706.6</v>
       </c>
       <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
         <v>5285</v>
       </c>
-      <c r="AG67">
+      <c r="AH67">
         <v>6408.33</v>
       </c>
-      <c r="AH67">
+      <c r="AI67">
         <v>9860</v>
       </c>
-      <c r="AI67">
+      <c r="AJ67">
         <v>3676</v>
       </c>
-      <c r="AJ67">
+      <c r="AK67">
         <v>2981.25</v>
       </c>
-      <c r="AK67">
+      <c r="AL67">
         <v>5691.25</v>
       </c>
-      <c r="AL67">
+      <c r="AM67">
         <v>1754.64</v>
       </c>
-      <c r="AM67">
+      <c r="AN67">
         <v>2250</v>
       </c>
-      <c r="AN67">
+      <c r="AO67">
         <v>1450</v>
       </c>
-      <c r="AO67">
+      <c r="AP67">
         <v>553.5599999999999</v>
       </c>
-      <c r="AP67">
+      <c r="AQ67">
         <v>4390</v>
       </c>
-      <c r="AQ67">
+      <c r="AR67">
         <v>123.33</v>
       </c>
-      <c r="AR67">
+      <c r="AS67">
         <v>75.33</v>
       </c>
-      <c r="AS67">
+      <c r="AT67">
         <v>9466.67</v>
       </c>
-      <c r="AT67">
+      <c r="AU67">
         <v>2396.36</v>
       </c>
     </row>
-    <row r="68" spans="1:46">
+    <row r="68" spans="1:47">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C68">
         <v>54650</v>
@@ -10338,57 +10545,60 @@
         <v>712</v>
       </c>
       <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
         <v>5280</v>
       </c>
-      <c r="AG68">
+      <c r="AH68">
         <v>6420.83</v>
       </c>
-      <c r="AH68">
+      <c r="AI68">
         <v>9860</v>
       </c>
-      <c r="AI68">
+      <c r="AJ68">
         <v>3676</v>
       </c>
-      <c r="AJ68">
+      <c r="AK68">
         <v>2977.5</v>
       </c>
-      <c r="AK68">
+      <c r="AL68">
         <v>5711.25</v>
       </c>
-      <c r="AL68">
+      <c r="AM68">
         <v>1758.57</v>
       </c>
-      <c r="AM68">
+      <c r="AN68">
         <v>2250</v>
       </c>
-      <c r="AN68">
+      <c r="AO68">
         <v>1450</v>
       </c>
-      <c r="AO68">
+      <c r="AP68">
         <v>555.89</v>
       </c>
-      <c r="AP68">
+      <c r="AQ68">
         <v>4390</v>
       </c>
-      <c r="AQ68">
+      <c r="AR68">
         <v>123.33</v>
       </c>
-      <c r="AR68">
+      <c r="AS68">
         <v>75.33</v>
       </c>
-      <c r="AS68">
+      <c r="AT68">
         <v>9475</v>
       </c>
-      <c r="AT68">
+      <c r="AU68">
         <v>2397.27</v>
       </c>
     </row>
-    <row r="69" spans="1:46">
+    <row r="69" spans="1:47">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C69">
         <v>54700</v>
@@ -10478,57 +10688,60 @@
         <v>720.4</v>
       </c>
       <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
         <v>5275</v>
       </c>
-      <c r="AG69">
+      <c r="AH69">
         <v>6416.67</v>
       </c>
-      <c r="AH69">
+      <c r="AI69">
         <v>9860</v>
       </c>
-      <c r="AI69">
+      <c r="AJ69">
         <v>3676</v>
       </c>
-      <c r="AJ69">
+      <c r="AK69">
         <v>2953.75</v>
       </c>
-      <c r="AK69">
+      <c r="AL69">
         <v>5698.75</v>
       </c>
-      <c r="AL69">
+      <c r="AM69">
         <v>1760.71</v>
       </c>
-      <c r="AM69">
+      <c r="AN69">
         <v>2250</v>
       </c>
-      <c r="AN69">
+      <c r="AO69">
         <v>1500</v>
       </c>
-      <c r="AO69">
+      <c r="AP69">
         <v>555.89</v>
       </c>
-      <c r="AP69">
+      <c r="AQ69">
         <v>4385</v>
       </c>
-      <c r="AQ69">
+      <c r="AR69">
         <v>123.33</v>
       </c>
-      <c r="AR69">
+      <c r="AS69">
         <v>75.33</v>
       </c>
-      <c r="AS69">
+      <c r="AT69">
         <v>9491.67</v>
       </c>
-      <c r="AT69">
+      <c r="AU69">
         <v>2397.27</v>
       </c>
     </row>
-    <row r="70" spans="1:46">
+    <row r="70" spans="1:47">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C70">
         <v>54340</v>
@@ -10618,57 +10831,60 @@
         <v>725</v>
       </c>
       <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
         <v>5225</v>
       </c>
-      <c r="AG70">
+      <c r="AH70">
         <v>6416.67</v>
       </c>
-      <c r="AH70">
+      <c r="AI70">
         <v>9865</v>
       </c>
-      <c r="AI70">
+      <c r="AJ70">
         <v>3676</v>
       </c>
-      <c r="AJ70">
+      <c r="AK70">
         <v>2941.25</v>
       </c>
-      <c r="AK70">
+      <c r="AL70">
         <v>5640</v>
       </c>
-      <c r="AL70">
+      <c r="AM70">
         <v>1763.21</v>
       </c>
-      <c r="AM70">
+      <c r="AN70">
         <v>2250</v>
       </c>
-      <c r="AN70">
+      <c r="AO70">
         <v>1500</v>
       </c>
-      <c r="AO70">
+      <c r="AP70">
         <v>555.89</v>
       </c>
-      <c r="AP70">
+      <c r="AQ70">
         <v>4405</v>
       </c>
-      <c r="AQ70">
+      <c r="AR70">
         <v>123</v>
       </c>
-      <c r="AR70">
+      <c r="AS70">
         <v>75.33</v>
       </c>
-      <c r="AS70">
+      <c r="AT70">
         <v>9504.17</v>
       </c>
-      <c r="AT70">
+      <c r="AU70">
         <v>2397.27</v>
       </c>
     </row>
-    <row r="71" spans="1:46">
+    <row r="71" spans="1:47">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C71">
         <v>54340</v>
@@ -10758,57 +10974,60 @@
         <v>729.6</v>
       </c>
       <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
         <v>5227.5</v>
       </c>
-      <c r="AG71">
+      <c r="AH71">
         <v>6416.67</v>
       </c>
-      <c r="AH71">
+      <c r="AI71">
         <v>9890</v>
       </c>
-      <c r="AI71">
+      <c r="AJ71">
         <v>3676</v>
       </c>
-      <c r="AJ71">
+      <c r="AK71">
         <v>2965</v>
       </c>
-      <c r="AK71">
+      <c r="AL71">
         <v>5627.5</v>
       </c>
-      <c r="AL71">
+      <c r="AM71">
         <v>1766.43</v>
       </c>
-      <c r="AM71">
+      <c r="AN71">
         <v>2166.67</v>
       </c>
-      <c r="AN71">
+      <c r="AO71">
         <v>1500</v>
       </c>
-      <c r="AO71">
+      <c r="AP71">
         <v>551.89</v>
       </c>
-      <c r="AP71">
+      <c r="AQ71">
         <v>4370</v>
       </c>
-      <c r="AQ71">
+      <c r="AR71">
         <v>123</v>
       </c>
-      <c r="AR71">
+      <c r="AS71">
         <v>75.33</v>
       </c>
-      <c r="AS71">
+      <c r="AT71">
         <v>9516.67</v>
       </c>
-      <c r="AT71">
+      <c r="AU71">
         <v>2397.27</v>
       </c>
     </row>
-    <row r="72" spans="1:46">
+    <row r="72" spans="1:47">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C72">
         <v>54530</v>
@@ -10898,57 +11117,60 @@
         <v>729.6</v>
       </c>
       <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
         <v>5227.5</v>
       </c>
-      <c r="AG72">
+      <c r="AH72">
         <v>6420.83</v>
       </c>
-      <c r="AH72">
+      <c r="AI72">
         <v>9955</v>
       </c>
-      <c r="AI72">
+      <c r="AJ72">
         <v>3668</v>
       </c>
-      <c r="AJ72">
+      <c r="AK72">
         <v>2955</v>
       </c>
-      <c r="AK72">
+      <c r="AL72">
         <v>5648.75</v>
       </c>
-      <c r="AL72">
+      <c r="AM72">
         <v>1770</v>
       </c>
-      <c r="AM72">
+      <c r="AN72">
         <v>2166.67</v>
       </c>
-      <c r="AN72">
+      <c r="AO72">
         <v>1500</v>
       </c>
-      <c r="AO72">
+      <c r="AP72">
         <v>551.89</v>
       </c>
-      <c r="AP72">
+      <c r="AQ72">
         <v>4365</v>
       </c>
-      <c r="AQ72">
+      <c r="AR72">
         <v>123</v>
       </c>
-      <c r="AR72">
+      <c r="AS72">
         <v>75.17</v>
       </c>
-      <c r="AS72">
+      <c r="AT72">
         <v>9541.67</v>
       </c>
-      <c r="AT72">
+      <c r="AU72">
         <v>2399.09</v>
       </c>
     </row>
-    <row r="73" spans="1:46">
+    <row r="73" spans="1:47">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C73">
         <v>53710</v>
@@ -11038,57 +11260,60 @@
         <v>730.4</v>
       </c>
       <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
         <v>5185</v>
       </c>
-      <c r="AG73">
+      <c r="AH73">
         <v>6420.83</v>
       </c>
-      <c r="AH73">
+      <c r="AI73">
         <v>9955</v>
       </c>
-      <c r="AI73">
+      <c r="AJ73">
         <v>3668</v>
       </c>
-      <c r="AJ73">
+      <c r="AK73">
         <v>2955</v>
       </c>
-      <c r="AK73">
+      <c r="AL73">
         <v>5630</v>
       </c>
-      <c r="AL73">
+      <c r="AM73">
         <v>1770.36</v>
       </c>
-      <c r="AM73">
+      <c r="AN73">
         <v>2166.67</v>
       </c>
-      <c r="AN73">
+      <c r="AO73">
         <v>1500</v>
       </c>
-      <c r="AO73">
+      <c r="AP73">
         <v>550.89</v>
       </c>
-      <c r="AP73">
+      <c r="AQ73">
         <v>4330</v>
       </c>
-      <c r="AQ73">
+      <c r="AR73">
         <v>122.67</v>
       </c>
-      <c r="AR73">
+      <c r="AS73">
         <v>75.17</v>
       </c>
-      <c r="AS73">
+      <c r="AT73">
         <v>9541.67</v>
       </c>
-      <c r="AT73">
+      <c r="AU73">
         <v>2399.09</v>
       </c>
     </row>
-    <row r="74" spans="1:46">
+    <row r="74" spans="1:47">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C74">
         <v>53520</v>
@@ -11178,57 +11403,60 @@
         <v>731.2</v>
       </c>
       <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
         <v>5177.5</v>
       </c>
-      <c r="AG74">
+      <c r="AH74">
         <v>6420.83</v>
       </c>
-      <c r="AH74">
+      <c r="AI74">
         <v>9955</v>
       </c>
-      <c r="AI74">
+      <c r="AJ74">
         <v>3668</v>
       </c>
-      <c r="AJ74">
+      <c r="AK74">
         <v>2955</v>
       </c>
-      <c r="AK74">
+      <c r="AL74">
         <v>5611.25</v>
       </c>
-      <c r="AL74">
+      <c r="AM74">
         <v>1770.36</v>
       </c>
-      <c r="AM74">
+      <c r="AN74">
         <v>2150</v>
       </c>
-      <c r="AN74">
+      <c r="AO74">
         <v>1500</v>
       </c>
-      <c r="AO74">
+      <c r="AP74">
         <v>547.5599999999999</v>
       </c>
-      <c r="AP74">
+      <c r="AQ74">
         <v>4270</v>
       </c>
-      <c r="AQ74">
+      <c r="AR74">
         <v>122.67</v>
       </c>
-      <c r="AR74">
+      <c r="AS74">
         <v>75.17</v>
       </c>
-      <c r="AS74">
+      <c r="AT74">
         <v>9541.67</v>
       </c>
-      <c r="AT74">
+      <c r="AU74">
         <v>2405.45</v>
       </c>
     </row>
-    <row r="75" spans="1:46">
+    <row r="75" spans="1:47">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C75">
         <v>53430</v>
@@ -11318,57 +11546,60 @@
         <v>732.4</v>
       </c>
       <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
         <v>5180</v>
       </c>
-      <c r="AG75">
+      <c r="AH75">
         <v>6408.33</v>
       </c>
-      <c r="AH75">
+      <c r="AI75">
         <v>9955</v>
       </c>
-      <c r="AI75">
+      <c r="AJ75">
         <v>3668</v>
       </c>
-      <c r="AJ75">
+      <c r="AK75">
         <v>2950</v>
       </c>
-      <c r="AK75">
+      <c r="AL75">
         <v>5613.75</v>
       </c>
-      <c r="AL75">
+      <c r="AM75">
         <v>1771.07</v>
       </c>
-      <c r="AM75">
+      <c r="AN75">
         <v>2116.67</v>
       </c>
-      <c r="AN75">
+      <c r="AO75">
         <v>1500</v>
       </c>
-      <c r="AO75">
+      <c r="AP75">
         <v>550.22</v>
       </c>
-      <c r="AP75">
+      <c r="AQ75">
         <v>4225</v>
       </c>
-      <c r="AQ75">
+      <c r="AR75">
         <v>122.67</v>
       </c>
-      <c r="AR75">
+      <c r="AS75">
         <v>75.17</v>
       </c>
-      <c r="AS75">
+      <c r="AT75">
         <v>9516.67</v>
       </c>
-      <c r="AT75">
+      <c r="AU75">
         <v>2410.91</v>
       </c>
     </row>
-    <row r="76" spans="1:46">
+    <row r="76" spans="1:47">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C76">
         <v>53470</v>
@@ -11458,57 +11689,60 @@
         <v>732.4</v>
       </c>
       <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
         <v>5175</v>
       </c>
-      <c r="AG76">
+      <c r="AH76">
         <v>6408.33</v>
       </c>
-      <c r="AH76">
+      <c r="AI76">
         <v>9945</v>
       </c>
-      <c r="AI76">
+      <c r="AJ76">
         <v>3668</v>
       </c>
-      <c r="AJ76">
+      <c r="AK76">
         <v>2953.75</v>
       </c>
-      <c r="AK76">
+      <c r="AL76">
         <v>5620</v>
       </c>
-      <c r="AL76">
+      <c r="AM76">
         <v>1771.79</v>
       </c>
-      <c r="AM76">
+      <c r="AN76">
         <v>2050</v>
       </c>
-      <c r="AN76">
+      <c r="AO76">
         <v>1500</v>
       </c>
-      <c r="AO76">
+      <c r="AP76">
         <v>554.5599999999999</v>
       </c>
-      <c r="AP76">
+      <c r="AQ76">
         <v>4185</v>
       </c>
-      <c r="AQ76">
+      <c r="AR76">
         <v>122.67</v>
       </c>
-      <c r="AR76">
+      <c r="AS76">
         <v>75.17</v>
       </c>
-      <c r="AS76">
+      <c r="AT76">
         <v>9516.67</v>
       </c>
-      <c r="AT76">
+      <c r="AU76">
         <v>2413.64</v>
       </c>
     </row>
-    <row r="77" spans="1:46">
+    <row r="77" spans="1:47">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C77">
         <v>53500</v>
@@ -11598,57 +11832,60 @@
         <v>734.2</v>
       </c>
       <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
         <v>5192.5</v>
       </c>
-      <c r="AG77">
+      <c r="AH77">
         <v>6400</v>
       </c>
-      <c r="AH77">
+      <c r="AI77">
         <v>9945</v>
       </c>
-      <c r="AI77">
+      <c r="AJ77">
         <v>3668</v>
       </c>
-      <c r="AJ77">
+      <c r="AK77">
         <v>2950</v>
       </c>
-      <c r="AK77">
+      <c r="AL77">
         <v>5633.75</v>
       </c>
-      <c r="AL77">
+      <c r="AM77">
         <v>1771.07</v>
       </c>
-      <c r="AM77">
+      <c r="AN77">
         <v>2050</v>
       </c>
-      <c r="AN77">
+      <c r="AO77">
         <v>1500</v>
       </c>
-      <c r="AO77">
+      <c r="AP77">
         <v>554.89</v>
       </c>
-      <c r="AP77">
+      <c r="AQ77">
         <v>4205</v>
       </c>
-      <c r="AQ77">
+      <c r="AR77">
         <v>122.67</v>
       </c>
-      <c r="AR77">
+      <c r="AS77">
         <v>75.17</v>
       </c>
-      <c r="AS77">
+      <c r="AT77">
         <v>9516.67</v>
       </c>
-      <c r="AT77">
+      <c r="AU77">
         <v>2413.64</v>
       </c>
     </row>
-    <row r="78" spans="1:46">
+    <row r="78" spans="1:47">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C78">
         <v>52600</v>
@@ -11738,57 +11975,60 @@
         <v>736.4</v>
       </c>
       <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
         <v>5235</v>
       </c>
-      <c r="AG78">
+      <c r="AH78">
         <v>6412.5</v>
       </c>
-      <c r="AH78">
+      <c r="AI78">
         <v>9895</v>
       </c>
-      <c r="AI78">
+      <c r="AJ78">
         <v>3668</v>
       </c>
-      <c r="AJ78">
+      <c r="AK78">
         <v>2938.75</v>
       </c>
-      <c r="AK78">
+      <c r="AL78">
         <v>5660</v>
       </c>
-      <c r="AL78">
+      <c r="AM78">
         <v>1773.57</v>
       </c>
-      <c r="AM78">
+      <c r="AN78">
         <v>2050</v>
       </c>
-      <c r="AN78">
+      <c r="AO78">
         <v>1500</v>
       </c>
-      <c r="AO78">
+      <c r="AP78">
         <v>545.4400000000001</v>
       </c>
-      <c r="AP78">
+      <c r="AQ78">
         <v>4260</v>
       </c>
-      <c r="AQ78">
+      <c r="AR78">
         <v>122.67</v>
       </c>
-      <c r="AR78">
+      <c r="AS78">
         <v>75.17</v>
       </c>
-      <c r="AS78">
+      <c r="AT78">
         <v>9500</v>
       </c>
-      <c r="AT78">
+      <c r="AU78">
         <v>2413.64</v>
       </c>
     </row>
-    <row r="79" spans="1:46">
+    <row r="79" spans="1:47">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C79">
         <v>53570</v>
@@ -11878,57 +12118,60 @@
         <v>738.4</v>
       </c>
       <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
         <v>5245</v>
       </c>
-      <c r="AG79">
+      <c r="AH79">
         <v>6441.67</v>
       </c>
-      <c r="AH79">
+      <c r="AI79">
         <v>9895</v>
       </c>
-      <c r="AI79">
+      <c r="AJ79">
         <v>3668</v>
       </c>
-      <c r="AJ79">
+      <c r="AK79">
         <v>2938.75</v>
       </c>
-      <c r="AK79">
+      <c r="AL79">
         <v>5656.25</v>
       </c>
-      <c r="AL79">
+      <c r="AM79">
         <v>1774.64</v>
       </c>
-      <c r="AM79">
+      <c r="AN79">
         <v>2033.33</v>
       </c>
-      <c r="AN79">
+      <c r="AO79">
         <v>1500</v>
       </c>
-      <c r="AO79">
+      <c r="AP79">
         <v>544.33</v>
       </c>
-      <c r="AP79">
+      <c r="AQ79">
         <v>4265</v>
       </c>
-      <c r="AQ79">
+      <c r="AR79">
         <v>122.67</v>
       </c>
-      <c r="AR79">
+      <c r="AS79">
         <v>75.17</v>
       </c>
-      <c r="AS79">
+      <c r="AT79">
         <v>9500</v>
       </c>
-      <c r="AT79">
+      <c r="AU79">
         <v>2413.64</v>
       </c>
     </row>
-    <row r="80" spans="1:46">
+    <row r="80" spans="1:47">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C80">
         <v>53220</v>
@@ -12018,57 +12261,60 @@
         <v>740.4</v>
       </c>
       <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
         <v>5245</v>
       </c>
-      <c r="AG80">
+      <c r="AH80">
         <v>6458.33</v>
       </c>
-      <c r="AH80">
+      <c r="AI80">
         <v>9895</v>
       </c>
-      <c r="AI80">
+      <c r="AJ80">
         <v>3664</v>
       </c>
-      <c r="AJ80">
+      <c r="AK80">
         <v>2926.25</v>
       </c>
-      <c r="AK80">
+      <c r="AL80">
         <v>5653.75</v>
       </c>
-      <c r="AL80">
+      <c r="AM80">
         <v>1774.64</v>
       </c>
-      <c r="AM80">
+      <c r="AN80">
         <v>1983.33</v>
       </c>
-      <c r="AN80">
+      <c r="AO80">
         <v>1500</v>
       </c>
-      <c r="AO80">
+      <c r="AP80">
         <v>548.33</v>
       </c>
-      <c r="AP80">
+      <c r="AQ80">
         <v>4260</v>
       </c>
-      <c r="AQ80">
+      <c r="AR80">
         <v>122.67</v>
       </c>
-      <c r="AR80">
+      <c r="AS80">
         <v>75.17</v>
       </c>
-      <c r="AS80">
+      <c r="AT80">
         <v>9500</v>
       </c>
-      <c r="AT80">
+      <c r="AU80">
         <v>2415.45</v>
       </c>
     </row>
-    <row r="81" spans="1:46">
+    <row r="81" spans="1:47">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C81">
         <v>53410</v>
@@ -12158,57 +12404,60 @@
         <v>742.2</v>
       </c>
       <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
         <v>5247.5</v>
       </c>
-      <c r="AG81">
+      <c r="AH81">
         <v>6462.5</v>
       </c>
-      <c r="AH81">
+      <c r="AI81">
         <v>9885</v>
       </c>
-      <c r="AI81">
+      <c r="AJ81">
         <v>3664</v>
       </c>
-      <c r="AJ81">
+      <c r="AK81">
         <v>2936.25</v>
       </c>
-      <c r="AK81">
+      <c r="AL81">
         <v>5672.5</v>
       </c>
-      <c r="AL81">
+      <c r="AM81">
         <v>1773.21</v>
       </c>
-      <c r="AM81">
+      <c r="AN81">
         <v>1950</v>
       </c>
-      <c r="AN81">
+      <c r="AO81">
         <v>1500</v>
       </c>
-      <c r="AO81">
+      <c r="AP81">
         <v>544.11</v>
       </c>
-      <c r="AP81">
+      <c r="AQ81">
         <v>4240</v>
       </c>
-      <c r="AQ81">
+      <c r="AR81">
         <v>122.67</v>
       </c>
-      <c r="AR81">
+      <c r="AS81">
         <v>75.17</v>
       </c>
-      <c r="AS81">
+      <c r="AT81">
         <v>9500</v>
       </c>
-      <c r="AT81">
+      <c r="AU81">
         <v>2415.45</v>
       </c>
     </row>
-    <row r="82" spans="1:46">
+    <row r="82" spans="1:47">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C82">
         <v>53190</v>
@@ -12298,57 +12547,60 @@
         <v>744.4</v>
       </c>
       <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
         <v>5217.5</v>
       </c>
-      <c r="AG82">
+      <c r="AH82">
         <v>6479.17</v>
       </c>
-      <c r="AH82">
+      <c r="AI82">
         <v>9885</v>
       </c>
-      <c r="AI82">
+      <c r="AJ82">
         <v>3660</v>
       </c>
-      <c r="AJ82">
+      <c r="AK82">
         <v>2937.5</v>
       </c>
-      <c r="AK82">
+      <c r="AL82">
         <v>5642.5</v>
       </c>
-      <c r="AL82">
+      <c r="AM82">
         <v>1773.21</v>
       </c>
-      <c r="AM82">
+      <c r="AN82">
         <v>1950</v>
       </c>
-      <c r="AN82">
+      <c r="AO82">
         <v>1491.67</v>
       </c>
-      <c r="AO82">
+      <c r="AP82">
         <v>540.33</v>
       </c>
-      <c r="AP82">
+      <c r="AQ82">
         <v>4225</v>
       </c>
-      <c r="AQ82">
+      <c r="AR82">
         <v>122.67</v>
       </c>
-      <c r="AR82">
+      <c r="AS82">
         <v>75</v>
       </c>
-      <c r="AS82">
+      <c r="AT82">
         <v>9500</v>
       </c>
-      <c r="AT82">
+      <c r="AU82">
         <v>2415.45</v>
       </c>
     </row>
-    <row r="83" spans="1:46">
+    <row r="83" spans="1:47">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C83">
         <v>52690</v>
@@ -12438,57 +12690,60 @@
         <v>747.6</v>
       </c>
       <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
         <v>5197.5</v>
       </c>
-      <c r="AG83">
+      <c r="AH83">
         <v>6470.83</v>
       </c>
-      <c r="AH83">
+      <c r="AI83">
         <v>9885</v>
       </c>
-      <c r="AI83">
+      <c r="AJ83">
         <v>3660</v>
       </c>
-      <c r="AJ83">
+      <c r="AK83">
         <v>2947.5</v>
       </c>
-      <c r="AK83">
+      <c r="AL83">
         <v>5613.75</v>
       </c>
-      <c r="AL83">
+      <c r="AM83">
         <v>1772.5</v>
       </c>
-      <c r="AM83">
+      <c r="AN83">
         <v>1950</v>
       </c>
-      <c r="AN83">
+      <c r="AO83">
         <v>1491.67</v>
       </c>
-      <c r="AO83">
+      <c r="AP83">
         <v>540.4400000000001</v>
       </c>
-      <c r="AP83">
+      <c r="AQ83">
         <v>4205</v>
       </c>
-      <c r="AQ83">
+      <c r="AR83">
         <v>122.67</v>
       </c>
-      <c r="AR83">
+      <c r="AS83">
         <v>75</v>
       </c>
-      <c r="AS83">
+      <c r="AT83">
         <v>9500</v>
       </c>
-      <c r="AT83">
+      <c r="AU83">
         <v>2416.36</v>
       </c>
     </row>
-    <row r="84" spans="1:46">
+    <row r="84" spans="1:47">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C84">
         <v>52850</v>
@@ -12578,57 +12833,60 @@
         <v>751.4</v>
       </c>
       <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
         <v>5150</v>
       </c>
-      <c r="AG84">
+      <c r="AH84">
         <v>6470.83</v>
       </c>
-      <c r="AH84">
+      <c r="AI84">
         <v>9865</v>
       </c>
-      <c r="AI84">
+      <c r="AJ84">
         <v>3660</v>
       </c>
-      <c r="AJ84">
+      <c r="AK84">
         <v>2938.75</v>
       </c>
-      <c r="AK84">
+      <c r="AL84">
         <v>5590</v>
       </c>
-      <c r="AL84">
+      <c r="AM84">
         <v>1773.93</v>
       </c>
-      <c r="AM84">
+      <c r="AN84">
         <v>1950</v>
       </c>
-      <c r="AN84">
+      <c r="AO84">
         <v>1491.67</v>
       </c>
-      <c r="AO84">
+      <c r="AP84">
         <v>537.11</v>
       </c>
-      <c r="AP84">
+      <c r="AQ84">
         <v>4210</v>
       </c>
-      <c r="AQ84">
+      <c r="AR84">
         <v>122.67</v>
       </c>
-      <c r="AR84">
+      <c r="AS84">
         <v>75</v>
       </c>
-      <c r="AS84">
+      <c r="AT84">
         <v>9500</v>
       </c>
-      <c r="AT84">
+      <c r="AU84">
         <v>2416.36</v>
       </c>
     </row>
-    <row r="85" spans="1:46">
+    <row r="85" spans="1:47">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C85">
         <v>52880</v>
@@ -12718,57 +12976,60 @@
         <v>755</v>
       </c>
       <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
         <v>5150</v>
       </c>
-      <c r="AG85">
+      <c r="AH85">
         <v>6470.83</v>
       </c>
-      <c r="AH85">
+      <c r="AI85">
         <v>9865</v>
       </c>
-      <c r="AI85">
+      <c r="AJ85">
         <v>3660</v>
       </c>
-      <c r="AJ85">
+      <c r="AK85">
         <v>2925</v>
       </c>
-      <c r="AK85">
+      <c r="AL85">
         <v>5585</v>
       </c>
-      <c r="AL85">
+      <c r="AM85">
         <v>1773.93</v>
       </c>
-      <c r="AM85">
+      <c r="AN85">
         <v>1933.33</v>
       </c>
-      <c r="AN85">
+      <c r="AO85">
         <v>1491.67</v>
       </c>
-      <c r="AO85">
+      <c r="AP85">
         <v>539</v>
       </c>
-      <c r="AP85">
+      <c r="AQ85">
         <v>4215</v>
       </c>
-      <c r="AQ85">
+      <c r="AR85">
         <v>122.67</v>
       </c>
-      <c r="AR85">
+      <c r="AS85">
         <v>75</v>
       </c>
-      <c r="AS85">
+      <c r="AT85">
         <v>9500</v>
       </c>
-      <c r="AT85">
+      <c r="AU85">
         <v>2416.36</v>
       </c>
     </row>
-    <row r="86" spans="1:46">
+    <row r="86" spans="1:47">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C86">
         <v>52730</v>
@@ -12858,57 +13119,60 @@
         <v>758</v>
       </c>
       <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
         <v>5110</v>
       </c>
-      <c r="AG86">
+      <c r="AH86">
         <v>6454.17</v>
       </c>
-      <c r="AH86">
+      <c r="AI86">
         <v>9855</v>
       </c>
-      <c r="AI86">
+      <c r="AJ86">
         <v>3660</v>
       </c>
-      <c r="AJ86">
+      <c r="AK86">
         <v>2923.75</v>
       </c>
-      <c r="AK86">
+      <c r="AL86">
         <v>5546.25</v>
       </c>
-      <c r="AL86">
+      <c r="AM86">
         <v>1777.86</v>
       </c>
-      <c r="AM86">
+      <c r="AN86">
         <v>1900</v>
       </c>
-      <c r="AN86">
+      <c r="AO86">
         <v>1495</v>
       </c>
-      <c r="AO86">
+      <c r="AP86">
         <v>541.78</v>
       </c>
-      <c r="AP86">
+      <c r="AQ86">
         <v>4325</v>
       </c>
-      <c r="AQ86">
+      <c r="AR86">
         <v>122.67</v>
       </c>
-      <c r="AR86">
+      <c r="AS86">
         <v>75</v>
       </c>
-      <c r="AS86">
+      <c r="AT86">
         <v>9495.83</v>
       </c>
-      <c r="AT86">
+      <c r="AU86">
         <v>2417.27</v>
       </c>
     </row>
-    <row r="87" spans="1:46">
+    <row r="87" spans="1:47">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C87">
         <v>52620</v>
@@ -12998,57 +13262,60 @@
         <v>746.4</v>
       </c>
       <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
         <v>5110</v>
       </c>
-      <c r="AG87">
+      <c r="AH87">
         <v>6454.17</v>
       </c>
-      <c r="AH87">
+      <c r="AI87">
         <v>9835</v>
       </c>
-      <c r="AI87">
+      <c r="AJ87">
         <v>3660</v>
       </c>
-      <c r="AJ87">
+      <c r="AK87">
         <v>2921.25</v>
       </c>
-      <c r="AK87">
+      <c r="AL87">
         <v>5546.25</v>
       </c>
-      <c r="AL87">
+      <c r="AM87">
         <v>1778.93</v>
       </c>
-      <c r="AM87">
+      <c r="AN87">
         <v>1880</v>
       </c>
-      <c r="AN87">
+      <c r="AO87">
         <v>1495</v>
       </c>
-      <c r="AO87">
+      <c r="AP87">
         <v>546</v>
       </c>
-      <c r="AP87">
+      <c r="AQ87">
         <v>4375</v>
       </c>
-      <c r="AQ87">
+      <c r="AR87">
         <v>122.67</v>
       </c>
-      <c r="AR87">
+      <c r="AS87">
         <v>75</v>
       </c>
-      <c r="AS87">
+      <c r="AT87">
         <v>9487.5</v>
       </c>
-      <c r="AT87">
+      <c r="AU87">
         <v>2417.27</v>
       </c>
     </row>
-    <row r="88" spans="1:46">
+    <row r="88" spans="1:47">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C88">
         <v>52880</v>
@@ -13138,57 +13405,60 @@
         <v>746.4</v>
       </c>
       <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
         <v>5110</v>
       </c>
-      <c r="AG88">
+      <c r="AH88">
         <v>6450</v>
       </c>
-      <c r="AH88">
+      <c r="AI88">
         <v>9835</v>
       </c>
-      <c r="AI88">
+      <c r="AJ88">
         <v>3660</v>
       </c>
-      <c r="AJ88">
+      <c r="AK88">
         <v>2942.5</v>
       </c>
-      <c r="AK88">
+      <c r="AL88">
         <v>5557.5</v>
       </c>
-      <c r="AL88">
+      <c r="AM88">
         <v>1778.93</v>
       </c>
-      <c r="AM88">
+      <c r="AN88">
         <v>1880</v>
       </c>
-      <c r="AN88">
+      <c r="AO88">
         <v>1495</v>
       </c>
-      <c r="AO88">
+      <c r="AP88">
         <v>545.33</v>
       </c>
-      <c r="AP88">
+      <c r="AQ88">
         <v>4400</v>
       </c>
-      <c r="AQ88">
+      <c r="AR88">
         <v>122.67</v>
       </c>
-      <c r="AR88">
+      <c r="AS88">
         <v>75</v>
       </c>
-      <c r="AS88">
+      <c r="AT88">
         <v>9383.33</v>
       </c>
-      <c r="AT88">
+      <c r="AU88">
         <v>2417.27</v>
       </c>
     </row>
-    <row r="89" spans="1:46">
+    <row r="89" spans="1:47">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C89">
         <v>51640</v>
@@ -13278,57 +13548,60 @@
         <v>746.4</v>
       </c>
       <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
         <v>5110</v>
       </c>
-      <c r="AG89">
+      <c r="AH89">
         <v>6450</v>
       </c>
-      <c r="AH89">
+      <c r="AI89">
         <v>9820</v>
       </c>
-      <c r="AI89">
+      <c r="AJ89">
         <v>3660</v>
       </c>
-      <c r="AJ89">
+      <c r="AK89">
         <v>2943.75</v>
       </c>
-      <c r="AK89">
+      <c r="AL89">
         <v>5540</v>
       </c>
-      <c r="AL89">
+      <c r="AM89">
         <v>1779.64</v>
       </c>
-      <c r="AM89">
+      <c r="AN89">
         <v>1880</v>
       </c>
-      <c r="AN89">
+      <c r="AO89">
         <v>1498.33</v>
       </c>
-      <c r="AO89">
+      <c r="AP89">
         <v>546.78</v>
       </c>
-      <c r="AP89">
+      <c r="AQ89">
         <v>4400</v>
       </c>
-      <c r="AQ89">
+      <c r="AR89">
         <v>122.67</v>
       </c>
-      <c r="AR89">
+      <c r="AS89">
         <v>75</v>
       </c>
-      <c r="AS89">
+      <c r="AT89">
         <v>9333.33</v>
       </c>
-      <c r="AT89">
+      <c r="AU89">
         <v>2417.27</v>
       </c>
     </row>
-    <row r="90" spans="1:46">
+    <row r="90" spans="1:47">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C90">
         <v>51310</v>
@@ -13418,57 +13691,60 @@
         <v>745.6</v>
       </c>
       <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
         <v>5135</v>
       </c>
-      <c r="AG90">
+      <c r="AH90">
         <v>6450</v>
       </c>
-      <c r="AH90">
+      <c r="AI90">
         <v>9685</v>
       </c>
-      <c r="AI90">
+      <c r="AJ90">
         <v>3660</v>
       </c>
-      <c r="AJ90">
+      <c r="AK90">
         <v>2938.75</v>
       </c>
-      <c r="AK90">
+      <c r="AL90">
         <v>5582.5</v>
       </c>
-      <c r="AL90">
+      <c r="AM90">
         <v>1779.64</v>
       </c>
-      <c r="AM90">
+      <c r="AN90">
         <v>1880</v>
       </c>
-      <c r="AN90">
+      <c r="AO90">
         <v>1498.33</v>
       </c>
-      <c r="AO90">
+      <c r="AP90">
         <v>547</v>
       </c>
-      <c r="AP90">
+      <c r="AQ90">
         <v>4380</v>
       </c>
-      <c r="AQ90">
+      <c r="AR90">
         <v>122.67</v>
       </c>
-      <c r="AR90">
+      <c r="AS90">
         <v>75</v>
       </c>
-      <c r="AS90">
+      <c r="AT90">
         <v>9283.33</v>
       </c>
-      <c r="AT90">
+      <c r="AU90">
         <v>2417.27</v>
       </c>
     </row>
-    <row r="91" spans="1:46">
+    <row r="91" spans="1:47">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C91">
         <v>51320</v>
@@ -13558,57 +13834,60 @@
         <v>744</v>
       </c>
       <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
         <v>5135</v>
       </c>
-      <c r="AG91">
+      <c r="AH91">
         <v>6450</v>
       </c>
-      <c r="AH91">
+      <c r="AI91">
         <v>9655</v>
       </c>
-      <c r="AI91">
+      <c r="AJ91">
         <v>3660</v>
       </c>
-      <c r="AJ91">
+      <c r="AK91">
         <v>2938.75</v>
       </c>
-      <c r="AK91">
+      <c r="AL91">
         <v>5600</v>
       </c>
-      <c r="AL91">
+      <c r="AM91">
         <v>1779.64</v>
       </c>
-      <c r="AM91">
+      <c r="AN91">
         <v>1880</v>
       </c>
-      <c r="AN91">
+      <c r="AO91">
         <v>1498.33</v>
       </c>
-      <c r="AO91">
+      <c r="AP91">
         <v>548.67</v>
       </c>
-      <c r="AP91">
+      <c r="AQ91">
         <v>4300</v>
       </c>
-      <c r="AQ91">
+      <c r="AR91">
         <v>122.67</v>
       </c>
-      <c r="AR91">
+      <c r="AS91">
         <v>75</v>
       </c>
-      <c r="AS91">
+      <c r="AT91">
         <v>9216.67</v>
       </c>
-      <c r="AT91">
+      <c r="AU91">
         <v>2417.27</v>
       </c>
     </row>
-    <row r="92" spans="1:46">
+    <row r="92" spans="1:47">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C92">
         <v>51690</v>
@@ -13698,57 +13977,60 @@
         <v>743.2</v>
       </c>
       <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
         <v>5135</v>
       </c>
-      <c r="AG92">
+      <c r="AH92">
         <v>6450</v>
       </c>
-      <c r="AH92">
+      <c r="AI92">
         <v>9655</v>
       </c>
-      <c r="AI92">
+      <c r="AJ92">
         <v>3660</v>
       </c>
-      <c r="AJ92">
+      <c r="AK92">
         <v>2938.75</v>
       </c>
-      <c r="AK92">
+      <c r="AL92">
         <v>5600</v>
       </c>
-      <c r="AL92">
+      <c r="AM92">
         <v>1780.36</v>
       </c>
-      <c r="AM92">
+      <c r="AN92">
         <v>1880</v>
       </c>
-      <c r="AN92">
+      <c r="AO92">
         <v>1498.33</v>
       </c>
-      <c r="AO92">
+      <c r="AP92">
         <v>548.67</v>
       </c>
-      <c r="AP92">
+      <c r="AQ92">
         <v>4275</v>
       </c>
-      <c r="AQ92">
+      <c r="AR92">
         <v>122.67</v>
       </c>
-      <c r="AR92">
+      <c r="AS92">
         <v>75</v>
       </c>
-      <c r="AS92">
+      <c r="AT92">
         <v>9175</v>
       </c>
-      <c r="AT92">
+      <c r="AU92">
         <v>2417.27</v>
       </c>
     </row>
-    <row r="93" spans="1:46">
+    <row r="93" spans="1:47">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C93">
         <v>52290</v>
@@ -13838,57 +14120,60 @@
         <v>740.8</v>
       </c>
       <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
         <v>5160</v>
       </c>
-      <c r="AG93">
+      <c r="AH93">
         <v>6450</v>
       </c>
-      <c r="AH93">
+      <c r="AI93">
         <v>9655</v>
       </c>
-      <c r="AI93">
+      <c r="AJ93">
         <v>3660</v>
       </c>
-      <c r="AJ93">
+      <c r="AK93">
         <v>3068.57</v>
       </c>
-      <c r="AK93">
+      <c r="AL93">
         <v>5637.5</v>
       </c>
-      <c r="AL93">
+      <c r="AM93">
         <v>1781.07</v>
       </c>
-      <c r="AM93">
+      <c r="AN93">
         <v>1880</v>
       </c>
-      <c r="AN93">
+      <c r="AO93">
         <v>1498.33</v>
       </c>
-      <c r="AO93">
+      <c r="AP93">
         <v>548.67</v>
       </c>
-      <c r="AP93">
+      <c r="AQ93">
         <v>4230</v>
       </c>
-      <c r="AQ93">
+      <c r="AR93">
         <v>122.67</v>
       </c>
-      <c r="AR93">
+      <c r="AS93">
         <v>75</v>
       </c>
-      <c r="AS93">
+      <c r="AT93">
         <v>9183.33</v>
       </c>
-      <c r="AT93">
+      <c r="AU93">
         <v>2418.18</v>
       </c>
     </row>
-    <row r="94" spans="1:46">
+    <row r="94" spans="1:47">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C94">
         <v>53070</v>
@@ -13978,57 +14263,60 @@
         <v>734.4</v>
       </c>
       <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
         <v>5160</v>
       </c>
-      <c r="AG94">
+      <c r="AH94">
         <v>6450</v>
       </c>
-      <c r="AH94">
+      <c r="AI94">
         <v>9605</v>
       </c>
-      <c r="AI94">
+      <c r="AJ94">
         <v>3660</v>
       </c>
-      <c r="AJ94">
+      <c r="AK94">
         <v>3064.29</v>
       </c>
-      <c r="AK94">
+      <c r="AL94">
         <v>5682.5</v>
       </c>
-      <c r="AL94">
+      <c r="AM94">
         <v>1781.79</v>
       </c>
-      <c r="AM94">
+      <c r="AN94">
         <v>1880</v>
       </c>
-      <c r="AN94">
+      <c r="AO94">
         <v>1498.33</v>
       </c>
-      <c r="AO94">
+      <c r="AP94">
         <v>550.5599999999999</v>
       </c>
-      <c r="AP94">
+      <c r="AQ94">
         <v>4175</v>
       </c>
-      <c r="AQ94">
+      <c r="AR94">
         <v>122.67</v>
       </c>
-      <c r="AR94">
+      <c r="AS94">
         <v>75</v>
       </c>
-      <c r="AS94">
+      <c r="AT94">
         <v>9150</v>
       </c>
-      <c r="AT94">
+      <c r="AU94">
         <v>2418.18</v>
       </c>
     </row>
-    <row r="95" spans="1:46">
+    <row r="95" spans="1:47">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C95">
         <v>52950</v>
@@ -14118,57 +14406,60 @@
         <v>728.8</v>
       </c>
       <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
         <v>5215</v>
       </c>
-      <c r="AG95">
+      <c r="AH95">
         <v>6450</v>
       </c>
-      <c r="AH95">
+      <c r="AI95">
         <v>9565</v>
       </c>
-      <c r="AI95">
+      <c r="AJ95">
         <v>3660</v>
       </c>
-      <c r="AJ95">
+      <c r="AK95">
         <v>3081.43</v>
       </c>
-      <c r="AK95">
+      <c r="AL95">
         <v>5736.25</v>
       </c>
-      <c r="AL95">
+      <c r="AM95">
         <v>1787.14</v>
       </c>
-      <c r="AM95">
+      <c r="AN95">
         <v>1960</v>
       </c>
-      <c r="AN95">
+      <c r="AO95">
         <v>1498.33</v>
       </c>
-      <c r="AO95">
+      <c r="AP95">
         <v>561.33</v>
       </c>
-      <c r="AP95">
+      <c r="AQ95">
         <v>4090</v>
       </c>
-      <c r="AQ95">
+      <c r="AR95">
         <v>122.67</v>
       </c>
-      <c r="AR95">
+      <c r="AS95">
         <v>75</v>
       </c>
-      <c r="AS95">
+      <c r="AT95">
         <v>9062.5</v>
       </c>
-      <c r="AT95">
+      <c r="AU95">
         <v>2420.91</v>
       </c>
     </row>
-    <row r="96" spans="1:46">
+    <row r="96" spans="1:47">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C96">
         <v>52920</v>
@@ -14258,57 +14549,60 @@
         <v>724</v>
       </c>
       <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
         <v>5265</v>
       </c>
-      <c r="AG96">
+      <c r="AH96">
         <v>6450</v>
       </c>
-      <c r="AH96">
+      <c r="AI96">
         <v>9565</v>
       </c>
-      <c r="AI96">
+      <c r="AJ96">
         <v>3652</v>
       </c>
-      <c r="AJ96">
+      <c r="AK96">
         <v>3077.14</v>
       </c>
-      <c r="AK96">
+      <c r="AL96">
         <v>5730</v>
       </c>
-      <c r="AL96">
+      <c r="AM96">
         <v>1790.71</v>
       </c>
-      <c r="AM96">
+      <c r="AN96">
         <v>1960</v>
       </c>
-      <c r="AN96">
+      <c r="AO96">
         <v>1498.33</v>
       </c>
-      <c r="AO96">
+      <c r="AP96">
         <v>566.4400000000001</v>
       </c>
-      <c r="AP96">
+      <c r="AQ96">
         <v>4050</v>
       </c>
-      <c r="AQ96">
+      <c r="AR96">
         <v>122.67</v>
       </c>
-      <c r="AR96">
+      <c r="AS96">
         <v>75</v>
       </c>
-      <c r="AS96">
+      <c r="AT96">
         <v>9062.5</v>
       </c>
-      <c r="AT96">
+      <c r="AU96">
         <v>2420.91</v>
       </c>
     </row>
-    <row r="97" spans="1:46">
+    <row r="97" spans="1:47">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C97">
         <v>52430</v>
@@ -14398,57 +14692,60 @@
         <v>712.8</v>
       </c>
       <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
         <v>5267.5</v>
       </c>
-      <c r="AG97">
+      <c r="AH97">
         <v>6450</v>
       </c>
-      <c r="AH97">
+      <c r="AI97">
         <v>9555</v>
       </c>
-      <c r="AI97">
+      <c r="AJ97">
         <v>3652</v>
       </c>
-      <c r="AJ97">
+      <c r="AK97">
         <v>3111.43</v>
       </c>
-      <c r="AK97">
+      <c r="AL97">
         <v>5722.5</v>
       </c>
-      <c r="AL97">
+      <c r="AM97">
         <v>1793.21</v>
       </c>
-      <c r="AM97">
+      <c r="AN97">
         <v>1976.67</v>
       </c>
-      <c r="AN97">
+      <c r="AO97">
         <v>1498.33</v>
       </c>
-      <c r="AO97">
+      <c r="AP97">
         <v>564</v>
       </c>
-      <c r="AP97">
+      <c r="AQ97">
         <v>3950</v>
       </c>
-      <c r="AQ97">
+      <c r="AR97">
         <v>122.67</v>
       </c>
-      <c r="AR97">
+      <c r="AS97">
         <v>75</v>
       </c>
-      <c r="AS97">
+      <c r="AT97">
         <v>9058.33</v>
       </c>
-      <c r="AT97">
+      <c r="AU97">
         <v>2425.45</v>
       </c>
     </row>
-    <row r="98" spans="1:46">
+    <row r="98" spans="1:47">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C98">
         <v>52050</v>
@@ -14538,57 +14835,60 @@
         <v>706.4</v>
       </c>
       <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
         <v>5297.5</v>
       </c>
-      <c r="AG98">
+      <c r="AH98">
         <v>6450</v>
       </c>
-      <c r="AH98">
+      <c r="AI98">
         <v>9565</v>
       </c>
-      <c r="AI98">
+      <c r="AJ98">
         <v>3652</v>
       </c>
-      <c r="AJ98">
+      <c r="AK98">
         <v>3147.14</v>
       </c>
-      <c r="AK98">
+      <c r="AL98">
         <v>5731.25</v>
       </c>
-      <c r="AL98">
+      <c r="AM98">
         <v>1798.57</v>
       </c>
-      <c r="AM98">
+      <c r="AN98">
         <v>1976.67</v>
       </c>
-      <c r="AN98">
+      <c r="AO98">
         <v>1498.33</v>
       </c>
-      <c r="AO98">
+      <c r="AP98">
         <v>561</v>
       </c>
-      <c r="AP98">
+      <c r="AQ98">
         <v>3890</v>
       </c>
-      <c r="AQ98">
+      <c r="AR98">
         <v>122.67</v>
       </c>
-      <c r="AR98">
+      <c r="AS98">
         <v>75</v>
       </c>
-      <c r="AS98">
+      <c r="AT98">
         <v>9041.67</v>
       </c>
-      <c r="AT98">
+      <c r="AU98">
         <v>2426.36</v>
       </c>
     </row>
-    <row r="99" spans="1:46">
+    <row r="99" spans="1:47">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C99">
         <v>51960</v>
@@ -14678,57 +14978,60 @@
         <v>697.6</v>
       </c>
       <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
         <v>5300</v>
       </c>
-      <c r="AG99">
+      <c r="AH99">
         <v>6479.17</v>
       </c>
-      <c r="AH99">
+      <c r="AI99">
         <v>9565</v>
       </c>
-      <c r="AI99">
+      <c r="AJ99">
         <v>3652</v>
       </c>
-      <c r="AJ99">
+      <c r="AK99">
         <v>3217.14</v>
       </c>
-      <c r="AK99">
+      <c r="AL99">
         <v>5803.75</v>
       </c>
-      <c r="AL99">
+      <c r="AM99">
         <v>1806.79</v>
       </c>
-      <c r="AM99">
+      <c r="AN99">
         <v>1976.67</v>
       </c>
-      <c r="AN99">
+      <c r="AO99">
         <v>1498.33</v>
       </c>
-      <c r="AO99">
+      <c r="AP99">
         <v>562.11</v>
       </c>
-      <c r="AP99">
+      <c r="AQ99">
         <v>3830</v>
       </c>
-      <c r="AQ99">
+      <c r="AR99">
         <v>121</v>
       </c>
-      <c r="AR99">
+      <c r="AS99">
         <v>74.83</v>
       </c>
-      <c r="AS99">
+      <c r="AT99">
         <v>9054.17</v>
       </c>
-      <c r="AT99">
+      <c r="AU99">
         <v>2429.09</v>
       </c>
     </row>
-    <row r="100" spans="1:46">
+    <row r="100" spans="1:47">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C100">
         <v>51770</v>
@@ -14818,57 +15121,60 @@
         <v>695.8</v>
       </c>
       <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
         <v>5282.5</v>
       </c>
-      <c r="AG100">
+      <c r="AH100">
         <v>6479.17</v>
       </c>
-      <c r="AH100">
+      <c r="AI100">
         <v>9565</v>
       </c>
-      <c r="AI100">
+      <c r="AJ100">
         <v>3652</v>
       </c>
-      <c r="AJ100">
+      <c r="AK100">
         <v>3224.29</v>
       </c>
-      <c r="AK100">
+      <c r="AL100">
         <v>5822.5</v>
       </c>
-      <c r="AL100">
+      <c r="AM100">
         <v>1815.71</v>
       </c>
-      <c r="AM100">
+      <c r="AN100">
         <v>1976.67</v>
       </c>
-      <c r="AN100">
+      <c r="AO100">
         <v>1498.33</v>
       </c>
-      <c r="AO100">
+      <c r="AP100">
         <v>557.4400000000001</v>
       </c>
-      <c r="AP100">
+      <c r="AQ100">
         <v>3760</v>
       </c>
-      <c r="AQ100">
+      <c r="AR100">
         <v>121</v>
       </c>
-      <c r="AR100">
+      <c r="AS100">
         <v>74.83</v>
       </c>
-      <c r="AS100">
+      <c r="AT100">
         <v>9054.17</v>
       </c>
-      <c r="AT100">
+      <c r="AU100">
         <v>2430.91</v>
       </c>
     </row>
-    <row r="101" spans="1:46">
+    <row r="101" spans="1:47">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C101">
         <v>51860</v>
@@ -14958,57 +15264,60 @@
         <v>691</v>
       </c>
       <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
         <v>5260</v>
       </c>
-      <c r="AG101">
+      <c r="AH101">
         <v>6479.17</v>
       </c>
-      <c r="AH101">
+      <c r="AI101">
         <v>9565</v>
       </c>
-      <c r="AI101">
+      <c r="AJ101">
         <v>3652</v>
       </c>
-      <c r="AJ101">
+      <c r="AK101">
         <v>3235.71</v>
       </c>
-      <c r="AK101">
+      <c r="AL101">
         <v>5820</v>
       </c>
-      <c r="AL101">
+      <c r="AM101">
         <v>1829.29</v>
       </c>
-      <c r="AM101">
+      <c r="AN101">
         <v>1976.67</v>
       </c>
-      <c r="AN101">
+      <c r="AO101">
         <v>1498.33</v>
       </c>
-      <c r="AO101">
+      <c r="AP101">
         <v>548</v>
       </c>
-      <c r="AP101">
+      <c r="AQ101">
         <v>3705</v>
       </c>
-      <c r="AQ101">
+      <c r="AR101">
         <v>121.33</v>
       </c>
-      <c r="AR101">
+      <c r="AS101">
         <v>74.67</v>
       </c>
-      <c r="AS101">
+      <c r="AT101">
         <v>9054.17</v>
       </c>
-      <c r="AT101">
+      <c r="AU101">
         <v>2438.18</v>
       </c>
     </row>
-    <row r="102" spans="1:46">
+    <row r="102" spans="1:47">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C102">
         <v>51960</v>
@@ -15098,57 +15407,60 @@
         <v>684</v>
       </c>
       <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
         <v>5260</v>
       </c>
-      <c r="AG102">
+      <c r="AH102">
         <v>6475</v>
       </c>
-      <c r="AH102">
+      <c r="AI102">
         <v>9565</v>
       </c>
-      <c r="AI102">
+      <c r="AJ102">
         <v>3652</v>
       </c>
-      <c r="AJ102">
+      <c r="AK102">
         <v>3240</v>
       </c>
-      <c r="AK102">
+      <c r="AL102">
         <v>5775</v>
       </c>
-      <c r="AL102">
+      <c r="AM102">
         <v>1838.93</v>
       </c>
-      <c r="AM102">
+      <c r="AN102">
         <v>1976.67</v>
       </c>
-      <c r="AN102">
+      <c r="AO102">
         <v>1498.33</v>
       </c>
-      <c r="AO102">
+      <c r="AP102">
         <v>545.22</v>
       </c>
-      <c r="AP102">
+      <c r="AQ102">
         <v>3645</v>
       </c>
-      <c r="AQ102">
+      <c r="AR102">
         <v>121.33</v>
       </c>
-      <c r="AR102">
+      <c r="AS102">
         <v>74.67</v>
       </c>
-      <c r="AS102">
+      <c r="AT102">
         <v>9054.17</v>
       </c>
-      <c r="AT102">
+      <c r="AU102">
         <v>2445.45</v>
       </c>
     </row>
-    <row r="103" spans="1:46">
+    <row r="103" spans="1:47">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C103">
         <v>51790</v>
@@ -15238,57 +15550,60 @@
         <v>676.8</v>
       </c>
       <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
         <v>5262.5</v>
       </c>
-      <c r="AG103">
+      <c r="AH103">
         <v>6470.83</v>
       </c>
-      <c r="AH103">
+      <c r="AI103">
         <v>9545</v>
       </c>
-      <c r="AI103">
+      <c r="AJ103">
         <v>3652</v>
       </c>
-      <c r="AJ103">
+      <c r="AK103">
         <v>3232.86</v>
       </c>
-      <c r="AK103">
+      <c r="AL103">
         <v>5730</v>
       </c>
-      <c r="AL103">
+      <c r="AM103">
         <v>1846.43</v>
       </c>
-      <c r="AM103">
+      <c r="AN103">
         <v>1976.67</v>
       </c>
-      <c r="AN103">
+      <c r="AO103">
         <v>1498.33</v>
       </c>
-      <c r="AO103">
+      <c r="AP103">
         <v>541.4400000000001</v>
       </c>
-      <c r="AP103">
+      <c r="AQ103">
         <v>3645</v>
       </c>
-      <c r="AQ103">
+      <c r="AR103">
         <v>121.33</v>
       </c>
-      <c r="AR103">
+      <c r="AS103">
         <v>74.67</v>
       </c>
-      <c r="AS103">
+      <c r="AT103">
         <v>9054.17</v>
       </c>
-      <c r="AT103">
+      <c r="AU103">
         <v>2448.18</v>
       </c>
     </row>
-    <row r="104" spans="1:46">
+    <row r="104" spans="1:47">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C104">
         <v>51120</v>
@@ -15378,57 +15693,60 @@
         <v>668.8</v>
       </c>
       <c r="AF104">
+        <v>0</v>
+      </c>
+      <c r="AG104">
         <v>5182.5</v>
       </c>
-      <c r="AG104">
+      <c r="AH104">
         <v>6458.33</v>
       </c>
-      <c r="AH104">
+      <c r="AI104">
         <v>9455</v>
       </c>
-      <c r="AI104">
+      <c r="AJ104">
         <v>3652</v>
       </c>
-      <c r="AJ104">
+      <c r="AK104">
         <v>3224.29</v>
       </c>
-      <c r="AK104">
+      <c r="AL104">
         <v>5713.75</v>
       </c>
-      <c r="AL104">
+      <c r="AM104">
         <v>1852.5</v>
       </c>
-      <c r="AM104">
+      <c r="AN104">
         <v>1976.67</v>
       </c>
-      <c r="AN104">
+      <c r="AO104">
         <v>1498.33</v>
       </c>
-      <c r="AO104">
+      <c r="AP104">
         <v>528.67</v>
       </c>
-      <c r="AP104">
+      <c r="AQ104">
         <v>3595</v>
       </c>
-      <c r="AQ104">
+      <c r="AR104">
         <v>121.33</v>
       </c>
-      <c r="AR104">
+      <c r="AS104">
         <v>74.67</v>
       </c>
-      <c r="AS104">
+      <c r="AT104">
         <v>8987.5</v>
       </c>
-      <c r="AT104">
+      <c r="AU104">
         <v>2454.55</v>
       </c>
     </row>
-    <row r="105" spans="1:46">
+    <row r="105" spans="1:47">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C105">
         <v>51580</v>
@@ -15518,57 +15836,60 @@
         <v>666.4</v>
       </c>
       <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
         <v>5182.5</v>
       </c>
-      <c r="AG105">
+      <c r="AH105">
         <v>6458.33</v>
       </c>
-      <c r="AH105">
+      <c r="AI105">
         <v>9440</v>
       </c>
-      <c r="AI105">
+      <c r="AJ105">
         <v>3652</v>
       </c>
-      <c r="AJ105">
+      <c r="AK105">
         <v>3150</v>
       </c>
-      <c r="AK105">
+      <c r="AL105">
         <v>5705</v>
       </c>
-      <c r="AL105">
+      <c r="AM105">
         <v>1852.14</v>
       </c>
-      <c r="AM105">
+      <c r="AN105">
         <v>1976.67</v>
       </c>
-      <c r="AN105">
+      <c r="AO105">
         <v>1498.33</v>
       </c>
-      <c r="AO105">
+      <c r="AP105">
         <v>505.89</v>
       </c>
-      <c r="AP105">
+      <c r="AQ105">
         <v>3535</v>
       </c>
-      <c r="AQ105">
+      <c r="AR105">
         <v>121.33</v>
       </c>
-      <c r="AR105">
+      <c r="AS105">
         <v>74.67</v>
       </c>
-      <c r="AS105">
+      <c r="AT105">
         <v>8933.33</v>
       </c>
-      <c r="AT105">
+      <c r="AU105">
         <v>2459.09</v>
       </c>
     </row>
-    <row r="106" spans="1:46">
+    <row r="106" spans="1:47">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C106">
         <v>51390</v>
@@ -15658,57 +15979,60 @@
         <v>666.4</v>
       </c>
       <c r="AF106">
+        <v>0</v>
+      </c>
+      <c r="AG106">
         <v>5182.5</v>
       </c>
-      <c r="AG106">
+      <c r="AH106">
         <v>6450</v>
       </c>
-      <c r="AH106">
+      <c r="AI106">
         <v>9440</v>
       </c>
-      <c r="AI106">
+      <c r="AJ106">
         <v>3652</v>
       </c>
-      <c r="AJ106">
+      <c r="AK106">
         <v>3170</v>
       </c>
-      <c r="AK106">
+      <c r="AL106">
         <v>5723.75</v>
       </c>
-      <c r="AL106">
+      <c r="AM106">
         <v>1852.5</v>
       </c>
-      <c r="AM106">
+      <c r="AN106">
         <v>1976.67</v>
       </c>
-      <c r="AN106">
+      <c r="AO106">
         <v>1498.33</v>
       </c>
-      <c r="AO106">
+      <c r="AP106">
         <v>499.89</v>
       </c>
-      <c r="AP106">
+      <c r="AQ106">
         <v>3475</v>
       </c>
-      <c r="AQ106">
+      <c r="AR106">
         <v>121.33</v>
       </c>
-      <c r="AR106">
+      <c r="AS106">
         <v>74.67</v>
       </c>
-      <c r="AS106">
+      <c r="AT106">
         <v>8887.5</v>
       </c>
-      <c r="AT106">
+      <c r="AU106">
         <v>2460</v>
       </c>
     </row>
-    <row r="107" spans="1:46">
+    <row r="107" spans="1:47">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C107">
         <v>51530</v>
@@ -15798,57 +16122,60 @@
         <v>664</v>
       </c>
       <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107">
         <v>5182.5</v>
       </c>
-      <c r="AG107">
+      <c r="AH107">
         <v>6450</v>
       </c>
-      <c r="AH107">
+      <c r="AI107">
         <v>9430</v>
       </c>
-      <c r="AI107">
+      <c r="AJ107">
         <v>3652</v>
       </c>
-      <c r="AJ107">
+      <c r="AK107">
         <v>3167.14</v>
       </c>
-      <c r="AK107">
+      <c r="AL107">
         <v>5748.75</v>
       </c>
-      <c r="AL107">
+      <c r="AM107">
         <v>1852.14</v>
       </c>
-      <c r="AM107">
+      <c r="AN107">
         <v>1976.67</v>
       </c>
-      <c r="AN107">
+      <c r="AO107">
         <v>1498.33</v>
       </c>
-      <c r="AO107">
+      <c r="AP107">
         <v>497.89</v>
       </c>
-      <c r="AP107">
+      <c r="AQ107">
         <v>3420</v>
       </c>
-      <c r="AQ107">
+      <c r="AR107">
         <v>121.67</v>
       </c>
-      <c r="AR107">
+      <c r="AS107">
         <v>75</v>
       </c>
-      <c r="AS107">
+      <c r="AT107">
         <v>8837.5</v>
       </c>
-      <c r="AT107">
+      <c r="AU107">
         <v>2473.64</v>
       </c>
     </row>
-    <row r="108" spans="1:46">
+    <row r="108" spans="1:47">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C108">
         <v>51870</v>
@@ -15938,57 +16265,60 @@
         <v>661.6</v>
       </c>
       <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
         <v>5182.5</v>
       </c>
-      <c r="AG108">
+      <c r="AH108">
         <v>6450</v>
       </c>
-      <c r="AH108">
+      <c r="AI108">
         <v>9430</v>
       </c>
-      <c r="AI108">
+      <c r="AJ108">
         <v>3652</v>
       </c>
-      <c r="AJ108">
+      <c r="AK108">
         <v>3148.57</v>
       </c>
-      <c r="AK108">
+      <c r="AL108">
         <v>5711.25</v>
       </c>
-      <c r="AL108">
+      <c r="AM108">
         <v>1852.86</v>
       </c>
-      <c r="AM108">
+      <c r="AN108">
         <v>1976.67</v>
       </c>
-      <c r="AN108">
+      <c r="AO108">
         <v>1498.33</v>
       </c>
-      <c r="AO108">
+      <c r="AP108">
         <v>502.44</v>
       </c>
-      <c r="AP108">
+      <c r="AQ108">
         <v>3370</v>
       </c>
-      <c r="AQ108">
+      <c r="AR108">
         <v>121.67</v>
       </c>
-      <c r="AR108">
+      <c r="AS108">
         <v>75</v>
       </c>
-      <c r="AS108">
+      <c r="AT108">
         <v>8850</v>
       </c>
-      <c r="AT108">
+      <c r="AU108">
         <v>2478.18</v>
       </c>
     </row>
-    <row r="109" spans="1:46">
+    <row r="109" spans="1:47">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C109">
         <v>51440</v>
@@ -16078,57 +16408,60 @@
         <v>660.8</v>
       </c>
       <c r="AF109">
+        <v>0</v>
+      </c>
+      <c r="AG109">
         <v>5162.5</v>
       </c>
-      <c r="AG109">
+      <c r="AH109">
         <v>6445.83</v>
       </c>
-      <c r="AH109">
+      <c r="AI109">
         <v>9430</v>
       </c>
-      <c r="AI109">
+      <c r="AJ109">
         <v>3652</v>
       </c>
-      <c r="AJ109">
+      <c r="AK109">
         <v>3157.14</v>
       </c>
-      <c r="AK109">
+      <c r="AL109">
         <v>5718.75</v>
       </c>
-      <c r="AL109">
+      <c r="AM109">
         <v>1851.43</v>
       </c>
-      <c r="AM109">
+      <c r="AN109">
         <v>1960</v>
       </c>
-      <c r="AN109">
+      <c r="AO109">
         <v>1498.33</v>
       </c>
-      <c r="AO109">
+      <c r="AP109">
         <v>504.44</v>
       </c>
-      <c r="AP109">
+      <c r="AQ109">
         <v>3370</v>
       </c>
-      <c r="AQ109">
+      <c r="AR109">
         <v>121.67</v>
       </c>
-      <c r="AR109">
+      <c r="AS109">
         <v>75</v>
       </c>
-      <c r="AS109">
+      <c r="AT109">
         <v>8850</v>
       </c>
-      <c r="AT109">
+      <c r="AU109">
         <v>2482.73</v>
       </c>
     </row>
-    <row r="110" spans="1:46">
+    <row r="110" spans="1:47">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C110">
         <v>50910</v>
@@ -16218,57 +16551,60 @@
         <v>660</v>
       </c>
       <c r="AF110">
+        <v>0</v>
+      </c>
+      <c r="AG110">
         <v>5162.5</v>
       </c>
-      <c r="AG110">
+      <c r="AH110">
         <v>6445.83</v>
       </c>
-      <c r="AH110">
+      <c r="AI110">
         <v>9430</v>
       </c>
-      <c r="AI110">
+      <c r="AJ110">
         <v>3652</v>
       </c>
-      <c r="AJ110">
+      <c r="AK110">
         <v>3157.14</v>
       </c>
-      <c r="AK110">
+      <c r="AL110">
         <v>5718.75</v>
       </c>
-      <c r="AL110">
+      <c r="AM110">
         <v>1855.71</v>
       </c>
-      <c r="AM110">
+      <c r="AN110">
         <v>1960</v>
       </c>
-      <c r="AN110">
+      <c r="AO110">
         <v>1498.33</v>
       </c>
-      <c r="AO110">
+      <c r="AP110">
         <v>501</v>
       </c>
-      <c r="AP110">
+      <c r="AQ110">
         <v>3295</v>
       </c>
-      <c r="AQ110">
+      <c r="AR110">
         <v>121.67</v>
       </c>
-      <c r="AR110">
+      <c r="AS110">
         <v>75</v>
       </c>
-      <c r="AS110">
+      <c r="AT110">
         <v>8866.67</v>
       </c>
-      <c r="AT110">
+      <c r="AU110">
         <v>2481.82</v>
       </c>
     </row>
-    <row r="111" spans="1:46">
+    <row r="111" spans="1:47">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C111">
         <v>50920</v>
@@ -16358,57 +16694,60 @@
         <v>659.2</v>
       </c>
       <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
         <v>5162.5</v>
       </c>
-      <c r="AG111">
+      <c r="AH111">
         <v>6445.83</v>
       </c>
-      <c r="AH111">
+      <c r="AI111">
         <v>9430</v>
       </c>
-      <c r="AI111">
+      <c r="AJ111">
         <v>3648</v>
       </c>
-      <c r="AJ111">
+      <c r="AK111">
         <v>3120</v>
       </c>
-      <c r="AK111">
+      <c r="AL111">
         <v>5675</v>
       </c>
-      <c r="AL111">
+      <c r="AM111">
         <v>1859.29</v>
       </c>
-      <c r="AM111">
+      <c r="AN111">
         <v>1943.33</v>
       </c>
-      <c r="AN111">
+      <c r="AO111">
         <v>1498.33</v>
       </c>
-      <c r="AO111">
+      <c r="AP111">
         <v>485.44</v>
       </c>
-      <c r="AP111">
+      <c r="AQ111">
         <v>3235</v>
       </c>
-      <c r="AQ111">
+      <c r="AR111">
         <v>121.67</v>
       </c>
-      <c r="AR111">
+      <c r="AS111">
         <v>75</v>
       </c>
-      <c r="AS111">
+      <c r="AT111">
         <v>8845.83</v>
       </c>
-      <c r="AT111">
+      <c r="AU111">
         <v>2479.09</v>
       </c>
     </row>
-    <row r="112" spans="1:46">
+    <row r="112" spans="1:47">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C112">
         <v>50540</v>
@@ -16498,57 +16837,60 @@
         <v>659.2</v>
       </c>
       <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112">
         <v>5117.5</v>
       </c>
-      <c r="AG112">
+      <c r="AH112">
         <v>6441.67</v>
       </c>
-      <c r="AH112">
+      <c r="AI112">
         <v>9430</v>
       </c>
-      <c r="AI112">
+      <c r="AJ112">
         <v>3648</v>
       </c>
-      <c r="AJ112">
+      <c r="AK112">
         <v>3125.71</v>
       </c>
-      <c r="AK112">
+      <c r="AL112">
         <v>5690</v>
       </c>
-      <c r="AL112">
+      <c r="AM112">
         <v>1860.36</v>
       </c>
-      <c r="AM112">
+      <c r="AN112">
         <v>1926.67</v>
       </c>
-      <c r="AN112">
+      <c r="AO112">
         <v>1498.33</v>
       </c>
-      <c r="AO112">
+      <c r="AP112">
         <v>479.22</v>
       </c>
-      <c r="AP112">
+      <c r="AQ112">
         <v>3185</v>
       </c>
-      <c r="AQ112">
+      <c r="AR112">
         <v>121.67</v>
       </c>
-      <c r="AR112">
+      <c r="AS112">
         <v>75</v>
       </c>
-      <c r="AS112">
+      <c r="AT112">
         <v>8725</v>
       </c>
-      <c r="AT112">
+      <c r="AU112">
         <v>2479.09</v>
       </c>
     </row>
-    <row r="113" spans="1:46">
+    <row r="113" spans="1:47">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C113">
         <v>50910</v>
@@ -16638,57 +16980,60 @@
         <v>657.6</v>
       </c>
       <c r="AF113">
+        <v>0</v>
+      </c>
+      <c r="AG113">
         <v>5147.5</v>
       </c>
-      <c r="AG113">
+      <c r="AH113">
         <v>6441.67</v>
       </c>
-      <c r="AH113">
+      <c r="AI113">
         <v>9430</v>
       </c>
-      <c r="AI113">
+      <c r="AJ113">
         <v>3648</v>
       </c>
-      <c r="AJ113">
+      <c r="AK113">
         <v>3114.29</v>
       </c>
-      <c r="AK113">
+      <c r="AL113">
         <v>5701.25</v>
       </c>
-      <c r="AL113">
+      <c r="AM113">
         <v>1860.36</v>
       </c>
-      <c r="AM113">
+      <c r="AN113">
         <v>1916.67</v>
       </c>
-      <c r="AN113">
+      <c r="AO113">
         <v>1498.33</v>
       </c>
-      <c r="AO113">
+      <c r="AP113">
         <v>478.67</v>
       </c>
-      <c r="AP113">
+      <c r="AQ113">
         <v>3135</v>
       </c>
-      <c r="AQ113">
+      <c r="AR113">
         <v>121.67</v>
       </c>
-      <c r="AR113">
+      <c r="AS113">
         <v>75</v>
       </c>
-      <c r="AS113">
+      <c r="AT113">
         <v>8725</v>
       </c>
-      <c r="AT113">
+      <c r="AU113">
         <v>2479.09</v>
       </c>
     </row>
-    <row r="114" spans="1:46">
+    <row r="114" spans="1:47">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C114">
         <v>49840</v>
@@ -16778,57 +17123,60 @@
         <v>654.4</v>
       </c>
       <c r="AF114">
+        <v>0</v>
+      </c>
+      <c r="AG114">
         <v>5162.5</v>
       </c>
-      <c r="AG114">
+      <c r="AH114">
         <v>6441.67</v>
       </c>
-      <c r="AH114">
+      <c r="AI114">
         <v>9390</v>
       </c>
-      <c r="AI114">
+      <c r="AJ114">
         <v>3648</v>
       </c>
-      <c r="AJ114">
+      <c r="AK114">
         <v>3152.86</v>
       </c>
-      <c r="AK114">
+      <c r="AL114">
         <v>5710</v>
       </c>
-      <c r="AL114">
+      <c r="AM114">
         <v>1860</v>
       </c>
-      <c r="AM114">
+      <c r="AN114">
         <v>1916.67</v>
       </c>
-      <c r="AN114">
+      <c r="AO114">
         <v>1498.33</v>
       </c>
-      <c r="AO114">
+      <c r="AP114">
         <v>478.22</v>
       </c>
-      <c r="AP114">
+      <c r="AQ114">
         <v>3090</v>
       </c>
-      <c r="AQ114">
+      <c r="AR114">
         <v>122.33</v>
       </c>
-      <c r="AR114">
+      <c r="AS114">
         <v>75.17</v>
       </c>
-      <c r="AS114">
+      <c r="AT114">
         <v>8733.33</v>
       </c>
-      <c r="AT114">
+      <c r="AU114">
         <v>2479.09</v>
       </c>
     </row>
-    <row r="115" spans="1:46">
+    <row r="115" spans="1:47">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C115">
         <v>48980</v>
@@ -16918,57 +17266,60 @@
         <v>653.4</v>
       </c>
       <c r="AF115">
+        <v>0</v>
+      </c>
+      <c r="AG115">
         <v>5162.5</v>
       </c>
-      <c r="AG115">
+      <c r="AH115">
         <v>6441.67</v>
       </c>
-      <c r="AH115">
+      <c r="AI115">
         <v>9400</v>
       </c>
-      <c r="AI115">
+      <c r="AJ115">
         <v>3648</v>
       </c>
-      <c r="AJ115">
+      <c r="AK115">
         <v>3184.29</v>
       </c>
-      <c r="AK115">
+      <c r="AL115">
         <v>5708.75</v>
       </c>
-      <c r="AL115">
+      <c r="AM115">
         <v>1858.93</v>
       </c>
-      <c r="AM115">
+      <c r="AN115">
         <v>1866.67</v>
       </c>
-      <c r="AN115">
+      <c r="AO115">
         <v>1498.33</v>
       </c>
-      <c r="AO115">
+      <c r="AP115">
         <v>456</v>
       </c>
-      <c r="AP115">
+      <c r="AQ115">
         <v>3090</v>
       </c>
-      <c r="AQ115">
+      <c r="AR115">
         <v>122.67</v>
       </c>
-      <c r="AR115">
+      <c r="AS115">
         <v>75</v>
       </c>
-      <c r="AS115">
+      <c r="AT115">
         <v>8687.5</v>
       </c>
-      <c r="AT115">
+      <c r="AU115">
         <v>2478.18</v>
       </c>
     </row>
-    <row r="116" spans="1:46">
+    <row r="116" spans="1:47">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C116">
         <v>49310</v>
@@ -17058,57 +17409,60 @@
         <v>650.4</v>
       </c>
       <c r="AF116">
+        <v>0</v>
+      </c>
+      <c r="AG116">
         <v>5162.5</v>
       </c>
-      <c r="AG116">
+      <c r="AH116">
         <v>6441.67</v>
       </c>
-      <c r="AH116">
+      <c r="AI116">
         <v>9400</v>
       </c>
-      <c r="AI116">
+      <c r="AJ116">
         <v>3648</v>
       </c>
-      <c r="AJ116">
+      <c r="AK116">
         <v>3155.71</v>
       </c>
-      <c r="AK116">
+      <c r="AL116">
         <v>5676.25</v>
       </c>
-      <c r="AL116">
+      <c r="AM116">
         <v>1855</v>
       </c>
-      <c r="AM116">
+      <c r="AN116">
         <v>1850</v>
       </c>
-      <c r="AN116">
+      <c r="AO116">
         <v>1498.33</v>
       </c>
-      <c r="AO116">
+      <c r="AP116">
         <v>454.67</v>
       </c>
-      <c r="AP116">
+      <c r="AQ116">
         <v>3145</v>
       </c>
-      <c r="AQ116">
+      <c r="AR116">
         <v>122.67</v>
       </c>
-      <c r="AR116">
+      <c r="AS116">
         <v>75</v>
       </c>
-      <c r="AS116">
+      <c r="AT116">
         <v>8650</v>
       </c>
-      <c r="AT116">
+      <c r="AU116">
         <v>2484.55</v>
       </c>
     </row>
-    <row r="117" spans="1:46">
+    <row r="117" spans="1:47">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C117">
         <v>49210</v>
@@ -17198,57 +17552,60 @@
         <v>638.4</v>
       </c>
       <c r="AF117">
+        <v>0</v>
+      </c>
+      <c r="AG117">
         <v>5162.5</v>
       </c>
-      <c r="AG117">
+      <c r="AH117">
         <v>6441.67</v>
       </c>
-      <c r="AH117">
+      <c r="AI117">
         <v>9400</v>
       </c>
-      <c r="AI117">
+      <c r="AJ117">
         <v>3648</v>
       </c>
-      <c r="AJ117">
+      <c r="AK117">
         <v>3154.29</v>
       </c>
-      <c r="AK117">
+      <c r="AL117">
         <v>5670</v>
       </c>
-      <c r="AL117">
+      <c r="AM117">
         <v>1854.64</v>
       </c>
-      <c r="AM117">
+      <c r="AN117">
         <v>1833.33</v>
       </c>
-      <c r="AN117">
+      <c r="AO117">
         <v>1498.33</v>
       </c>
-      <c r="AO117">
+      <c r="AP117">
         <v>458.11</v>
       </c>
-      <c r="AP117">
+      <c r="AQ117">
         <v>3200</v>
       </c>
-      <c r="AQ117">
+      <c r="AR117">
         <v>122.67</v>
       </c>
-      <c r="AR117">
+      <c r="AS117">
         <v>75</v>
       </c>
-      <c r="AS117">
+      <c r="AT117">
         <v>8650</v>
       </c>
-      <c r="AT117">
+      <c r="AU117">
         <v>2489.09</v>
       </c>
     </row>
-    <row r="118" spans="1:46">
+    <row r="118" spans="1:47">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C118">
         <v>49530</v>
@@ -17338,57 +17695,60 @@
         <v>638.4</v>
       </c>
       <c r="AF118">
+        <v>0</v>
+      </c>
+      <c r="AG118">
         <v>5162.5</v>
       </c>
-      <c r="AG118">
+      <c r="AH118">
         <v>6379.17</v>
       </c>
-      <c r="AH118">
+      <c r="AI118">
         <v>9400</v>
       </c>
-      <c r="AI118">
+      <c r="AJ118">
         <v>3644</v>
       </c>
-      <c r="AJ118">
+      <c r="AK118">
         <v>3131.43</v>
       </c>
-      <c r="AK118">
+      <c r="AL118">
         <v>5646.25</v>
       </c>
-      <c r="AL118">
+      <c r="AM118">
         <v>1853.93</v>
       </c>
-      <c r="AM118">
+      <c r="AN118">
         <v>1833.33</v>
       </c>
-      <c r="AN118">
+      <c r="AO118">
         <v>1498.33</v>
       </c>
-      <c r="AO118">
+      <c r="AP118">
         <v>454</v>
       </c>
-      <c r="AP118">
+      <c r="AQ118">
         <v>3220</v>
       </c>
-      <c r="AQ118">
+      <c r="AR118">
         <v>122.67</v>
       </c>
-      <c r="AR118">
+      <c r="AS118">
         <v>75</v>
       </c>
-      <c r="AS118">
+      <c r="AT118">
         <v>8650</v>
       </c>
-      <c r="AT118">
+      <c r="AU118">
         <v>2489.09</v>
       </c>
     </row>
-    <row r="119" spans="1:46">
+    <row r="119" spans="1:47">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C119">
         <v>49780</v>
@@ -17478,49 +17838,195 @@
         <v>638.4</v>
       </c>
       <c r="AF119">
+        <v>0</v>
+      </c>
+      <c r="AG119">
         <v>5162.5</v>
       </c>
-      <c r="AG119">
+      <c r="AH119">
         <v>6316.67</v>
       </c>
-      <c r="AH119">
+      <c r="AI119">
         <v>9405</v>
       </c>
-      <c r="AI119">
+      <c r="AJ119">
         <v>3644</v>
       </c>
-      <c r="AJ119">
+      <c r="AK119">
         <v>3213.33</v>
       </c>
-      <c r="AK119">
+      <c r="AL119">
         <v>5675</v>
       </c>
-      <c r="AL119">
+      <c r="AM119">
         <v>1852.5</v>
       </c>
-      <c r="AM119">
+      <c r="AN119">
         <v>1800</v>
       </c>
-      <c r="AN119">
+      <c r="AO119">
         <v>1498.33</v>
       </c>
-      <c r="AO119">
+      <c r="AP119">
         <v>453.56</v>
       </c>
-      <c r="AP119">
+      <c r="AQ119">
         <v>3200</v>
       </c>
-      <c r="AQ119">
+      <c r="AR119">
         <v>122.67</v>
       </c>
-      <c r="AR119">
+      <c r="AS119">
         <v>75</v>
       </c>
-      <c r="AS119">
+      <c r="AT119">
         <v>8650</v>
       </c>
-      <c r="AT119">
+      <c r="AU119">
         <v>2489.09</v>
+      </c>
+    </row>
+    <row r="120" spans="1:47">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>164</v>
+      </c>
+      <c r="C120">
+        <v>50110</v>
+      </c>
+      <c r="D120">
+        <v>3720.77</v>
+      </c>
+      <c r="E120">
+        <v>25360</v>
+      </c>
+      <c r="F120">
+        <v>13750</v>
+      </c>
+      <c r="G120">
+        <v>270.3</v>
+      </c>
+      <c r="H120">
+        <v>4142.5</v>
+      </c>
+      <c r="I120">
+        <v>3948.33</v>
+      </c>
+      <c r="J120">
+        <v>10695.5</v>
+      </c>
+      <c r="K120">
+        <v>18800</v>
+      </c>
+      <c r="L120">
+        <v>3605.33</v>
+      </c>
+      <c r="M120">
+        <v>2926.67</v>
+      </c>
+      <c r="N120">
+        <v>3909.17</v>
+      </c>
+      <c r="O120">
+        <v>100050</v>
+      </c>
+      <c r="P120">
+        <v>142750</v>
+      </c>
+      <c r="Q120">
+        <v>5573.64</v>
+      </c>
+      <c r="R120">
+        <v>5928</v>
+      </c>
+      <c r="S120">
+        <v>15507.1</v>
+      </c>
+      <c r="T120">
+        <v>2524</v>
+      </c>
+      <c r="U120">
+        <v>6511.67</v>
+      </c>
+      <c r="V120">
+        <v>2620</v>
+      </c>
+      <c r="W120">
+        <v>1564.8</v>
+      </c>
+      <c r="X120">
+        <v>2546.67</v>
+      </c>
+      <c r="Y120">
+        <v>5515</v>
+      </c>
+      <c r="Z120">
+        <v>2996.67</v>
+      </c>
+      <c r="AA120">
+        <v>2696</v>
+      </c>
+      <c r="AB120">
+        <v>6030</v>
+      </c>
+      <c r="AC120">
+        <v>7957.14</v>
+      </c>
+      <c r="AD120">
+        <v>2780</v>
+      </c>
+      <c r="AE120">
+        <v>636</v>
+      </c>
+      <c r="AF120">
+        <v>24216.7</v>
+      </c>
+      <c r="AG120">
+        <v>5162.5</v>
+      </c>
+      <c r="AH120">
+        <v>6316.67</v>
+      </c>
+      <c r="AI120">
+        <v>9405</v>
+      </c>
+      <c r="AJ120">
+        <v>3644</v>
+      </c>
+      <c r="AK120">
+        <v>3216.67</v>
+      </c>
+      <c r="AL120">
+        <v>5742.5</v>
+      </c>
+      <c r="AM120">
+        <v>1841.07</v>
+      </c>
+      <c r="AN120">
+        <v>1800</v>
+      </c>
+      <c r="AO120">
+        <v>1498.33</v>
+      </c>
+      <c r="AP120">
+        <v>457</v>
+      </c>
+      <c r="AQ120">
+        <v>3150</v>
+      </c>
+      <c r="AR120">
+        <v>122.67</v>
+      </c>
+      <c r="AS120">
+        <v>75</v>
+      </c>
+      <c r="AT120">
+        <v>8695.83</v>
+      </c>
+      <c r="AU120">
+        <v>2491.82</v>
       </c>
     </row>
   </sheetData>
